--- a/02. Trần Thị Diệu Linh/TCs_Build1.xlsx
+++ b/02. Trần Thị Diệu Linh/TCs_Build1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\18. Thuc tap tot nghiep\ThucTapTN_2021_2022_2\02. Trần Thị Diệu Linh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7B4FD1-6AA1-4165-A4E2-3F3A957EFC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A768B28D-2FE2-4B2A-AD22-C405F27F8225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="570">
   <si>
     <t>Test Requirement List</t>
   </si>
@@ -794,18 +794,6 @@
 booked 10 tickets</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Navigate to Railway
-2. Go to Book ticket tab
-3. Choose the information in drop down list
-- Depart day: 12/15/2021
-- Depart from: Quảng Ngãi
-- Arrived at: Nha Trang
-- Seat type: Soft seat
-- Ticket amount: 1 
-4. Click Book ticket button
-</t>
-  </si>
-  <si>
     <t>TC-042</t>
   </si>
   <si>
@@ -824,17 +812,6 @@
   </si>
   <si>
     <t>TC-043</t>
-  </si>
-  <si>
-    <t>1. Navigate to Railway
-2. Go to Book ticket tab
-3. Choose the information in drop down list (with valid info):
-- Depart day: 12/15/2021
-- Depart from: Quảng Ngãi
-- Arrived at: Nha Trang
-- Seat type: Soft seat
-- Ticket amount: 1
-4. Click Book ticket button</t>
   </si>
   <si>
     <t>User book the ticket successfully, which is displayed on a My ticket page</t>
@@ -961,26 +938,7 @@
     <t xml:space="preserve">Logged in successfully </t>
   </si>
   <si>
-    <t>1. Navigate to Railway
-2. Go to Change password tab
-3. Enter vaild info field:
-- Current password: 123456789
-- New password: 123456780
-- Confirm password: 123456780
-4. Click "Change password" button</t>
-  </si>
-  <si>
     <t>TC-072</t>
-  </si>
-  <si>
-    <t>1. Navigate to Railway
-2. Go to Change password tab
-3. Enter incorrect current password info
-- Current password: qjfvfggrgr
-4. Enter valid info for the remaning fields:
-- New password: 123456780
-- Confirm password: 123456780
-5. Click "Change password" button</t>
   </si>
   <si>
     <t>TC-073</t>
@@ -988,15 +946,6 @@
   <si>
     <t xml:space="preserve">Logged in successfully 
 </t>
-  </si>
-  <si>
-    <t>1. Navigate to Railway
-2. Go to Change password tab
-3. Enter confirm password info doesn't fix with new password
-- New password: 123456781
-- Confirm password: 123456787
-4. Enter valid info for the remaning fields:
-5. Click "Change password" button</t>
   </si>
   <si>
     <t>TC-074</t>
@@ -1015,17 +964,10 @@
     <t>Not logged in yet</t>
   </si>
   <si>
-    <t>A notification reset password will be sent to your email</t>
-  </si>
-  <si>
     <t>TC-078</t>
   </si>
   <si>
     <t>User can logout</t>
-  </si>
-  <si>
-    <t>1. Navigate to Railway
-2. Click Log out tab</t>
   </si>
   <si>
     <t>On the header's page display "Login item"</t>
@@ -1208,17 +1150,7 @@
     <t>Verify that user can book tickets with a total number of tickets has no more than 10</t>
   </si>
   <si>
-    <t>Logged in successfully, 
-not booked tickets yet or
-booked but the total number 
-of tickets has no more than 10</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that user can cancel tickets </t>
-  </si>
-  <si>
-    <t>1. Navigate to Railway
-2. Go to My ticket tab</t>
   </si>
   <si>
     <t>My Ticket tab displays</t>
@@ -1410,10 +1342,6 @@
     <t>Verify that user can navigate to Change password tab</t>
   </si>
   <si>
-    <t>1. Navigate to Railway
-2. Go to Change password tab</t>
-  </si>
-  <si>
     <t>Change password tab displays</t>
   </si>
   <si>
@@ -1549,11 +1477,6 @@
   </si>
   <si>
     <t>Verify that user can navigate to Forgot password tab</t>
-  </si>
-  <si>
-    <t>1. Navigate to Railway
-2. Go to Login tab
-3. Click on "Forgot password" link</t>
   </si>
   <si>
     <t>Forgot password tab displays</t>
@@ -2304,19 +2227,7 @@
     <t>Verify that user cannot change password if Current Password field is blanked</t>
   </si>
   <si>
-    <t>1. Navigate to Railway
-2. Go to Change password tab
-3. Blank Current Password field and enter valid other fields
-4. Click Change password button</t>
-  </si>
-  <si>
     <t>Verify that user cannot change password if New Password field is blanked</t>
-  </si>
-  <si>
-    <t>1. Navigate to Railway
-2. Go to Change password tab
-3. Blank New Password field and enter valid other fields
-4. Click Change password button</t>
   </si>
   <si>
     <t>Verify that user cannot change password if Confirm Password field is blanked</t>
@@ -2439,17 +2350,6 @@
   <si>
     <t>Verify that "book ticket" link cannot navigate to Book Ticket tab
 if not logged in yet</t>
-  </si>
-  <si>
-    <t>1. Navigate to Railway
-2. Go to Book ticket tab
-3. Choose the information in drop down list
-- Depart day: 12/15/2021
-- Depart from: Quảng Ngãi
-- Arrived at: Phan Thiết
-- Seat type: Soft seat
-- Ticket amount: 1
-4. Click Book ticket button</t>
   </si>
   <si>
     <t>- Logged in successfully 
@@ -3359,12 +3259,193 @@
   <si>
     <t>Skipped</t>
   </si>
+  <si>
+    <t>UI of Timetable page displays as design</t>
+  </si>
+  <si>
+    <t>1. Navigate to Railway
+2, Login to Railway
+2. Go to My ticket tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that "book ticket" link can navigate to Book Ticket tab if logged in </t>
+  </si>
+  <si>
+    <t>Create new account</t>
+  </si>
+  <si>
+    <t>- Create new account
+- User logged in</t>
+  </si>
+  <si>
+    <t>1. Navigate to Railway
+2. Go to Book ticket tab
+3. Choose the information in drop down list
+- Depart day: Today
+- Depart from: Quảng Ngãi
+- Arrived at: Phan Thiết
+- Seat type: Soft seat
+- Ticket amount: 1
+4. Click Book ticket button</t>
+  </si>
+  <si>
+    <t>1. Navigate to Railway
+2. Go to Book ticket tab
+3. Choose the information in drop down list (with valid info):
+- Depart day: Today
+- Depart from: Quảng Ngãi
+- Arrived at: Nha Trang
+- Seat type: Soft seat
+- Ticket amount: 1
+4. Click Book ticket button</t>
+  </si>
+  <si>
+    <t>1. Navigate to Railway
+2. Go to Book ticket tab
+3. Choose the information in drop down list
+4. Click Book ticket button</t>
+  </si>
+  <si>
+    <t>Filter is changed.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Railway
+2. Login with valid account
+3. Go to Change password tab</t>
+  </si>
+  <si>
+    <t>1. Navigate to Railway
+2. Login with valid account
+3. Go to Change password tab
+4. Enter incorrect current password info
+5. Enter valid info for the remaning fields:
+6. Click "Change password" button</t>
+  </si>
+  <si>
+    <t>1. Navigate to Railway
+2. Login with valid account
+3. Go to Change password tab
+4. Enter vaild info field
+5. Click "Change password" button</t>
+  </si>
+  <si>
+    <t>1. Navigate to Railway
+2. Login with valid account
+3. Go to Change password tab
+4. Enter confirm password info doesn't match new password
+5. Enter valid info for the remaning fields:
+6. Click "Change password" button</t>
+  </si>
+  <si>
+    <t>1. Navigate to Railway
+2. Login with a valid account
+3. Go to Change password tab
+4. Blank Current Password field and enter valid other fields.
+5. Click Change password button</t>
+  </si>
+  <si>
+    <t>1. Navigate to Railway
+2. Login with a valid account
+3. Go to Change password tab
+4. Blank New Password field and enter valid other fields
+5. Click Change password button</t>
+  </si>
+  <si>
+    <t>1. Navigate to Railway
+2. Go to Login tab
+3. Click on Forgot Password page link
+3. Go to Forgot password page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A notification reset password will be sent to your email and a message displays: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>"A password recovery email has been sent to your email."</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Navigate to Railway
+2. Login with a valid account
+3. Click on "Contact" tab
+4. Click on "Log out" tab</t>
+  </si>
+  <si>
+    <t>Home page displays as design</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Viết test case</t>
+  </si>
+  <si>
+    <t>Review test case</t>
+  </si>
+  <si>
+    <t>Thực thi test case thủ công</t>
+  </si>
+  <si>
+    <t>Viết test script</t>
+  </si>
+  <si>
+    <t>Thực thi test case tự động</t>
+  </si>
+  <si>
+    <t>PERT</t>
+  </si>
+  <si>
+    <t>số case</t>
+  </si>
+  <si>
+    <t>số phút</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>Plan (h)</t>
+  </si>
+  <si>
+    <t>Mức độ ưu tiên</t>
+  </si>
+  <si>
+    <t>Viết test cases</t>
+  </si>
+  <si>
+    <t>Review test cases</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>My Ticket</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3474,8 +3555,14 @@
       <sz val="8"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3560,8 +3647,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -3917,11 +4016,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4257,9 +4450,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4398,9 +4588,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4409,9 +4596,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4494,9 +4678,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4535,9 +4716,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4602,17 +4780,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4635,13 +4807,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4661,6 +4826,114 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5216,7 +5489,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5231,10 +5504,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="258" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="240"/>
+      <c r="B1" s="259"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
@@ -33746,8 +34019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA1057"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -33869,11 +34142,11 @@
       <c r="E4" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="230" t="s">
-        <v>490</v>
-      </c>
-      <c r="G4" s="230" t="s">
-        <v>491</v>
+      <c r="F4" s="224" t="s">
+        <v>476</v>
+      </c>
+      <c r="G4" s="224" t="s">
+        <v>477</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>126</v>
@@ -33937,15 +34210,15 @@
       <c r="A6" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="173" t="s">
-        <v>375</v>
+      <c r="B6" s="170" t="s">
+        <v>365</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="161" t="s">
-        <v>376</v>
-      </c>
-      <c r="E6" s="173" t="s">
-        <v>492</v>
+      <c r="D6" s="159" t="s">
+        <v>366</v>
+      </c>
+      <c r="E6" s="170" t="s">
+        <v>478</v>
       </c>
       <c r="F6" s="41" t="s">
         <v>137</v>
@@ -33978,14 +34251,16 @@
       <c r="A7" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="173" t="s">
-        <v>374</v>
+      <c r="B7" s="170" t="s">
+        <v>364</v>
       </c>
       <c r="C7" s="32"/>
-      <c r="D7" s="161" t="s">
+      <c r="D7" s="159" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="35" t="s">
+        <v>549</v>
+      </c>
       <c r="F7" s="41" t="s">
         <v>137</v>
       </c>
@@ -34018,7 +34293,7 @@
         <v>131</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="99" t="s">
@@ -34055,16 +34330,16 @@
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1">
-      <c r="A9" s="174" t="s">
+      <c r="A9" s="171" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="177"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="174"/>
       <c r="I9" s="27"/>
       <c r="J9" s="28"/>
       <c r="K9" s="3"/>
@@ -34086,26 +34361,26 @@
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27" ht="62.25" customHeight="1">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="139" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="167" t="s">
-        <v>377</v>
-      </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="170" t="s">
-        <v>378</v>
-      </c>
-      <c r="E10" s="167" t="s">
-        <v>493</v>
-      </c>
-      <c r="F10" s="168" t="s">
+      <c r="B10" s="164" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" s="124"/>
+      <c r="D10" s="167" t="s">
+        <v>368</v>
+      </c>
+      <c r="E10" s="164" t="s">
+        <v>479</v>
+      </c>
+      <c r="F10" s="165" t="s">
         <v>137</v>
       </c>
-      <c r="G10" s="168" t="s">
+      <c r="G10" s="165" t="s">
         <v>137</v>
       </c>
-      <c r="H10" s="179"/>
+      <c r="H10" s="176"/>
       <c r="I10" s="54"/>
       <c r="J10" s="56"/>
       <c r="K10" s="3"/>
@@ -34127,26 +34402,26 @@
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27" ht="120" customHeight="1">
-      <c r="A11" s="140" t="s">
+      <c r="A11" s="139" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="140"/>
-      <c r="D11" s="137" t="s">
+      <c r="B11" s="190" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="139"/>
+      <c r="D11" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="194" t="s">
-        <v>410</v>
-      </c>
-      <c r="F11" s="138" t="s">
+      <c r="E11" s="190" t="s">
+        <v>399</v>
+      </c>
+      <c r="F11" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="G11" s="138" t="s">
+      <c r="G11" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="178">
+      <c r="H11" s="175">
         <v>1</v>
       </c>
       <c r="I11" s="11" t="s">
@@ -34172,18 +34447,18 @@
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27" ht="75" customHeight="1">
-      <c r="A12" s="140" t="s">
+      <c r="A12" s="139" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="173" t="s">
-        <v>396</v>
+      <c r="B12" s="170" t="s">
+        <v>385</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="161" t="s">
-        <v>393</v>
-      </c>
-      <c r="E12" s="161" t="s">
-        <v>411</v>
+      <c r="D12" s="159" t="s">
+        <v>382</v>
+      </c>
+      <c r="E12" s="159" t="s">
+        <v>400</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>137</v>
@@ -34215,18 +34490,18 @@
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27" ht="103.5" customHeight="1">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="173" t="s">
-        <v>397</v>
+      <c r="B13" s="170" t="s">
+        <v>386</v>
       </c>
       <c r="C13" s="32"/>
-      <c r="D13" s="161" t="s">
-        <v>394</v>
-      </c>
-      <c r="E13" s="161" t="s">
-        <v>494</v>
+      <c r="D13" s="159" t="s">
+        <v>383</v>
+      </c>
+      <c r="E13" s="159" t="s">
+        <v>480</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>137</v>
@@ -34256,18 +34531,18 @@
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27" ht="75" customHeight="1">
-      <c r="A14" s="140" t="s">
+      <c r="A14" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="173" t="s">
-        <v>398</v>
+      <c r="B14" s="170" t="s">
+        <v>387</v>
       </c>
       <c r="C14" s="32"/>
-      <c r="D14" s="161" t="s">
-        <v>395</v>
-      </c>
-      <c r="E14" s="161" t="s">
-        <v>412</v>
+      <c r="D14" s="159" t="s">
+        <v>384</v>
+      </c>
+      <c r="E14" s="159" t="s">
+        <v>401</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>137</v>
@@ -34297,18 +34572,18 @@
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27" ht="75" customHeight="1">
-      <c r="A15" s="140" t="s">
+      <c r="A15" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="173" t="s">
-        <v>399</v>
+      <c r="B15" s="170" t="s">
+        <v>388</v>
       </c>
       <c r="C15" s="32"/>
-      <c r="D15" s="161" t="s">
-        <v>400</v>
-      </c>
-      <c r="E15" s="161" t="s">
-        <v>495</v>
+      <c r="D15" s="159" t="s">
+        <v>389</v>
+      </c>
+      <c r="E15" s="159" t="s">
+        <v>481</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>137</v>
@@ -34338,20 +34613,20 @@
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27" ht="141" customHeight="1">
-      <c r="A16" s="140" t="s">
+      <c r="A16" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="173" t="s">
-        <v>272</v>
+      <c r="B16" s="170" t="s">
+        <v>265</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="D16" s="161" t="s">
-        <v>266</v>
-      </c>
-      <c r="E16" s="161" t="s">
-        <v>413</v>
+        <v>260</v>
+      </c>
+      <c r="D16" s="159" t="s">
+        <v>259</v>
+      </c>
+      <c r="E16" s="159" t="s">
+        <v>402</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>137</v>
@@ -34381,18 +34656,18 @@
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27" ht="147" customHeight="1">
-      <c r="A17" s="140" t="s">
+      <c r="A17" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="203" t="s">
-        <v>270</v>
+      <c r="B17" s="199" t="s">
+        <v>263</v>
       </c>
       <c r="C17" s="43"/>
-      <c r="D17" s="203" t="s">
+      <c r="D17" s="199" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="203" t="s">
-        <v>414</v>
+      <c r="E17" s="199" t="s">
+        <v>403</v>
       </c>
       <c r="F17" s="44" t="s">
         <v>137</v>
@@ -34422,18 +34697,18 @@
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27" ht="140.25" customHeight="1">
-      <c r="A18" s="140" t="s">
+      <c r="A18" s="139" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="203" t="s">
-        <v>271</v>
+      <c r="B18" s="199" t="s">
+        <v>264</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="203" t="s">
-        <v>415</v>
+      <c r="E18" s="199" t="s">
+        <v>404</v>
       </c>
       <c r="F18" s="47" t="s">
         <v>137</v>
@@ -34463,18 +34738,18 @@
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27" ht="120" customHeight="1">
-      <c r="A19" s="140" t="s">
+      <c r="A19" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="207" t="s">
-        <v>273</v>
+      <c r="B19" s="202" t="s">
+        <v>266</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="204" t="s">
-        <v>416</v>
+      <c r="E19" s="200" t="s">
+        <v>405</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>137</v>
@@ -34504,18 +34779,18 @@
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27" ht="135" customHeight="1">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="139" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="173" t="s">
-        <v>274</v>
+      <c r="B20" s="170" t="s">
+        <v>267</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="161" t="s">
-        <v>417</v>
+      <c r="E20" s="159" t="s">
+        <v>406</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>137</v>
@@ -34545,18 +34820,18 @@
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27" ht="150" customHeight="1">
-      <c r="A21" s="140" t="s">
+      <c r="A21" s="139" t="s">
         <v>154</v>
       </c>
-      <c r="B21" s="173" t="s">
-        <v>275</v>
+      <c r="B21" s="170" t="s">
+        <v>268</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="161" t="s">
+      <c r="D21" s="159" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="161" t="s">
-        <v>496</v>
+      <c r="E21" s="159" t="s">
+        <v>482</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>134</v>
@@ -34587,62 +34862,62 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
     </row>
-    <row r="22" spans="1:27" ht="172.5" customHeight="1">
-      <c r="A22" s="140" t="s">
+    <row r="22" spans="1:27" s="135" customFormat="1" ht="172.5" customHeight="1">
+      <c r="A22" s="249" t="s">
         <v>155</v>
       </c>
-      <c r="B22" s="207" t="s">
-        <v>276</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="161" t="s">
-        <v>497</v>
-      </c>
-      <c r="E22" s="161" t="s">
-        <v>498</v>
-      </c>
-      <c r="F22" s="36" t="s">
+      <c r="B22" s="202" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" s="91"/>
+      <c r="D22" s="250" t="s">
+        <v>483</v>
+      </c>
+      <c r="E22" s="250" t="s">
+        <v>484</v>
+      </c>
+      <c r="F22" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="34" t="s">
-        <v>536</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
+      <c r="G22" s="131" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="130" t="s">
+        <v>522</v>
+      </c>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="134"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="134"/>
+      <c r="S22" s="134"/>
+      <c r="T22" s="134"/>
+      <c r="U22" s="134"/>
+      <c r="V22" s="134"/>
+      <c r="W22" s="134"/>
+      <c r="X22" s="134"/>
+      <c r="Y22" s="134"/>
+      <c r="Z22" s="134"/>
+      <c r="AA22" s="134"/>
     </row>
     <row r="23" spans="1:27" ht="138.75" customHeight="1">
-      <c r="A23" s="140" t="s">
+      <c r="A23" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="B23" s="116" t="s">
-        <v>277</v>
+      <c r="B23" s="199" t="s">
+        <v>270</v>
       </c>
       <c r="C23" s="46"/>
-      <c r="D23" s="116" t="s">
-        <v>499</v>
-      </c>
-      <c r="E23" s="203" t="s">
-        <v>415</v>
+      <c r="D23" s="115" t="s">
+        <v>485</v>
+      </c>
+      <c r="E23" s="199" t="s">
+        <v>404</v>
       </c>
       <c r="F23" s="51" t="s">
         <v>134</v>
@@ -34672,18 +34947,18 @@
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27" ht="135.75" customHeight="1">
-      <c r="A24" s="140" t="s">
+      <c r="A24" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="116" t="s">
-        <v>278</v>
+      <c r="B24" s="115" t="s">
+        <v>271</v>
       </c>
       <c r="C24" s="46"/>
-      <c r="D24" s="116" t="s">
-        <v>500</v>
-      </c>
-      <c r="E24" s="203" t="s">
-        <v>415</v>
+      <c r="D24" s="115" t="s">
+        <v>486</v>
+      </c>
+      <c r="E24" s="199" t="s">
+        <v>404</v>
       </c>
       <c r="F24" s="53" t="s">
         <v>137</v>
@@ -34713,18 +34988,18 @@
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27" ht="143.25" customHeight="1">
-      <c r="A25" s="140" t="s">
+      <c r="A25" s="139" t="s">
         <v>160</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="34" t="s">
-        <v>501</v>
-      </c>
-      <c r="E25" s="161" t="s">
-        <v>418</v>
+        <v>487</v>
+      </c>
+      <c r="E25" s="159" t="s">
+        <v>407</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>137</v>
@@ -34754,18 +35029,18 @@
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27" ht="189.75" customHeight="1">
-      <c r="A26" s="140" t="s">
+      <c r="A26" s="139" t="s">
         <v>161</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="E26" s="161" t="s">
-        <v>419</v>
+      <c r="E26" s="159" t="s">
+        <v>408</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>137</v>
@@ -34795,18 +35070,18 @@
       <c r="AA26" s="3"/>
     </row>
     <row r="27" spans="1:27" ht="157.5" customHeight="1">
-      <c r="A27" s="140" t="s">
+      <c r="A27" s="139" t="s">
         <v>162</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E27" s="161" t="s">
-        <v>420</v>
+      <c r="E27" s="159" t="s">
+        <v>409</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>137</v>
@@ -34836,18 +35111,18 @@
       <c r="AA27" s="3"/>
     </row>
     <row r="28" spans="1:27" ht="141" customHeight="1">
-      <c r="A28" s="140" t="s">
+      <c r="A28" s="139" t="s">
         <v>164</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="34" t="s">
-        <v>502</v>
-      </c>
-      <c r="E28" s="161" t="s">
-        <v>421</v>
+        <v>488</v>
+      </c>
+      <c r="E28" s="159" t="s">
+        <v>410</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>137</v>
@@ -34877,18 +35152,18 @@
       <c r="AA28" s="3"/>
     </row>
     <row r="29" spans="1:27" ht="141" customHeight="1">
-      <c r="A29" s="140" t="s">
+      <c r="A29" s="139" t="s">
         <v>166</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="34" t="s">
-        <v>503</v>
-      </c>
-      <c r="E29" s="161" t="s">
-        <v>421</v>
+        <v>489</v>
+      </c>
+      <c r="E29" s="159" t="s">
+        <v>410</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>137</v>
@@ -34918,18 +35193,18 @@
       <c r="AA29" s="3"/>
     </row>
     <row r="30" spans="1:27" ht="144" customHeight="1">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="139" t="s">
         <v>169</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="E30" s="117" t="s">
-        <v>422</v>
+      <c r="E30" s="116" t="s">
+        <v>411</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>137</v>
@@ -34959,18 +35234,18 @@
       <c r="AA30" s="3"/>
     </row>
     <row r="31" spans="1:27" ht="143.25" customHeight="1">
-      <c r="A31" s="140" t="s">
+      <c r="A31" s="139" t="s">
         <v>172</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="E31" s="117" t="s">
-        <v>423</v>
+      <c r="E31" s="116" t="s">
+        <v>412</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>137</v>
@@ -35000,7 +35275,7 @@
       <c r="AA31" s="3"/>
     </row>
     <row r="32" spans="1:27" ht="30" customHeight="1">
-      <c r="A32" s="140" t="s">
+      <c r="A32" s="139" t="s">
         <v>173</v>
       </c>
       <c r="B32" s="29" t="s">
@@ -35039,16 +35314,16 @@
       <c r="AA32" s="3"/>
     </row>
     <row r="33" spans="1:27" ht="16.5" customHeight="1">
-      <c r="A33" s="174" t="s">
+      <c r="A33" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="175"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="177"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="174"/>
       <c r="I33" s="27"/>
       <c r="J33" s="28"/>
       <c r="K33" s="3"/>
@@ -35070,26 +35345,26 @@
       <c r="AA33" s="3"/>
     </row>
     <row r="34" spans="1:27" ht="54" customHeight="1">
-      <c r="A34" s="125" t="s">
+      <c r="A34" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="B34" s="167" t="s">
-        <v>379</v>
-      </c>
-      <c r="C34" s="125"/>
-      <c r="D34" s="170" t="s">
-        <v>380</v>
-      </c>
-      <c r="E34" s="167" t="s">
-        <v>381</v>
-      </c>
-      <c r="F34" s="168" t="s">
+      <c r="B34" s="164" t="s">
+        <v>369</v>
+      </c>
+      <c r="C34" s="124"/>
+      <c r="D34" s="167" t="s">
+        <v>370</v>
+      </c>
+      <c r="E34" s="164" t="s">
+        <v>371</v>
+      </c>
+      <c r="F34" s="165" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="168" t="s">
+      <c r="G34" s="165" t="s">
         <v>137</v>
       </c>
-      <c r="H34" s="179"/>
+      <c r="H34" s="176"/>
       <c r="I34" s="54"/>
       <c r="J34" s="56"/>
       <c r="K34" s="3"/>
@@ -35111,28 +35386,28 @@
       <c r="AA34" s="3"/>
     </row>
     <row r="35" spans="1:27" ht="126" customHeight="1">
-      <c r="A35" s="125" t="s">
+      <c r="A35" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="B35" s="141" t="s">
-        <v>504</v>
-      </c>
-      <c r="C35" s="140" t="s">
+      <c r="B35" s="140" t="s">
+        <v>490</v>
+      </c>
+      <c r="C35" s="139" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="180" t="s">
+      <c r="D35" s="177" t="s">
         <v>171</v>
       </c>
-      <c r="E35" s="194" t="s">
-        <v>403</v>
-      </c>
-      <c r="F35" s="138" t="s">
+      <c r="E35" s="190" t="s">
+        <v>392</v>
+      </c>
+      <c r="F35" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="G35" s="138" t="s">
+      <c r="G35" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="H35" s="178">
+      <c r="H35" s="175">
         <v>1</v>
       </c>
       <c r="I35" s="11" t="s">
@@ -35158,28 +35433,28 @@
       <c r="AA35" s="3"/>
     </row>
     <row r="36" spans="1:27" ht="126" customHeight="1">
-      <c r="A36" s="125" t="s">
+      <c r="A36" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="141" t="s">
-        <v>487</v>
-      </c>
-      <c r="C36" s="140" t="s">
+      <c r="B36" s="140" t="s">
+        <v>473</v>
+      </c>
+      <c r="C36" s="139" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="180" t="s">
-        <v>489</v>
-      </c>
-      <c r="E36" s="194" t="s">
-        <v>488</v>
-      </c>
-      <c r="F36" s="138" t="s">
+      <c r="D36" s="177" t="s">
+        <v>475</v>
+      </c>
+      <c r="E36" s="190" t="s">
+        <v>474</v>
+      </c>
+      <c r="F36" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="138" t="s">
+      <c r="G36" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="H36" s="178"/>
+      <c r="H36" s="175"/>
       <c r="I36" s="36"/>
       <c r="J36" s="50"/>
       <c r="K36" s="3"/>
@@ -35201,18 +35476,18 @@
       <c r="AA36" s="3"/>
     </row>
     <row r="37" spans="1:27" ht="121.5" customHeight="1">
-      <c r="A37" s="125" t="s">
+      <c r="A37" s="124" t="s">
         <v>178</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E37" s="161" t="s">
-        <v>424</v>
+        <v>491</v>
+      </c>
+      <c r="E37" s="159" t="s">
+        <v>413</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>137</v>
@@ -35242,18 +35517,18 @@
       <c r="AA37" s="3"/>
     </row>
     <row r="38" spans="1:27" ht="114.75" customHeight="1">
-      <c r="A38" s="125" t="s">
+      <c r="A38" s="124" t="s">
         <v>180</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="34" t="s">
-        <v>506</v>
-      </c>
-      <c r="E38" s="161" t="s">
-        <v>425</v>
+        <v>492</v>
+      </c>
+      <c r="E38" s="159" t="s">
+        <v>414</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>137</v>
@@ -35283,20 +35558,20 @@
       <c r="AA38" s="3"/>
     </row>
     <row r="39" spans="1:27" ht="127.5" customHeight="1">
-      <c r="A39" s="125" t="s">
+      <c r="A39" s="124" t="s">
         <v>183</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C39" s="32" t="s">
         <v>175</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>508</v>
-      </c>
-      <c r="E39" s="161" t="s">
-        <v>424</v>
+        <v>494</v>
+      </c>
+      <c r="E39" s="159" t="s">
+        <v>413</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>137</v>
@@ -35326,20 +35601,20 @@
       <c r="AA39" s="3"/>
     </row>
     <row r="40" spans="1:27" ht="79.5" customHeight="1">
-      <c r="A40" s="125" t="s">
+      <c r="A40" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="B40" s="173" t="s">
-        <v>509</v>
-      </c>
-      <c r="C40" s="202" t="s">
+      <c r="B40" s="170" t="s">
+        <v>495</v>
+      </c>
+      <c r="C40" s="198" t="s">
         <v>175</v>
       </c>
-      <c r="D40" s="161" t="s">
-        <v>402</v>
-      </c>
-      <c r="E40" s="161" t="s">
-        <v>426</v>
+      <c r="D40" s="159" t="s">
+        <v>391</v>
+      </c>
+      <c r="E40" s="159" t="s">
+        <v>415</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>137</v>
@@ -35368,55 +35643,55 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
     </row>
-    <row r="41" spans="1:27" s="136" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A41" s="125" t="s">
+    <row r="41" spans="1:27" s="135" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A41" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="B41" s="232" t="s">
-        <v>510</v>
-      </c>
-      <c r="C41" s="233" t="s">
+      <c r="B41" s="225" t="s">
+        <v>496</v>
+      </c>
+      <c r="C41" s="226" t="s">
         <v>175</v>
       </c>
-      <c r="D41" s="234" t="s">
-        <v>401</v>
-      </c>
-      <c r="E41" s="234" t="s">
-        <v>427</v>
-      </c>
-      <c r="F41" s="235" t="s">
+      <c r="D41" s="227" t="s">
+        <v>390</v>
+      </c>
+      <c r="E41" s="227" t="s">
+        <v>416</v>
+      </c>
+      <c r="F41" s="228" t="s">
         <v>137</v>
       </c>
-      <c r="G41" s="235" t="s">
+      <c r="G41" s="228" t="s">
         <v>137</v>
       </c>
-      <c r="H41" s="235"/>
-      <c r="I41" s="235"/>
-      <c r="J41" s="236"/>
-      <c r="K41" s="135"/>
-      <c r="L41" s="135"/>
-      <c r="M41" s="135"/>
-      <c r="N41" s="135"/>
-      <c r="O41" s="135"/>
-      <c r="P41" s="135"/>
-      <c r="Q41" s="135"/>
-      <c r="R41" s="135"/>
-      <c r="S41" s="135"/>
-      <c r="T41" s="135"/>
-      <c r="U41" s="135"/>
-      <c r="V41" s="135"/>
-      <c r="W41" s="135"/>
-      <c r="X41" s="135"/>
-      <c r="Y41" s="135"/>
-      <c r="Z41" s="135"/>
-      <c r="AA41" s="135"/>
+      <c r="H41" s="228"/>
+      <c r="I41" s="228"/>
+      <c r="J41" s="229"/>
+      <c r="K41" s="134"/>
+      <c r="L41" s="134"/>
+      <c r="M41" s="134"/>
+      <c r="N41" s="134"/>
+      <c r="O41" s="134"/>
+      <c r="P41" s="134"/>
+      <c r="Q41" s="134"/>
+      <c r="R41" s="134"/>
+      <c r="S41" s="134"/>
+      <c r="T41" s="134"/>
+      <c r="U41" s="134"/>
+      <c r="V41" s="134"/>
+      <c r="W41" s="134"/>
+      <c r="X41" s="134"/>
+      <c r="Y41" s="134"/>
+      <c r="Z41" s="134"/>
+      <c r="AA41" s="134"/>
     </row>
     <row r="42" spans="1:27" ht="30" customHeight="1">
-      <c r="A42" s="125" t="s">
+      <c r="A42" s="124" t="s">
         <v>192</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="57" t="s">
@@ -35451,16 +35726,16 @@
       <c r="AA42" s="58"/>
     </row>
     <row r="43" spans="1:27" ht="16.5" customHeight="1">
-      <c r="A43" s="145" t="s">
+      <c r="A43" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="148"/>
-      <c r="G43" s="148"/>
-      <c r="H43" s="148"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="146"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
       <c r="I43" s="59"/>
       <c r="J43" s="60"/>
       <c r="K43" s="61"/>
@@ -35482,28 +35757,28 @@
       <c r="AA43" s="62"/>
     </row>
     <row r="44" spans="1:27" ht="45" customHeight="1">
-      <c r="A44" s="125" t="s">
+      <c r="A44" s="124" t="s">
         <v>195</v>
       </c>
-      <c r="B44" s="167" t="s">
-        <v>369</v>
-      </c>
-      <c r="C44" s="125"/>
-      <c r="D44" s="170" t="s">
-        <v>370</v>
-      </c>
-      <c r="E44" s="170" t="s">
-        <v>371</v>
-      </c>
-      <c r="F44" s="168" t="s">
+      <c r="B44" s="164" t="s">
+        <v>359</v>
+      </c>
+      <c r="C44" s="124"/>
+      <c r="D44" s="167" t="s">
+        <v>360</v>
+      </c>
+      <c r="E44" s="167" t="s">
+        <v>361</v>
+      </c>
+      <c r="F44" s="165" t="s">
         <v>137</v>
       </c>
-      <c r="G44" s="168" t="s">
-        <v>511</v>
-      </c>
-      <c r="H44" s="168"/>
-      <c r="I44" s="165"/>
-      <c r="J44" s="166"/>
+      <c r="G44" s="165" t="s">
+        <v>497</v>
+      </c>
+      <c r="H44" s="165"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="163"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="58"/>
@@ -35522,53 +35797,53 @@
       <c r="Z44" s="58"/>
       <c r="AA44" s="58"/>
     </row>
-    <row r="45" spans="1:27" ht="45" customHeight="1">
-      <c r="A45" s="125" t="s">
+    <row r="45" spans="1:27" s="248" customFormat="1" ht="45" customHeight="1">
+      <c r="A45" s="239" t="s">
         <v>199</v>
       </c>
-      <c r="B45" s="164" t="s">
-        <v>368</v>
-      </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="169" t="s">
+      <c r="B45" s="240" t="s">
+        <v>358</v>
+      </c>
+      <c r="C45" s="241"/>
+      <c r="D45" s="242" t="s">
         <v>181</v>
       </c>
-      <c r="E45" s="66" t="s">
+      <c r="E45" s="243" t="s">
         <v>182</v>
       </c>
-      <c r="F45" s="67" t="s">
+      <c r="F45" s="244" t="s">
         <v>137</v>
       </c>
-      <c r="G45" s="84" t="s">
-        <v>544</v>
-      </c>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="58"/>
-      <c r="S45" s="58"/>
-      <c r="T45" s="58"/>
-      <c r="U45" s="58"/>
-      <c r="V45" s="58"/>
-      <c r="W45" s="58"/>
-      <c r="X45" s="58"/>
-      <c r="Y45" s="58"/>
-      <c r="Z45" s="58"/>
-      <c r="AA45" s="58"/>
+      <c r="G45" s="244" t="s">
+        <v>530</v>
+      </c>
+      <c r="H45" s="244"/>
+      <c r="I45" s="244"/>
+      <c r="J45" s="245"/>
+      <c r="K45" s="246"/>
+      <c r="L45" s="246"/>
+      <c r="M45" s="247"/>
+      <c r="N45" s="247"/>
+      <c r="O45" s="247"/>
+      <c r="P45" s="247"/>
+      <c r="Q45" s="247"/>
+      <c r="R45" s="247"/>
+      <c r="S45" s="247"/>
+      <c r="T45" s="247"/>
+      <c r="U45" s="247"/>
+      <c r="V45" s="247"/>
+      <c r="W45" s="247"/>
+      <c r="X45" s="247"/>
+      <c r="Y45" s="247"/>
+      <c r="Z45" s="247"/>
+      <c r="AA45" s="247"/>
     </row>
     <row r="46" spans="1:27" ht="30" customHeight="1">
-      <c r="A46" s="125" t="s">
-        <v>294</v>
+      <c r="A46" s="124" t="s">
+        <v>287</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="57" t="s">
@@ -35579,7 +35854,7 @@
         <v>137</v>
       </c>
       <c r="G46" s="70" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="H46" s="70"/>
       <c r="I46" s="70"/>
@@ -35603,15 +35878,15 @@
       <c r="AA46" s="58"/>
     </row>
     <row r="47" spans="1:27" ht="16.5" customHeight="1">
-      <c r="A47" s="171" t="s">
+      <c r="A47" s="168" t="s">
         <v>185</v>
       </c>
-      <c r="B47" s="146"/>
-      <c r="C47" s="146"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="148"/>
-      <c r="G47" s="148"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="146"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="147"/>
       <c r="H47" s="59"/>
       <c r="I47" s="59"/>
       <c r="J47" s="60"/>
@@ -35634,28 +35909,28 @@
       <c r="AA47" s="58"/>
     </row>
     <row r="48" spans="1:27" ht="45" customHeight="1">
-      <c r="A48" s="125" t="s">
+      <c r="A48" s="124" t="s">
         <v>201</v>
       </c>
-      <c r="B48" s="172" t="s">
-        <v>372</v>
-      </c>
-      <c r="C48" s="125"/>
-      <c r="D48" s="170" t="s">
-        <v>370</v>
-      </c>
-      <c r="E48" s="170" t="s">
-        <v>373</v>
-      </c>
-      <c r="F48" s="168" t="s">
+      <c r="B48" s="169" t="s">
+        <v>362</v>
+      </c>
+      <c r="C48" s="124"/>
+      <c r="D48" s="167" t="s">
+        <v>360</v>
+      </c>
+      <c r="E48" s="167" t="s">
+        <v>363</v>
+      </c>
+      <c r="F48" s="165" t="s">
         <v>137</v>
       </c>
-      <c r="G48" s="168" t="s">
+      <c r="G48" s="165" t="s">
         <v>137</v>
       </c>
-      <c r="H48" s="165"/>
-      <c r="I48" s="165"/>
-      <c r="J48" s="166"/>
+      <c r="H48" s="162"/>
+      <c r="I48" s="162"/>
+      <c r="J48" s="163"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="58"/>
@@ -35674,31 +35949,31 @@
       <c r="Z48" s="58"/>
       <c r="AA48" s="58"/>
     </row>
-    <row r="49" spans="1:27" s="136" customFormat="1" ht="45" customHeight="1">
-      <c r="A49" s="125" t="s">
+    <row r="49" spans="1:27" s="135" customFormat="1" ht="45" customHeight="1">
+      <c r="A49" s="253" t="s">
         <v>203</v>
       </c>
-      <c r="B49" s="206" t="s">
-        <v>290</v>
-      </c>
-      <c r="C49" s="206"/>
-      <c r="D49" s="210" t="s">
+      <c r="B49" s="254" t="s">
+        <v>283</v>
+      </c>
+      <c r="C49" s="255"/>
+      <c r="D49" s="256" t="s">
         <v>187</v>
       </c>
-      <c r="E49" s="210" t="s">
+      <c r="E49" s="205" t="s">
         <v>188</v>
       </c>
-      <c r="F49" s="208" t="s">
+      <c r="F49" s="203" t="s">
         <v>137</v>
       </c>
-      <c r="G49" s="208" t="s">
+      <c r="G49" s="203" t="s">
         <v>137</v>
       </c>
-      <c r="H49" s="208"/>
-      <c r="I49" s="208"/>
-      <c r="J49" s="231"/>
-      <c r="K49" s="135"/>
-      <c r="L49" s="135"/>
+      <c r="H49" s="203"/>
+      <c r="I49" s="203"/>
+      <c r="J49" s="257"/>
+      <c r="K49" s="134"/>
+      <c r="L49" s="134"/>
       <c r="M49" s="58"/>
       <c r="N49" s="58"/>
       <c r="O49" s="58"/>
@@ -35716,11 +35991,11 @@
       <c r="AA49" s="58"/>
     </row>
     <row r="50" spans="1:27" ht="30" customHeight="1">
-      <c r="A50" s="125" t="s">
+      <c r="A50" s="124" t="s">
         <v>205</v>
       </c>
       <c r="B50" s="72" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C50" s="72"/>
       <c r="D50" s="69" t="s">
@@ -35757,15 +36032,15 @@
       <c r="AA50" s="58"/>
     </row>
     <row r="51" spans="1:27" ht="16.5" customHeight="1">
-      <c r="A51" s="145" t="s">
+      <c r="A51" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="146"/>
-      <c r="C51" s="146"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="148"/>
-      <c r="G51" s="148"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="146"/>
+      <c r="F51" s="147"/>
+      <c r="G51" s="147"/>
       <c r="H51" s="59"/>
       <c r="I51" s="59"/>
       <c r="J51" s="60"/>
@@ -35788,28 +36063,28 @@
       <c r="AA51" s="58"/>
     </row>
     <row r="52" spans="1:27" ht="45" customHeight="1">
-      <c r="A52" s="142" t="s">
-        <v>208</v>
-      </c>
-      <c r="B52" s="182" t="s">
-        <v>382</v>
-      </c>
-      <c r="C52" s="142"/>
-      <c r="D52" s="184" t="s">
-        <v>383</v>
-      </c>
-      <c r="E52" s="184" t="s">
-        <v>384</v>
-      </c>
-      <c r="F52" s="181" t="s">
+      <c r="A52" s="141" t="s">
+        <v>207</v>
+      </c>
+      <c r="B52" s="179" t="s">
+        <v>372</v>
+      </c>
+      <c r="C52" s="141"/>
+      <c r="D52" s="181" t="s">
+        <v>373</v>
+      </c>
+      <c r="E52" s="181" t="s">
+        <v>374</v>
+      </c>
+      <c r="F52" s="178" t="s">
         <v>137</v>
       </c>
-      <c r="G52" s="181" t="s">
+      <c r="G52" s="178" t="s">
         <v>137</v>
       </c>
-      <c r="H52" s="165"/>
-      <c r="I52" s="165"/>
-      <c r="J52" s="166"/>
+      <c r="H52" s="162"/>
+      <c r="I52" s="162"/>
+      <c r="J52" s="163"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="58"/>
@@ -35829,17 +36104,17 @@
       <c r="AA52" s="58"/>
     </row>
     <row r="53" spans="1:27" ht="57" customHeight="1">
-      <c r="A53" s="142" t="s">
-        <v>211</v>
-      </c>
-      <c r="B53" s="118" t="s">
-        <v>292</v>
-      </c>
-      <c r="C53" s="118"/>
-      <c r="D53" s="183" t="s">
+      <c r="A53" s="141" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" s="117" t="s">
+        <v>285</v>
+      </c>
+      <c r="C53" s="117"/>
+      <c r="D53" s="180" t="s">
         <v>193</v>
       </c>
-      <c r="E53" s="119" t="s">
+      <c r="E53" s="118" t="s">
         <v>194</v>
       </c>
       <c r="F53" s="74" t="s">
@@ -35870,24 +36145,26 @@
       <c r="AA53" s="58"/>
     </row>
     <row r="54" spans="1:27" ht="42" customHeight="1">
-      <c r="A54" s="142" t="s">
-        <v>214</v>
-      </c>
-      <c r="B54" s="120" t="s">
-        <v>293</v>
-      </c>
-      <c r="C54" s="120"/>
-      <c r="D54" s="121" t="s">
+      <c r="A54" s="141" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" s="119" t="s">
+        <v>286</v>
+      </c>
+      <c r="C54" s="119"/>
+      <c r="D54" s="120" t="s">
         <v>196</v>
       </c>
-      <c r="E54" s="121"/>
-      <c r="F54" s="122" t="s">
+      <c r="E54" s="120" t="s">
+        <v>531</v>
+      </c>
+      <c r="F54" s="121" t="s">
         <v>137</v>
       </c>
-      <c r="G54" s="122" t="s">
+      <c r="G54" s="121" t="s">
         <v>137</v>
       </c>
-      <c r="H54" s="122"/>
+      <c r="H54" s="121"/>
       <c r="I54" s="18"/>
       <c r="J54" s="16"/>
       <c r="K54" s="3"/>
@@ -35909,28 +36186,28 @@
       <c r="AA54" s="58"/>
     </row>
     <row r="55" spans="1:27" ht="42" customHeight="1">
-      <c r="A55" s="142" t="s">
-        <v>215</v>
-      </c>
-      <c r="B55" s="125" t="s">
+      <c r="A55" s="141" t="s">
+        <v>213</v>
+      </c>
+      <c r="B55" s="124" t="s">
         <v>197</v>
       </c>
-      <c r="C55" s="125"/>
-      <c r="D55" s="126" t="s">
+      <c r="C55" s="124"/>
+      <c r="D55" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="E55" s="170" t="s">
-        <v>404</v>
-      </c>
-      <c r="F55" s="168" t="s">
+      <c r="E55" s="167" t="s">
+        <v>393</v>
+      </c>
+      <c r="F55" s="165" t="s">
         <v>134</v>
       </c>
-      <c r="G55" s="168" t="s">
+      <c r="G55" s="165" t="s">
         <v>137</v>
       </c>
-      <c r="H55" s="168"/>
-      <c r="I55" s="124"/>
-      <c r="J55" s="123"/>
+      <c r="H55" s="165"/>
+      <c r="I55" s="123"/>
+      <c r="J55" s="122"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="58"/>
@@ -35950,28 +36227,28 @@
       <c r="AA55" s="58"/>
     </row>
     <row r="56" spans="1:27" ht="66" customHeight="1">
-      <c r="A56" s="142" t="s">
-        <v>216</v>
-      </c>
-      <c r="B56" s="225" t="s">
-        <v>295</v>
-      </c>
-      <c r="C56" s="225"/>
-      <c r="D56" s="226" t="s">
-        <v>296</v>
-      </c>
-      <c r="E56" s="227" t="s">
-        <v>305</v>
-      </c>
-      <c r="F56" s="224" t="s">
+      <c r="A56" s="141" t="s">
+        <v>214</v>
+      </c>
+      <c r="B56" s="220" t="s">
+        <v>288</v>
+      </c>
+      <c r="C56" s="220"/>
+      <c r="D56" s="221" t="s">
+        <v>289</v>
+      </c>
+      <c r="E56" s="222" t="s">
+        <v>298</v>
+      </c>
+      <c r="F56" s="219" t="s">
         <v>137</v>
       </c>
-      <c r="G56" s="224" t="s">
-        <v>137</v>
+      <c r="G56" s="219" t="s">
+        <v>134</v>
       </c>
       <c r="H56" s="70"/>
-      <c r="I56" s="122"/>
-      <c r="J56" s="123"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="122"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="58"/>
@@ -35991,44 +36268,44 @@
       <c r="AA56" s="58"/>
     </row>
     <row r="57" spans="1:27" ht="66" customHeight="1">
-      <c r="A57" s="142" t="s">
+      <c r="A57" s="141" t="s">
+        <v>215</v>
+      </c>
+      <c r="B57" s="164" t="s">
+        <v>443</v>
+      </c>
+      <c r="C57" s="124"/>
+      <c r="D57" s="167" t="s">
+        <v>289</v>
+      </c>
+      <c r="E57" s="167" t="s">
+        <v>371</v>
+      </c>
+      <c r="F57" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="G57" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="H57" s="121"/>
+      <c r="I57" s="121"/>
+      <c r="J57" s="122"/>
+    </row>
+    <row r="58" spans="1:27" ht="65.25" customHeight="1">
+      <c r="A58" s="141" t="s">
         <v>217</v>
       </c>
-      <c r="B57" s="167" t="s">
-        <v>456</v>
-      </c>
-      <c r="C57" s="125"/>
-      <c r="D57" s="170" t="s">
-        <v>296</v>
-      </c>
-      <c r="E57" s="170" t="s">
-        <v>381</v>
-      </c>
-      <c r="F57" s="124" t="s">
-        <v>137</v>
-      </c>
-      <c r="G57" s="124" t="s">
-        <v>137</v>
-      </c>
-      <c r="H57" s="122"/>
-      <c r="I57" s="122"/>
-      <c r="J57" s="123"/>
-    </row>
-    <row r="58" spans="1:27" ht="65.25" customHeight="1">
-      <c r="A58" s="142" t="s">
-        <v>219</v>
-      </c>
-      <c r="B58" s="127" t="s">
-        <v>297</v>
-      </c>
-      <c r="C58" s="127" t="s">
-        <v>302</v>
-      </c>
-      <c r="D58" s="126" t="s">
-        <v>296</v>
-      </c>
-      <c r="E58" s="128" t="s">
-        <v>306</v>
+      <c r="B58" s="126" t="s">
+        <v>533</v>
+      </c>
+      <c r="C58" s="126" t="s">
+        <v>295</v>
+      </c>
+      <c r="D58" s="125" t="s">
+        <v>289</v>
+      </c>
+      <c r="E58" s="127" t="s">
+        <v>299</v>
       </c>
       <c r="F58" s="54" t="s">
         <v>137</v>
@@ -36041,18 +36318,18 @@
       <c r="J58" s="50"/>
     </row>
     <row r="59" spans="1:27" ht="16.5" customHeight="1">
-      <c r="A59" s="185" t="s">
+      <c r="A59" s="182" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="186"/>
-      <c r="C59" s="186"/>
-      <c r="D59" s="187"/>
-      <c r="E59" s="187"/>
-      <c r="F59" s="148"/>
-      <c r="G59" s="148"/>
-      <c r="H59" s="148"/>
-      <c r="I59" s="148"/>
-      <c r="J59" s="188"/>
+      <c r="B59" s="183"/>
+      <c r="C59" s="183"/>
+      <c r="D59" s="184"/>
+      <c r="E59" s="184"/>
+      <c r="F59" s="147"/>
+      <c r="G59" s="147"/>
+      <c r="H59" s="147"/>
+      <c r="I59" s="147"/>
+      <c r="J59" s="185"/>
       <c r="K59" s="75"/>
       <c r="L59" s="75"/>
       <c r="M59" s="76"/>
@@ -36072,18 +36349,18 @@
       <c r="AA59" s="58"/>
     </row>
     <row r="60" spans="1:27" ht="45" customHeight="1">
-      <c r="A60" s="118" t="s">
-        <v>221</v>
-      </c>
-      <c r="B60" s="189" t="s">
-        <v>385</v>
+      <c r="A60" s="117" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" s="186" t="s">
+        <v>375</v>
       </c>
       <c r="C60" s="65"/>
-      <c r="D60" s="169" t="s">
-        <v>298</v>
+      <c r="D60" s="166" t="s">
+        <v>291</v>
       </c>
       <c r="E60" s="77" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F60" s="67" t="s">
         <v>137</v>
@@ -36112,99 +36389,101 @@
       <c r="Z60" s="58"/>
       <c r="AA60" s="58"/>
     </row>
-    <row r="61" spans="1:27" s="136" customFormat="1" ht="60" customHeight="1">
-      <c r="A61" s="118" t="s">
+    <row r="61" spans="1:27" s="135" customFormat="1" ht="60" customHeight="1">
+      <c r="A61" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="187" t="s">
+        <v>293</v>
+      </c>
+      <c r="C61" s="128" t="s">
+        <v>534</v>
+      </c>
+      <c r="D61" s="129" t="s">
+        <v>294</v>
+      </c>
+      <c r="E61" s="130" t="s">
+        <v>200</v>
+      </c>
+      <c r="F61" s="131" t="s">
+        <v>137</v>
+      </c>
+      <c r="G61" s="131" t="s">
+        <v>134</v>
+      </c>
+      <c r="H61" s="131"/>
+      <c r="I61" s="132"/>
+      <c r="J61" s="133"/>
+      <c r="K61" s="134"/>
+      <c r="L61" s="134"/>
+      <c r="M61" s="134"/>
+      <c r="N61" s="134"/>
+      <c r="O61" s="134"/>
+      <c r="P61" s="134"/>
+      <c r="Q61" s="134"/>
+      <c r="R61" s="134"/>
+      <c r="S61" s="134"/>
+      <c r="T61" s="134"/>
+      <c r="U61" s="134"/>
+      <c r="V61" s="134"/>
+      <c r="W61" s="134"/>
+      <c r="X61" s="134"/>
+      <c r="Y61" s="134"/>
+      <c r="Z61" s="134"/>
+      <c r="AA61" s="134"/>
+    </row>
+    <row r="62" spans="1:27" s="135" customFormat="1" ht="60" customHeight="1">
+      <c r="A62" s="117" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" s="142" t="s">
+        <v>290</v>
+      </c>
+      <c r="C62" s="251" t="s">
+        <v>535</v>
+      </c>
+      <c r="D62" s="143" t="s">
+        <v>296</v>
+      </c>
+      <c r="E62" s="138" t="s">
+        <v>297</v>
+      </c>
+      <c r="F62" s="131" t="s">
+        <v>137</v>
+      </c>
+      <c r="G62" s="131" t="s">
+        <v>137</v>
+      </c>
+      <c r="H62" s="131"/>
+      <c r="I62" s="132"/>
+      <c r="J62" s="133"/>
+      <c r="K62" s="134"/>
+      <c r="L62" s="134"/>
+      <c r="M62" s="134"/>
+      <c r="N62" s="134"/>
+      <c r="O62" s="134"/>
+      <c r="P62" s="134"/>
+      <c r="Q62" s="134"/>
+      <c r="R62" s="134"/>
+      <c r="S62" s="134"/>
+      <c r="T62" s="134"/>
+      <c r="U62" s="134"/>
+      <c r="V62" s="134"/>
+      <c r="W62" s="134"/>
+      <c r="X62" s="134"/>
+      <c r="Y62" s="134"/>
+      <c r="Z62" s="134"/>
+      <c r="AA62" s="134"/>
+    </row>
+    <row r="63" spans="1:27" s="135" customFormat="1" ht="60" customHeight="1">
+      <c r="A63" s="117" t="s">
         <v>224</v>
       </c>
-      <c r="B61" s="190" t="s">
-        <v>300</v>
-      </c>
-      <c r="C61" s="129"/>
-      <c r="D61" s="130" t="s">
+      <c r="B63" s="140" t="s">
         <v>301</v>
       </c>
-      <c r="E61" s="131" t="s">
-        <v>200</v>
-      </c>
-      <c r="F61" s="132" t="s">
-        <v>137</v>
-      </c>
-      <c r="G61" s="132" t="s">
-        <v>137</v>
-      </c>
-      <c r="H61" s="132"/>
-      <c r="I61" s="133"/>
-      <c r="J61" s="134"/>
-      <c r="K61" s="135"/>
-      <c r="L61" s="135"/>
-      <c r="M61" s="135"/>
-      <c r="N61" s="135"/>
-      <c r="O61" s="135"/>
-      <c r="P61" s="135"/>
-      <c r="Q61" s="135"/>
-      <c r="R61" s="135"/>
-      <c r="S61" s="135"/>
-      <c r="T61" s="135"/>
-      <c r="U61" s="135"/>
-      <c r="V61" s="135"/>
-      <c r="W61" s="135"/>
-      <c r="X61" s="135"/>
-      <c r="Y61" s="135"/>
-      <c r="Z61" s="135"/>
-      <c r="AA61" s="135"/>
-    </row>
-    <row r="62" spans="1:27" s="136" customFormat="1" ht="60" customHeight="1">
-      <c r="A62" s="118" t="s">
-        <v>225</v>
-      </c>
-      <c r="B62" s="143" t="s">
-        <v>297</v>
-      </c>
-      <c r="C62" s="192" t="s">
-        <v>302</v>
-      </c>
-      <c r="D62" s="144" t="s">
-        <v>303</v>
-      </c>
-      <c r="E62" s="139" t="s">
-        <v>304</v>
-      </c>
-      <c r="F62" s="132" t="s">
-        <v>137</v>
-      </c>
-      <c r="G62" s="132" t="s">
-        <v>137</v>
-      </c>
-      <c r="H62" s="132"/>
-      <c r="I62" s="133"/>
-      <c r="J62" s="134"/>
-      <c r="K62" s="135"/>
-      <c r="L62" s="135"/>
-      <c r="M62" s="135"/>
-      <c r="N62" s="135"/>
-      <c r="O62" s="135"/>
-      <c r="P62" s="135"/>
-      <c r="Q62" s="135"/>
-      <c r="R62" s="135"/>
-      <c r="S62" s="135"/>
-      <c r="T62" s="135"/>
-      <c r="U62" s="135"/>
-      <c r="V62" s="135"/>
-      <c r="W62" s="135"/>
-      <c r="X62" s="135"/>
-      <c r="Y62" s="135"/>
-      <c r="Z62" s="135"/>
-      <c r="AA62" s="135"/>
-    </row>
-    <row r="63" spans="1:27" s="136" customFormat="1" ht="60" customHeight="1">
-      <c r="A63" s="118" t="s">
-        <v>226</v>
-      </c>
-      <c r="B63" s="141" t="s">
-        <v>308</v>
-      </c>
-      <c r="C63" s="140"/>
-      <c r="D63" s="180" t="s">
+      <c r="C63" s="139"/>
+      <c r="D63" s="177" t="s">
         <v>202</v>
       </c>
       <c r="E63" s="30"/>
@@ -36214,38 +36493,38 @@
       <c r="G63" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="H63" s="132"/>
-      <c r="I63" s="133"/>
-      <c r="J63" s="134"/>
-      <c r="K63" s="135"/>
-      <c r="L63" s="135"/>
-      <c r="M63" s="135"/>
-      <c r="N63" s="135"/>
-      <c r="O63" s="135"/>
-      <c r="P63" s="135"/>
-      <c r="Q63" s="135"/>
-      <c r="R63" s="135"/>
-      <c r="S63" s="135"/>
-      <c r="T63" s="135"/>
-      <c r="U63" s="135"/>
-      <c r="V63" s="135"/>
-      <c r="W63" s="135"/>
-      <c r="X63" s="135"/>
-      <c r="Y63" s="135"/>
-      <c r="Z63" s="135"/>
-      <c r="AA63" s="135"/>
+      <c r="H63" s="131"/>
+      <c r="I63" s="132"/>
+      <c r="J63" s="133"/>
+      <c r="K63" s="134"/>
+      <c r="L63" s="134"/>
+      <c r="M63" s="134"/>
+      <c r="N63" s="134"/>
+      <c r="O63" s="134"/>
+      <c r="P63" s="134"/>
+      <c r="Q63" s="134"/>
+      <c r="R63" s="134"/>
+      <c r="S63" s="134"/>
+      <c r="T63" s="134"/>
+      <c r="U63" s="134"/>
+      <c r="V63" s="134"/>
+      <c r="W63" s="134"/>
+      <c r="X63" s="134"/>
+      <c r="Y63" s="134"/>
+      <c r="Z63" s="134"/>
+      <c r="AA63" s="134"/>
     </row>
     <row r="64" spans="1:27" ht="16.5" customHeight="1">
-      <c r="A64" s="145" t="s">
+      <c r="A64" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="146"/>
-      <c r="C64" s="146"/>
-      <c r="D64" s="147"/>
-      <c r="E64" s="147"/>
-      <c r="F64" s="148"/>
-      <c r="G64" s="148"/>
-      <c r="H64" s="148"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="146"/>
+      <c r="E64" s="146"/>
+      <c r="F64" s="147"/>
+      <c r="G64" s="147"/>
+      <c r="H64" s="147"/>
       <c r="I64" s="59"/>
       <c r="J64" s="15"/>
       <c r="K64" s="61"/>
@@ -36267,29 +36546,29 @@
       <c r="AA64" s="58"/>
     </row>
     <row r="65" spans="1:27" ht="46.5" customHeight="1">
-      <c r="A65" s="127" t="s">
-        <v>227</v>
-      </c>
-      <c r="B65" s="191" t="s">
-        <v>386</v>
-      </c>
-      <c r="C65" s="191" t="s">
-        <v>302</v>
-      </c>
-      <c r="D65" s="193" t="s">
-        <v>387</v>
-      </c>
-      <c r="E65" s="191" t="s">
-        <v>388</v>
-      </c>
-      <c r="F65" s="168" t="s">
+      <c r="A65" s="126" t="s">
+        <v>225</v>
+      </c>
+      <c r="B65" s="188" t="s">
+        <v>376</v>
+      </c>
+      <c r="C65" s="188" t="s">
+        <v>295</v>
+      </c>
+      <c r="D65" s="189" t="s">
+        <v>377</v>
+      </c>
+      <c r="E65" s="188" t="s">
+        <v>378</v>
+      </c>
+      <c r="F65" s="165" t="s">
         <v>137</v>
       </c>
-      <c r="G65" s="168" t="s">
+      <c r="G65" s="165" t="s">
         <v>137</v>
       </c>
-      <c r="H65" s="168"/>
-      <c r="I65" s="165"/>
+      <c r="H65" s="165"/>
+      <c r="I65" s="162"/>
       <c r="J65" s="34"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -36310,18 +36589,18 @@
       <c r="AA65" s="58"/>
     </row>
     <row r="66" spans="1:27" ht="42.75" customHeight="1">
-      <c r="A66" s="127" t="s">
-        <v>228</v>
-      </c>
-      <c r="B66" s="221" t="s">
-        <v>309</v>
-      </c>
-      <c r="C66" s="221"/>
-      <c r="D66" s="222" t="s">
-        <v>310</v>
-      </c>
-      <c r="E66" s="223" t="s">
-        <v>311</v>
+      <c r="A66" s="126" t="s">
+        <v>226</v>
+      </c>
+      <c r="B66" s="216" t="s">
+        <v>302</v>
+      </c>
+      <c r="C66" s="216"/>
+      <c r="D66" s="217" t="s">
+        <v>303</v>
+      </c>
+      <c r="E66" s="218" t="s">
+        <v>304</v>
       </c>
       <c r="F66" s="70" t="s">
         <v>137</v>
@@ -36329,9 +36608,9 @@
       <c r="G66" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="H66" s="224"/>
+      <c r="H66" s="219"/>
       <c r="I66" s="79"/>
-      <c r="J66" s="237"/>
+      <c r="J66" s="230"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="58"/>
@@ -36351,28 +36630,32 @@
       <c r="AA66" s="58"/>
     </row>
     <row r="67" spans="1:27" ht="148.5" customHeight="1">
-      <c r="A67" s="127" t="s">
-        <v>229</v>
-      </c>
-      <c r="B67" s="229" t="s">
-        <v>307</v>
-      </c>
-      <c r="C67" s="125" t="s">
+      <c r="A67" s="126" t="s">
+        <v>227</v>
+      </c>
+      <c r="B67" s="223" t="s">
+        <v>300</v>
+      </c>
+      <c r="C67" s="124" t="s">
         <v>204</v>
       </c>
-      <c r="D67" s="170" t="s">
-        <v>457</v>
-      </c>
-      <c r="E67" s="170" t="s">
-        <v>409</v>
-      </c>
-      <c r="F67" s="168" t="s">
+      <c r="D67" s="167" t="s">
+        <v>536</v>
+      </c>
+      <c r="E67" s="167" t="s">
+        <v>398</v>
+      </c>
+      <c r="F67" s="165" t="s">
         <v>134</v>
       </c>
-      <c r="G67" s="168"/>
-      <c r="H67" s="168"/>
-      <c r="I67" s="165"/>
-      <c r="J67" s="238"/>
+      <c r="G67" s="165" t="s">
+        <v>530</v>
+      </c>
+      <c r="H67" s="165"/>
+      <c r="I67" s="162"/>
+      <c r="J67" s="231" t="s">
+        <v>539</v>
+      </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="58"/>
@@ -36391,29 +36674,29 @@
       <c r="Z67" s="58"/>
       <c r="AA67" s="58"/>
     </row>
-    <row r="68" spans="1:27" ht="153" customHeight="1">
-      <c r="A68" s="127" t="s">
-        <v>230</v>
-      </c>
-      <c r="B68" s="141" t="s">
-        <v>312</v>
-      </c>
-      <c r="C68" s="141" t="s">
+    <row r="68" spans="1:27" ht="73.5" customHeight="1">
+      <c r="A68" s="126" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="C68" s="140" t="s">
         <v>206</v>
       </c>
-      <c r="D68" s="228" t="s">
-        <v>207</v>
-      </c>
-      <c r="E68" s="180" t="s">
-        <v>428</v>
-      </c>
-      <c r="F68" s="138" t="s">
+      <c r="D68" s="136" t="s">
+        <v>538</v>
+      </c>
+      <c r="E68" s="177" t="s">
+        <v>417</v>
+      </c>
+      <c r="F68" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="G68" s="138" t="s">
+      <c r="G68" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="H68" s="138"/>
+      <c r="H68" s="137"/>
       <c r="I68" s="67"/>
       <c r="J68" s="80"/>
       <c r="K68" s="81"/>
@@ -36435,30 +36718,32 @@
       <c r="AA68" s="3"/>
     </row>
     <row r="69" spans="1:27" ht="135" customHeight="1">
-      <c r="A69" s="127" t="s">
-        <v>231</v>
+      <c r="A69" s="126" t="s">
+        <v>229</v>
       </c>
       <c r="B69" s="64" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C69" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="D69" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="D69" s="66" t="s">
-        <v>210</v>
-      </c>
-      <c r="E69" s="169" t="s">
-        <v>429</v>
+      <c r="E69" s="166" t="s">
+        <v>418</v>
       </c>
       <c r="F69" s="67" t="s">
         <v>137</v>
       </c>
       <c r="G69" s="84" t="s">
-        <v>137</v>
+        <v>530</v>
       </c>
       <c r="H69" s="67"/>
       <c r="I69" s="67"/>
-      <c r="J69" s="82"/>
+      <c r="J69" s="82" t="s">
+        <v>539</v>
+      </c>
       <c r="K69" s="81"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -36478,20 +36763,20 @@
       <c r="AA69" s="3"/>
     </row>
     <row r="70" spans="1:27" ht="135" customHeight="1">
-      <c r="A70" s="127" t="s">
-        <v>232</v>
+      <c r="A70" s="126" t="s">
+        <v>230</v>
       </c>
       <c r="B70" s="83" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C70" s="83" t="s">
-        <v>315</v>
+        <v>208</v>
       </c>
       <c r="D70" s="77" t="s">
-        <v>212</v>
+        <v>537</v>
       </c>
       <c r="E70" s="77" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F70" s="67" t="s">
         <v>137</v>
@@ -36521,15 +36806,15 @@
       <c r="AA70" s="3"/>
     </row>
     <row r="71" spans="1:27" ht="30" customHeight="1">
-      <c r="A71" s="127" t="s">
-        <v>233</v>
+      <c r="A71" s="126" t="s">
+        <v>231</v>
       </c>
       <c r="B71" s="85" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C71" s="85"/>
       <c r="D71" s="57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E71" s="57"/>
       <c r="F71" s="18" t="s">
@@ -36560,15 +36845,15 @@
       <c r="AA71" s="58"/>
     </row>
     <row r="72" spans="1:27" ht="16.5" customHeight="1">
-      <c r="A72" s="155" t="s">
+      <c r="A72" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="156"/>
-      <c r="C72" s="156"/>
-      <c r="D72" s="157"/>
-      <c r="E72" s="157"/>
-      <c r="F72" s="158"/>
-      <c r="G72" s="158"/>
+      <c r="B72" s="155"/>
+      <c r="C72" s="155"/>
+      <c r="D72" s="156"/>
+      <c r="E72" s="156"/>
+      <c r="F72" s="157"/>
+      <c r="G72" s="157"/>
       <c r="H72" s="86"/>
       <c r="I72" s="86"/>
       <c r="J72" s="87"/>
@@ -36591,25 +36876,25 @@
       <c r="AA72" s="58"/>
     </row>
     <row r="73" spans="1:27" ht="74.25" customHeight="1">
-      <c r="A73" s="140" t="s">
-        <v>235</v>
-      </c>
-      <c r="B73" s="194" t="s">
-        <v>389</v>
-      </c>
-      <c r="C73" s="141" t="s">
-        <v>209</v>
-      </c>
-      <c r="D73" s="137" t="s">
-        <v>317</v>
-      </c>
-      <c r="E73" s="137" t="s">
-        <v>318</v>
-      </c>
-      <c r="F73" s="138" t="s">
+      <c r="A73" s="139" t="s">
+        <v>233</v>
+      </c>
+      <c r="B73" s="190" t="s">
+        <v>379</v>
+      </c>
+      <c r="C73" s="140" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="136" t="s">
+        <v>532</v>
+      </c>
+      <c r="E73" s="136" t="s">
+        <v>309</v>
+      </c>
+      <c r="F73" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="G73" s="138" t="s">
+      <c r="G73" s="137" t="s">
         <v>137</v>
       </c>
       <c r="H73" s="54"/>
@@ -36634,26 +36919,26 @@
       <c r="AA73" s="58"/>
     </row>
     <row r="74" spans="1:27" ht="74.25" customHeight="1">
-      <c r="A74" s="140" t="s">
-        <v>236</v>
-      </c>
-      <c r="B74" s="141" t="s">
-        <v>316</v>
-      </c>
-      <c r="C74" s="154" t="s">
-        <v>339</v>
-      </c>
-      <c r="D74" s="137" t="s">
-        <v>320</v>
-      </c>
-      <c r="E74" s="137" t="s">
-        <v>220</v>
-      </c>
-      <c r="F74" s="138" t="s">
+      <c r="A74" s="139" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" s="140" t="s">
+        <v>308</v>
+      </c>
+      <c r="C74" s="153" t="s">
+        <v>330</v>
+      </c>
+      <c r="D74" s="136" t="s">
+        <v>311</v>
+      </c>
+      <c r="E74" s="136" t="s">
+        <v>218</v>
+      </c>
+      <c r="F74" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="G74" s="138" t="s">
-        <v>134</v>
+      <c r="G74" s="137" t="s">
+        <v>137</v>
       </c>
       <c r="H74" s="36"/>
       <c r="I74" s="36"/>
@@ -36677,26 +36962,26 @@
       <c r="AA74" s="58"/>
     </row>
     <row r="75" spans="1:27" ht="74.25" customHeight="1">
-      <c r="A75" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="B75" s="141" t="s">
-        <v>319</v>
-      </c>
-      <c r="C75" s="154" t="s">
-        <v>340</v>
-      </c>
-      <c r="D75" s="137" t="s">
-        <v>321</v>
-      </c>
-      <c r="E75" s="137" t="s">
-        <v>322</v>
-      </c>
-      <c r="F75" s="138" t="s">
+      <c r="A75" s="139" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" s="140" t="s">
+        <v>310</v>
+      </c>
+      <c r="C75" s="153" t="s">
+        <v>331</v>
+      </c>
+      <c r="D75" s="136" t="s">
+        <v>312</v>
+      </c>
+      <c r="E75" s="136" t="s">
+        <v>313</v>
+      </c>
+      <c r="F75" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="G75" s="138" t="s">
-        <v>134</v>
+      <c r="G75" s="137" t="s">
+        <v>137</v>
       </c>
       <c r="H75" s="36"/>
       <c r="I75" s="36"/>
@@ -36720,20 +37005,20 @@
       <c r="AA75" s="58"/>
     </row>
     <row r="76" spans="1:27" ht="77.25" customHeight="1">
-      <c r="A76" s="140" t="s">
-        <v>238</v>
+      <c r="A76" s="139" t="s">
+        <v>236</v>
       </c>
       <c r="B76" s="83" t="s">
-        <v>323</v>
-      </c>
-      <c r="C76" s="153" t="s">
-        <v>341</v>
+        <v>314</v>
+      </c>
+      <c r="C76" s="152" t="s">
+        <v>332</v>
       </c>
       <c r="D76" s="77" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E76" s="77" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F76" s="36" t="s">
         <v>137</v>
@@ -36763,30 +37048,30 @@
       <c r="AA76" s="58"/>
     </row>
     <row r="77" spans="1:27" ht="77.25" customHeight="1">
-      <c r="A77" s="140" t="s">
-        <v>239</v>
-      </c>
-      <c r="B77" s="141" t="s">
-        <v>405</v>
-      </c>
-      <c r="C77" s="154" t="s">
-        <v>341</v>
-      </c>
-      <c r="D77" s="137" t="s">
-        <v>406</v>
-      </c>
-      <c r="E77" s="137" t="s">
-        <v>407</v>
-      </c>
-      <c r="F77" s="138" t="s">
+      <c r="A77" s="139" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77" s="140" t="s">
+        <v>394</v>
+      </c>
+      <c r="C77" s="153" t="s">
+        <v>332</v>
+      </c>
+      <c r="D77" s="136" t="s">
+        <v>395</v>
+      </c>
+      <c r="E77" s="136" t="s">
+        <v>396</v>
+      </c>
+      <c r="F77" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="G77" s="138" t="s">
+      <c r="G77" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="H77" s="138"/>
+      <c r="H77" s="137"/>
       <c r="I77" s="79"/>
-      <c r="J77" s="150"/>
+      <c r="J77" s="149"/>
       <c r="K77" s="88"/>
       <c r="L77" s="88"/>
       <c r="M77" s="58"/>
@@ -36806,20 +37091,20 @@
       <c r="AA77" s="58"/>
     </row>
     <row r="78" spans="1:27" ht="120" customHeight="1">
-      <c r="A78" s="140" t="s">
-        <v>240</v>
-      </c>
-      <c r="B78" s="149" t="s">
-        <v>325</v>
-      </c>
-      <c r="C78" s="214" t="s">
-        <v>458</v>
-      </c>
-      <c r="D78" s="149" t="s">
-        <v>324</v>
-      </c>
-      <c r="E78" s="205" t="s">
-        <v>432</v>
+      <c r="A78" s="139" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" s="148" t="s">
+        <v>316</v>
+      </c>
+      <c r="C78" s="209" t="s">
+        <v>444</v>
+      </c>
+      <c r="D78" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="E78" s="201" t="s">
+        <v>421</v>
       </c>
       <c r="F78" s="84" t="s">
         <v>137</v>
@@ -36848,31 +37133,31 @@
       <c r="Z78" s="58"/>
       <c r="AA78" s="58"/>
     </row>
-    <row r="79" spans="1:27" s="136" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A79" s="140" t="s">
-        <v>241</v>
-      </c>
-      <c r="B79" s="207" t="s">
-        <v>434</v>
-      </c>
-      <c r="C79" s="214" t="s">
-        <v>458</v>
+    <row r="79" spans="1:27" s="135" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A79" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" s="202" t="s">
+        <v>423</v>
+      </c>
+      <c r="C79" s="209" t="s">
+        <v>444</v>
       </c>
       <c r="D79" s="99" t="s">
-        <v>326</v>
-      </c>
-      <c r="E79" s="149" t="s">
-        <v>327</v>
-      </c>
-      <c r="F79" s="208" t="s">
+        <v>317</v>
+      </c>
+      <c r="E79" s="148" t="s">
+        <v>318</v>
+      </c>
+      <c r="F79" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="G79" s="208" t="s">
+      <c r="G79" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="H79" s="208"/>
-      <c r="I79" s="209"/>
-      <c r="J79" s="210"/>
+      <c r="H79" s="203"/>
+      <c r="I79" s="204"/>
+      <c r="J79" s="205"/>
       <c r="K79" s="61"/>
       <c r="L79" s="73"/>
       <c r="M79" s="58"/>
@@ -36891,31 +37176,31 @@
       <c r="Z79" s="58"/>
       <c r="AA79" s="58"/>
     </row>
-    <row r="80" spans="1:27" s="136" customFormat="1" ht="129" customHeight="1">
-      <c r="A80" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="B80" s="207" t="s">
-        <v>485</v>
-      </c>
-      <c r="C80" s="214" t="s">
-        <v>458</v>
+    <row r="80" spans="1:27" s="135" customFormat="1" ht="129" customHeight="1">
+      <c r="A80" s="139" t="s">
+        <v>241</v>
+      </c>
+      <c r="B80" s="202" t="s">
+        <v>471</v>
+      </c>
+      <c r="C80" s="209" t="s">
+        <v>444</v>
       </c>
       <c r="D80" s="99" t="s">
-        <v>328</v>
-      </c>
-      <c r="E80" s="205" t="s">
-        <v>467</v>
-      </c>
-      <c r="F80" s="208" t="s">
+        <v>319</v>
+      </c>
+      <c r="E80" s="201" t="s">
+        <v>453</v>
+      </c>
+      <c r="F80" s="203" t="s">
         <v>137</v>
       </c>
-      <c r="G80" s="208" t="s">
+      <c r="G80" s="203" t="s">
         <v>137</v>
       </c>
-      <c r="H80" s="208"/>
-      <c r="I80" s="209"/>
-      <c r="J80" s="210"/>
+      <c r="H80" s="203"/>
+      <c r="I80" s="204"/>
+      <c r="J80" s="205"/>
       <c r="K80" s="61"/>
       <c r="L80" s="73"/>
       <c r="M80" s="58"/>
@@ -36935,20 +37220,20 @@
       <c r="AA80" s="58"/>
     </row>
     <row r="81" spans="1:27" ht="164.25" customHeight="1">
-      <c r="A81" s="140" t="s">
-        <v>244</v>
+      <c r="A81" s="139" t="s">
+        <v>242</v>
       </c>
       <c r="B81" s="99" t="s">
-        <v>329</v>
-      </c>
-      <c r="C81" s="214" t="s">
-        <v>458</v>
+        <v>320</v>
+      </c>
+      <c r="C81" s="209" t="s">
+        <v>444</v>
       </c>
       <c r="D81" s="99" t="s">
-        <v>330</v>
-      </c>
-      <c r="E81" s="205" t="s">
-        <v>408</v>
+        <v>321</v>
+      </c>
+      <c r="E81" s="201" t="s">
+        <v>397</v>
       </c>
       <c r="F81" s="84" t="s">
         <v>137</v>
@@ -36978,20 +37263,20 @@
       <c r="AA81" s="58"/>
     </row>
     <row r="82" spans="1:27" ht="154.5" customHeight="1">
-      <c r="A82" s="140" t="s">
-        <v>245</v>
+      <c r="A82" s="139" t="s">
+        <v>243</v>
       </c>
       <c r="B82" s="90" t="s">
-        <v>331</v>
-      </c>
-      <c r="C82" s="151" t="s">
-        <v>338</v>
-      </c>
-      <c r="D82" s="149" t="s">
-        <v>332</v>
-      </c>
-      <c r="E82" s="205" t="s">
-        <v>431</v>
+        <v>322</v>
+      </c>
+      <c r="C82" s="150" t="s">
+        <v>329</v>
+      </c>
+      <c r="D82" s="148" t="s">
+        <v>323</v>
+      </c>
+      <c r="E82" s="201" t="s">
+        <v>420</v>
       </c>
       <c r="F82" s="84" t="s">
         <v>137</v>
@@ -37021,20 +37306,20 @@
       <c r="AA82" s="58"/>
     </row>
     <row r="83" spans="1:27" ht="170.25" customHeight="1">
-      <c r="A83" s="140" t="s">
-        <v>247</v>
+      <c r="A83" s="139" t="s">
+        <v>245</v>
       </c>
       <c r="B83" s="99" t="s">
-        <v>333</v>
-      </c>
-      <c r="C83" s="214" t="s">
-        <v>458</v>
+        <v>324</v>
+      </c>
+      <c r="C83" s="209" t="s">
+        <v>444</v>
       </c>
       <c r="D83" s="99" t="s">
-        <v>334</v>
-      </c>
-      <c r="E83" s="205" t="s">
-        <v>430</v>
+        <v>325</v>
+      </c>
+      <c r="E83" s="201" t="s">
+        <v>419</v>
       </c>
       <c r="F83" s="84" t="s">
         <v>137</v>
@@ -37063,31 +37348,31 @@
       <c r="Z83" s="58"/>
       <c r="AA83" s="58"/>
     </row>
-    <row r="84" spans="1:27" s="136" customFormat="1" ht="116.25" customHeight="1">
-      <c r="A84" s="140" t="s">
-        <v>248</v>
-      </c>
-      <c r="B84" s="207" t="s">
-        <v>433</v>
-      </c>
-      <c r="C84" s="214" t="s">
-        <v>458</v>
+    <row r="84" spans="1:27" s="135" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A84" s="139" t="s">
+        <v>246</v>
+      </c>
+      <c r="B84" s="202" t="s">
+        <v>422</v>
+      </c>
+      <c r="C84" s="209" t="s">
+        <v>444</v>
       </c>
       <c r="D84" s="99" t="s">
-        <v>335</v>
-      </c>
-      <c r="E84" s="205" t="s">
-        <v>430</v>
-      </c>
-      <c r="F84" s="208" t="s">
+        <v>326</v>
+      </c>
+      <c r="E84" s="201" t="s">
+        <v>419</v>
+      </c>
+      <c r="F84" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="G84" s="208" t="s">
+      <c r="G84" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="H84" s="208"/>
-      <c r="I84" s="209"/>
-      <c r="J84" s="210"/>
+      <c r="H84" s="203"/>
+      <c r="I84" s="204"/>
+      <c r="J84" s="205"/>
       <c r="K84" s="61"/>
       <c r="L84" s="73"/>
       <c r="M84" s="58"/>
@@ -37106,31 +37391,31 @@
       <c r="Z84" s="58"/>
       <c r="AA84" s="58"/>
     </row>
-    <row r="85" spans="1:27" s="136" customFormat="1" ht="234.75" customHeight="1">
-      <c r="A85" s="140" t="s">
-        <v>251</v>
-      </c>
-      <c r="B85" s="211" t="s">
-        <v>486</v>
-      </c>
-      <c r="C85" s="214" t="s">
-        <v>458</v>
-      </c>
-      <c r="D85" s="149" t="s">
-        <v>336</v>
-      </c>
-      <c r="E85" s="205" t="s">
-        <v>468</v>
-      </c>
-      <c r="F85" s="208" t="s">
+    <row r="85" spans="1:27" s="135" customFormat="1" ht="234.75" customHeight="1">
+      <c r="A85" s="139" t="s">
+        <v>248</v>
+      </c>
+      <c r="B85" s="206" t="s">
+        <v>472</v>
+      </c>
+      <c r="C85" s="209" t="s">
+        <v>444</v>
+      </c>
+      <c r="D85" s="148" t="s">
+        <v>327</v>
+      </c>
+      <c r="E85" s="201" t="s">
+        <v>454</v>
+      </c>
+      <c r="F85" s="203" t="s">
         <v>137</v>
       </c>
-      <c r="G85" s="208" t="s">
+      <c r="G85" s="203" t="s">
         <v>137</v>
       </c>
-      <c r="H85" s="208"/>
-      <c r="I85" s="209"/>
-      <c r="J85" s="210"/>
+      <c r="H85" s="203"/>
+      <c r="I85" s="204"/>
+      <c r="J85" s="205"/>
       <c r="K85" s="61"/>
       <c r="L85" s="73"/>
       <c r="M85" s="58"/>
@@ -37150,20 +37435,20 @@
       <c r="AA85" s="58"/>
     </row>
     <row r="86" spans="1:27" ht="119.25" customHeight="1">
-      <c r="A86" s="140" t="s">
-        <v>253</v>
-      </c>
-      <c r="B86" s="149" t="s">
-        <v>337</v>
-      </c>
-      <c r="C86" s="152" t="s">
-        <v>436</v>
-      </c>
-      <c r="D86" s="149" t="s">
-        <v>342</v>
-      </c>
-      <c r="E86" s="205" t="s">
-        <v>435</v>
+      <c r="A86" s="139" t="s">
+        <v>249</v>
+      </c>
+      <c r="B86" s="148" t="s">
+        <v>328</v>
+      </c>
+      <c r="C86" s="151" t="s">
+        <v>425</v>
+      </c>
+      <c r="D86" s="148" t="s">
+        <v>333</v>
+      </c>
+      <c r="E86" s="201" t="s">
+        <v>424</v>
       </c>
       <c r="F86" s="84" t="s">
         <v>137</v>
@@ -37193,20 +37478,20 @@
       <c r="AA86" s="58"/>
     </row>
     <row r="87" spans="1:27" ht="105" customHeight="1">
-      <c r="A87" s="140" t="s">
-        <v>256</v>
-      </c>
-      <c r="B87" s="205" t="s">
-        <v>343</v>
-      </c>
-      <c r="C87" s="152" t="s">
-        <v>436</v>
-      </c>
-      <c r="D87" s="205" t="s">
-        <v>437</v>
-      </c>
-      <c r="E87" s="205" t="s">
-        <v>440</v>
+      <c r="A87" s="139" t="s">
+        <v>251</v>
+      </c>
+      <c r="B87" s="201" t="s">
+        <v>334</v>
+      </c>
+      <c r="C87" s="151" t="s">
+        <v>425</v>
+      </c>
+      <c r="D87" s="201" t="s">
+        <v>426</v>
+      </c>
+      <c r="E87" s="201" t="s">
+        <v>429</v>
       </c>
       <c r="F87" s="84" t="s">
         <v>137</v>
@@ -37235,31 +37520,31 @@
       <c r="Z87" s="58"/>
       <c r="AA87" s="58"/>
     </row>
-    <row r="88" spans="1:27" s="136" customFormat="1" ht="120.75" customHeight="1">
-      <c r="A88" s="140" t="s">
-        <v>257</v>
-      </c>
-      <c r="B88" s="213" t="s">
-        <v>438</v>
-      </c>
-      <c r="C88" s="214" t="s">
-        <v>458</v>
-      </c>
-      <c r="D88" s="213" t="s">
-        <v>439</v>
-      </c>
-      <c r="E88" s="213" t="s">
-        <v>461</v>
-      </c>
-      <c r="F88" s="215" t="s">
+    <row r="88" spans="1:27" s="135" customFormat="1" ht="120.75" customHeight="1">
+      <c r="A88" s="139" t="s">
+        <v>252</v>
+      </c>
+      <c r="B88" s="208" t="s">
+        <v>427</v>
+      </c>
+      <c r="C88" s="209" t="s">
+        <v>444</v>
+      </c>
+      <c r="D88" s="208" t="s">
+        <v>428</v>
+      </c>
+      <c r="E88" s="208" t="s">
+        <v>447</v>
+      </c>
+      <c r="F88" s="210" t="s">
         <v>134</v>
       </c>
-      <c r="G88" s="215" t="s">
+      <c r="G88" s="210" t="s">
         <v>134</v>
       </c>
-      <c r="H88" s="215"/>
-      <c r="I88" s="209"/>
-      <c r="J88" s="216"/>
+      <c r="H88" s="210"/>
+      <c r="I88" s="204"/>
+      <c r="J88" s="211"/>
       <c r="K88" s="88"/>
       <c r="L88" s="88"/>
       <c r="M88" s="58"/>
@@ -37278,31 +37563,31 @@
       <c r="Z88" s="58"/>
       <c r="AA88" s="58"/>
     </row>
-    <row r="89" spans="1:27" s="136" customFormat="1" ht="188.25" customHeight="1">
-      <c r="A89" s="140" t="s">
-        <v>259</v>
-      </c>
-      <c r="B89" s="213" t="s">
-        <v>463</v>
-      </c>
-      <c r="C89" s="214" t="s">
-        <v>458</v>
-      </c>
-      <c r="D89" s="213" t="s">
-        <v>439</v>
-      </c>
-      <c r="E89" s="213" t="s">
-        <v>464</v>
-      </c>
-      <c r="F89" s="215" t="s">
+    <row r="89" spans="1:27" s="135" customFormat="1" ht="188.25" customHeight="1">
+      <c r="A89" s="139" t="s">
+        <v>254</v>
+      </c>
+      <c r="B89" s="208" t="s">
+        <v>449</v>
+      </c>
+      <c r="C89" s="209" t="s">
+        <v>444</v>
+      </c>
+      <c r="D89" s="208" t="s">
+        <v>428</v>
+      </c>
+      <c r="E89" s="208" t="s">
+        <v>450</v>
+      </c>
+      <c r="F89" s="210" t="s">
         <v>137</v>
       </c>
-      <c r="G89" s="215" t="s">
+      <c r="G89" s="210" t="s">
         <v>137</v>
       </c>
-      <c r="H89" s="215"/>
-      <c r="I89" s="209"/>
-      <c r="J89" s="216"/>
+      <c r="H89" s="210"/>
+      <c r="I89" s="204"/>
+      <c r="J89" s="211"/>
       <c r="K89" s="88"/>
       <c r="L89" s="88"/>
       <c r="M89" s="58"/>
@@ -37321,32 +37606,32 @@
       <c r="Z89" s="58"/>
       <c r="AA89" s="58"/>
     </row>
-    <row r="90" spans="1:27" s="136" customFormat="1" ht="159" customHeight="1">
-      <c r="A90" s="140" t="s">
-        <v>512</v>
-      </c>
-      <c r="B90" s="205" t="s">
-        <v>459</v>
-      </c>
-      <c r="C90" s="214" t="s">
-        <v>436</v>
-      </c>
-      <c r="D90" s="205" t="s">
-        <v>460</v>
-      </c>
-      <c r="E90" s="205" t="s">
-        <v>462</v>
-      </c>
-      <c r="F90" s="208" t="s">
+    <row r="90" spans="1:27" s="135" customFormat="1" ht="159" customHeight="1">
+      <c r="A90" s="139" t="s">
+        <v>498</v>
+      </c>
+      <c r="B90" s="201" t="s">
+        <v>445</v>
+      </c>
+      <c r="C90" s="209" t="s">
+        <v>425</v>
+      </c>
+      <c r="D90" s="201" t="s">
+        <v>446</v>
+      </c>
+      <c r="E90" s="201" t="s">
+        <v>448</v>
+      </c>
+      <c r="F90" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="G90" s="208" t="s">
+      <c r="G90" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="H90" s="208"/>
-      <c r="I90" s="209"/>
-      <c r="J90" s="210" t="s">
-        <v>234</v>
+      <c r="H90" s="203"/>
+      <c r="I90" s="204"/>
+      <c r="J90" s="205" t="s">
+        <v>232</v>
       </c>
       <c r="K90" s="61"/>
       <c r="L90" s="73"/>
@@ -37367,20 +37652,20 @@
       <c r="AA90" s="58"/>
     </row>
     <row r="91" spans="1:27" ht="183" customHeight="1">
-      <c r="A91" s="140" t="s">
-        <v>262</v>
-      </c>
-      <c r="B91" s="149" t="s">
-        <v>344</v>
-      </c>
-      <c r="C91" s="214" t="s">
-        <v>458</v>
-      </c>
-      <c r="D91" s="149" t="s">
-        <v>345</v>
-      </c>
-      <c r="E91" s="205" t="s">
-        <v>471</v>
+      <c r="A91" s="139" t="s">
+        <v>256</v>
+      </c>
+      <c r="B91" s="148" t="s">
+        <v>335</v>
+      </c>
+      <c r="C91" s="209" t="s">
+        <v>444</v>
+      </c>
+      <c r="D91" s="148" t="s">
+        <v>336</v>
+      </c>
+      <c r="E91" s="201" t="s">
+        <v>457</v>
       </c>
       <c r="F91" s="84" t="s">
         <v>137</v>
@@ -37409,31 +37694,31 @@
       <c r="Z91" s="58"/>
       <c r="AA91" s="58"/>
     </row>
-    <row r="92" spans="1:27" s="136" customFormat="1" ht="233.25" customHeight="1">
-      <c r="A92" s="140" t="s">
-        <v>513</v>
-      </c>
-      <c r="B92" s="149" t="s">
-        <v>470</v>
-      </c>
-      <c r="C92" s="214" t="s">
-        <v>458</v>
-      </c>
-      <c r="D92" s="149" t="s">
-        <v>469</v>
-      </c>
-      <c r="E92" s="205" t="s">
-        <v>477</v>
-      </c>
-      <c r="F92" s="208" t="s">
+    <row r="92" spans="1:27" s="135" customFormat="1" ht="233.25" customHeight="1">
+      <c r="A92" s="139" t="s">
+        <v>499</v>
+      </c>
+      <c r="B92" s="148" t="s">
+        <v>456</v>
+      </c>
+      <c r="C92" s="209" t="s">
+        <v>444</v>
+      </c>
+      <c r="D92" s="148" t="s">
+        <v>455</v>
+      </c>
+      <c r="E92" s="201" t="s">
+        <v>463</v>
+      </c>
+      <c r="F92" s="203" t="s">
         <v>137</v>
       </c>
-      <c r="G92" s="208" t="s">
+      <c r="G92" s="203" t="s">
         <v>137</v>
       </c>
-      <c r="H92" s="208"/>
-      <c r="I92" s="209"/>
-      <c r="J92" s="210"/>
+      <c r="H92" s="203"/>
+      <c r="I92" s="204"/>
+      <c r="J92" s="205"/>
       <c r="K92" s="61"/>
       <c r="L92" s="73"/>
       <c r="M92" s="58"/>
@@ -37452,32 +37737,32 @@
       <c r="Z92" s="58"/>
       <c r="AA92" s="58"/>
     </row>
-    <row r="93" spans="1:27" s="136" customFormat="1" ht="151.5" customHeight="1">
-      <c r="A93" s="140" t="s">
-        <v>514</v>
-      </c>
-      <c r="B93" s="205" t="s">
-        <v>472</v>
-      </c>
-      <c r="C93" s="212" t="s">
+    <row r="93" spans="1:27" s="135" customFormat="1" ht="151.5" customHeight="1">
+      <c r="A93" s="139" t="s">
+        <v>500</v>
+      </c>
+      <c r="B93" s="201" t="s">
         <v>458</v>
       </c>
-      <c r="D93" s="149" t="s">
-        <v>346</v>
-      </c>
-      <c r="E93" s="205" t="s">
-        <v>435</v>
-      </c>
-      <c r="F93" s="208" t="s">
+      <c r="C93" s="207" t="s">
+        <v>444</v>
+      </c>
+      <c r="D93" s="148" t="s">
+        <v>337</v>
+      </c>
+      <c r="E93" s="201" t="s">
+        <v>424</v>
+      </c>
+      <c r="F93" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="G93" s="208" t="s">
+      <c r="G93" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="H93" s="208"/>
-      <c r="I93" s="209"/>
-      <c r="J93" s="210" t="s">
-        <v>234</v>
+      <c r="H93" s="203"/>
+      <c r="I93" s="204"/>
+      <c r="J93" s="205" t="s">
+        <v>232</v>
       </c>
       <c r="K93" s="61"/>
       <c r="L93" s="73"/>
@@ -37497,32 +37782,32 @@
       <c r="Z93" s="58"/>
       <c r="AA93" s="58"/>
     </row>
-    <row r="94" spans="1:27" s="136" customFormat="1" ht="165" customHeight="1">
-      <c r="A94" s="140" t="s">
-        <v>515</v>
-      </c>
-      <c r="B94" s="205" t="s">
-        <v>473</v>
-      </c>
-      <c r="C94" s="212" t="s">
-        <v>458</v>
-      </c>
-      <c r="D94" s="205" t="s">
-        <v>474</v>
-      </c>
-      <c r="E94" s="205" t="s">
-        <v>475</v>
-      </c>
-      <c r="F94" s="208" t="s">
+    <row r="94" spans="1:27" s="135" customFormat="1" ht="165" customHeight="1">
+      <c r="A94" s="139" t="s">
+        <v>501</v>
+      </c>
+      <c r="B94" s="201" t="s">
+        <v>459</v>
+      </c>
+      <c r="C94" s="207" t="s">
+        <v>444</v>
+      </c>
+      <c r="D94" s="201" t="s">
+        <v>460</v>
+      </c>
+      <c r="E94" s="201" t="s">
+        <v>461</v>
+      </c>
+      <c r="F94" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="G94" s="208" t="s">
+      <c r="G94" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="H94" s="208"/>
-      <c r="I94" s="209"/>
-      <c r="J94" s="210" t="s">
-        <v>234</v>
+      <c r="H94" s="203"/>
+      <c r="I94" s="204"/>
+      <c r="J94" s="205" t="s">
+        <v>232</v>
       </c>
       <c r="K94" s="61"/>
       <c r="L94" s="73"/>
@@ -37542,31 +37827,31 @@
       <c r="Z94" s="58"/>
       <c r="AA94" s="58"/>
     </row>
-    <row r="95" spans="1:27" s="136" customFormat="1" ht="202.5" customHeight="1">
-      <c r="A95" s="140" t="s">
-        <v>516</v>
-      </c>
-      <c r="B95" s="205" t="s">
-        <v>476</v>
-      </c>
-      <c r="C95" s="212" t="s">
-        <v>458</v>
-      </c>
-      <c r="D95" s="149" t="s">
-        <v>347</v>
-      </c>
-      <c r="E95" s="205" t="s">
-        <v>478</v>
-      </c>
-      <c r="F95" s="208" t="s">
+    <row r="95" spans="1:27" s="135" customFormat="1" ht="202.5" customHeight="1">
+      <c r="A95" s="139" t="s">
+        <v>502</v>
+      </c>
+      <c r="B95" s="201" t="s">
+        <v>462</v>
+      </c>
+      <c r="C95" s="207" t="s">
+        <v>444</v>
+      </c>
+      <c r="D95" s="148" t="s">
+        <v>338</v>
+      </c>
+      <c r="E95" s="201" t="s">
+        <v>464</v>
+      </c>
+      <c r="F95" s="203" t="s">
         <v>137</v>
       </c>
-      <c r="G95" s="208" t="s">
+      <c r="G95" s="203" t="s">
         <v>137</v>
       </c>
-      <c r="H95" s="208"/>
-      <c r="I95" s="209"/>
-      <c r="J95" s="210"/>
+      <c r="H95" s="203"/>
+      <c r="I95" s="204"/>
+      <c r="J95" s="205"/>
       <c r="K95" s="61"/>
       <c r="L95" s="73"/>
       <c r="M95" s="58"/>
@@ -37585,31 +37870,31 @@
       <c r="Z95" s="58"/>
       <c r="AA95" s="58"/>
     </row>
-    <row r="96" spans="1:27" s="136" customFormat="1" ht="203.25" customHeight="1">
-      <c r="A96" s="140" t="s">
-        <v>517</v>
-      </c>
-      <c r="B96" s="149" t="s">
-        <v>349</v>
-      </c>
-      <c r="C96" s="212" t="s">
-        <v>458</v>
-      </c>
-      <c r="D96" s="149" t="s">
-        <v>348</v>
-      </c>
-      <c r="E96" s="205" t="s">
-        <v>479</v>
-      </c>
-      <c r="F96" s="208" t="s">
+    <row r="96" spans="1:27" s="135" customFormat="1" ht="203.25" customHeight="1">
+      <c r="A96" s="139" t="s">
+        <v>503</v>
+      </c>
+      <c r="B96" s="148" t="s">
+        <v>340</v>
+      </c>
+      <c r="C96" s="207" t="s">
+        <v>444</v>
+      </c>
+      <c r="D96" s="148" t="s">
+        <v>339</v>
+      </c>
+      <c r="E96" s="201" t="s">
+        <v>465</v>
+      </c>
+      <c r="F96" s="203" t="s">
         <v>137</v>
       </c>
-      <c r="G96" s="208" t="s">
+      <c r="G96" s="203" t="s">
         <v>137</v>
       </c>
-      <c r="H96" s="208"/>
-      <c r="I96" s="209"/>
-      <c r="J96" s="210"/>
+      <c r="H96" s="203"/>
+      <c r="I96" s="204"/>
+      <c r="J96" s="205"/>
       <c r="K96" s="61"/>
       <c r="L96" s="73"/>
       <c r="M96" s="58"/>
@@ -37628,31 +37913,31 @@
       <c r="Z96" s="58"/>
       <c r="AA96" s="58"/>
     </row>
-    <row r="97" spans="1:27" s="136" customFormat="1" ht="141.75" customHeight="1">
-      <c r="A97" s="140" t="s">
-        <v>518</v>
-      </c>
-      <c r="B97" s="205" t="s">
-        <v>480</v>
-      </c>
-      <c r="C97" s="212" t="s">
+    <row r="97" spans="1:27" s="135" customFormat="1" ht="141.75" customHeight="1">
+      <c r="A97" s="139" t="s">
+        <v>504</v>
+      </c>
+      <c r="B97" s="201" t="s">
         <v>466</v>
       </c>
-      <c r="D97" s="205" t="s">
-        <v>242</v>
-      </c>
-      <c r="E97" s="205" t="s">
-        <v>435</v>
-      </c>
-      <c r="F97" s="208" t="s">
+      <c r="C97" s="207" t="s">
+        <v>452</v>
+      </c>
+      <c r="D97" s="201" t="s">
+        <v>240</v>
+      </c>
+      <c r="E97" s="201" t="s">
+        <v>424</v>
+      </c>
+      <c r="F97" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="G97" s="208" t="s">
+      <c r="G97" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="H97" s="208"/>
-      <c r="I97" s="209"/>
-      <c r="J97" s="210"/>
+      <c r="H97" s="203"/>
+      <c r="I97" s="204"/>
+      <c r="J97" s="205"/>
       <c r="K97" s="61"/>
       <c r="L97" s="73"/>
       <c r="M97" s="58"/>
@@ -37672,20 +37957,20 @@
       <c r="AA97" s="58"/>
     </row>
     <row r="98" spans="1:27" ht="142.5" customHeight="1">
-      <c r="A98" s="140" t="s">
-        <v>519</v>
-      </c>
-      <c r="B98" s="205" t="s">
-        <v>483</v>
-      </c>
-      <c r="C98" s="152" t="s">
-        <v>458</v>
-      </c>
-      <c r="D98" s="149" t="s">
-        <v>350</v>
-      </c>
-      <c r="E98" s="205" t="s">
-        <v>435</v>
+      <c r="A98" s="139" t="s">
+        <v>505</v>
+      </c>
+      <c r="B98" s="201" t="s">
+        <v>469</v>
+      </c>
+      <c r="C98" s="151" t="s">
+        <v>444</v>
+      </c>
+      <c r="D98" s="148" t="s">
+        <v>341</v>
+      </c>
+      <c r="E98" s="201" t="s">
+        <v>424</v>
       </c>
       <c r="F98" s="84" t="s">
         <v>134</v>
@@ -37715,30 +38000,30 @@
       <c r="AA98" s="58"/>
     </row>
     <row r="99" spans="1:27" ht="252.75" customHeight="1">
-      <c r="A99" s="140" t="s">
-        <v>520</v>
-      </c>
-      <c r="B99" s="205" t="s">
-        <v>482</v>
-      </c>
-      <c r="C99" s="152" t="s">
-        <v>458</v>
-      </c>
-      <c r="D99" s="205" t="s">
-        <v>481</v>
-      </c>
-      <c r="E99" s="213" t="s">
-        <v>484</v>
-      </c>
-      <c r="F99" s="138" t="s">
+      <c r="A99" s="139" t="s">
+        <v>506</v>
+      </c>
+      <c r="B99" s="201" t="s">
+        <v>468</v>
+      </c>
+      <c r="C99" s="151" t="s">
+        <v>444</v>
+      </c>
+      <c r="D99" s="201" t="s">
+        <v>467</v>
+      </c>
+      <c r="E99" s="208" t="s">
+        <v>470</v>
+      </c>
+      <c r="F99" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="G99" s="138" t="s">
+      <c r="G99" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="H99" s="138"/>
+      <c r="H99" s="137"/>
       <c r="I99" s="79"/>
-      <c r="J99" s="137"/>
+      <c r="J99" s="136"/>
       <c r="K99" s="88"/>
       <c r="L99" s="88"/>
       <c r="M99" s="58"/>
@@ -37758,17 +38043,17 @@
       <c r="AA99" s="58"/>
     </row>
     <row r="100" spans="1:27" ht="83.25" customHeight="1">
-      <c r="A100" s="140" t="s">
-        <v>521</v>
+      <c r="A100" s="139" t="s">
+        <v>507</v>
       </c>
       <c r="B100" s="83" t="s">
-        <v>351</v>
-      </c>
-      <c r="C100" s="220" t="s">
-        <v>465</v>
+        <v>342</v>
+      </c>
+      <c r="C100" s="215" t="s">
+        <v>451</v>
       </c>
       <c r="D100" s="77" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E100" s="77"/>
       <c r="F100" s="67" t="s">
@@ -37830,20 +38115,20 @@
       <c r="AA101" s="58"/>
     </row>
     <row r="102" spans="1:27" ht="65.25" customHeight="1">
-      <c r="A102" s="140" t="s">
-        <v>522</v>
+      <c r="A102" s="139" t="s">
+        <v>508</v>
       </c>
       <c r="B102" s="99" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C102" s="91" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D102" s="100" t="s">
-        <v>353</v>
+        <v>540</v>
       </c>
       <c r="E102" s="100" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F102" s="101" t="s">
         <v>137</v>
@@ -37852,7 +38137,7 @@
         <v>137</v>
       </c>
       <c r="H102" s="101"/>
-      <c r="I102" s="159"/>
+      <c r="I102" s="158"/>
       <c r="J102" s="102"/>
       <c r="K102" s="88"/>
       <c r="L102" s="88"/>
@@ -37872,21 +38157,21 @@
       <c r="Z102" s="58"/>
       <c r="AA102" s="58"/>
     </row>
-    <row r="103" spans="1:27" ht="116.25" customHeight="1">
-      <c r="A103" s="140" t="s">
-        <v>523</v>
+    <row r="103" spans="1:27" ht="80.25" customHeight="1">
+      <c r="A103" s="139" t="s">
+        <v>509</v>
       </c>
       <c r="B103" s="99" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D103" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="E103" s="204" t="s">
-        <v>441</v>
+        <v>542</v>
+      </c>
+      <c r="E103" s="200" t="s">
+        <v>430</v>
       </c>
       <c r="F103" s="101" t="s">
         <v>137</v>
@@ -37916,20 +38201,20 @@
       <c r="AA103" s="58"/>
     </row>
     <row r="104" spans="1:27" ht="105" customHeight="1">
-      <c r="A104" s="140" t="s">
-        <v>524</v>
-      </c>
-      <c r="B104" s="207" t="s">
-        <v>356</v>
+      <c r="A104" s="139" t="s">
+        <v>510</v>
+      </c>
+      <c r="B104" s="202" t="s">
+        <v>346</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D104" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="E104" s="204" t="s">
-        <v>442</v>
+        <v>541</v>
+      </c>
+      <c r="E104" s="200" t="s">
+        <v>431</v>
       </c>
       <c r="F104" s="101" t="s">
         <v>137</v>
@@ -37958,21 +38243,21 @@
       <c r="Z104" s="75"/>
       <c r="AA104" s="75"/>
     </row>
-    <row r="105" spans="1:27" ht="105" customHeight="1">
-      <c r="A105" s="140" t="s">
-        <v>525</v>
+    <row r="105" spans="1:27" ht="117" customHeight="1">
+      <c r="A105" s="139" t="s">
+        <v>511</v>
       </c>
       <c r="B105" s="48" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D105" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="E105" s="204" t="s">
-        <v>443</v>
+        <v>543</v>
+      </c>
+      <c r="E105" s="200" t="s">
+        <v>432</v>
       </c>
       <c r="F105" s="101" t="s">
         <v>137</v>
@@ -38001,21 +38286,21 @@
       <c r="Z105" s="61"/>
       <c r="AA105" s="61"/>
     </row>
-    <row r="106" spans="1:27" ht="81" customHeight="1">
-      <c r="A106" s="140" t="s">
-        <v>526</v>
-      </c>
-      <c r="B106" s="207" t="s">
-        <v>444</v>
-      </c>
-      <c r="C106" s="219" t="s">
-        <v>249</v>
-      </c>
-      <c r="D106" s="204" t="s">
-        <v>445</v>
-      </c>
-      <c r="E106" s="204" t="s">
-        <v>452</v>
+    <row r="106" spans="1:27" ht="105.75" customHeight="1">
+      <c r="A106" s="139" t="s">
+        <v>512</v>
+      </c>
+      <c r="B106" s="202" t="s">
+        <v>433</v>
+      </c>
+      <c r="C106" s="214" t="s">
+        <v>247</v>
+      </c>
+      <c r="D106" s="200" t="s">
+        <v>544</v>
+      </c>
+      <c r="E106" s="200" t="s">
+        <v>439</v>
       </c>
       <c r="F106" s="101" t="s">
         <v>137</v>
@@ -38045,20 +38330,20 @@
       <c r="AA106" s="61"/>
     </row>
     <row r="107" spans="1:27" ht="113.25" customHeight="1">
-      <c r="A107" s="140" t="s">
-        <v>527</v>
-      </c>
-      <c r="B107" s="217" t="s">
-        <v>446</v>
+      <c r="A107" s="139" t="s">
+        <v>513</v>
+      </c>
+      <c r="B107" s="212" t="s">
+        <v>434</v>
       </c>
       <c r="C107" s="92" t="s">
-        <v>249</v>
-      </c>
-      <c r="D107" s="218" t="s">
-        <v>447</v>
-      </c>
-      <c r="E107" s="218" t="s">
-        <v>451</v>
+        <v>247</v>
+      </c>
+      <c r="D107" s="213" t="s">
+        <v>545</v>
+      </c>
+      <c r="E107" s="213" t="s">
+        <v>438</v>
       </c>
       <c r="F107" s="105" t="s">
         <v>137</v>
@@ -38088,20 +38373,20 @@
       <c r="AA107" s="88"/>
     </row>
     <row r="108" spans="1:27" ht="102" customHeight="1">
-      <c r="A108" s="140" t="s">
-        <v>528</v>
-      </c>
-      <c r="B108" s="217" t="s">
-        <v>448</v>
+      <c r="A108" s="139" t="s">
+        <v>514</v>
+      </c>
+      <c r="B108" s="212" t="s">
+        <v>435</v>
       </c>
       <c r="C108" s="92" t="s">
-        <v>249</v>
-      </c>
-      <c r="D108" s="218" t="s">
-        <v>449</v>
-      </c>
-      <c r="E108" s="218" t="s">
-        <v>450</v>
+        <v>247</v>
+      </c>
+      <c r="D108" s="213" t="s">
+        <v>436</v>
+      </c>
+      <c r="E108" s="213" t="s">
+        <v>437</v>
       </c>
       <c r="F108" s="105" t="s">
         <v>137</v>
@@ -38131,17 +38416,17 @@
       <c r="AA108" s="88"/>
     </row>
     <row r="109" spans="1:27" ht="45" customHeight="1">
-      <c r="A109" s="140" t="s">
-        <v>529</v>
+      <c r="A109" s="139" t="s">
+        <v>515</v>
       </c>
       <c r="B109" s="103" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C109" s="92" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D109" s="104" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E109" s="104"/>
       <c r="F109" s="105" t="s">
@@ -38172,16 +38457,16 @@
       <c r="AA109" s="61"/>
     </row>
     <row r="110" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A110" s="195" t="s">
-        <v>359</v>
-      </c>
-      <c r="B110" s="196"/>
-      <c r="C110" s="197"/>
-      <c r="D110" s="198"/>
-      <c r="E110" s="198"/>
-      <c r="F110" s="199"/>
-      <c r="G110" s="199"/>
-      <c r="H110" s="199"/>
+      <c r="A110" s="191" t="s">
+        <v>349</v>
+      </c>
+      <c r="B110" s="192"/>
+      <c r="C110" s="193"/>
+      <c r="D110" s="194"/>
+      <c r="E110" s="194"/>
+      <c r="F110" s="195"/>
+      <c r="G110" s="195"/>
+      <c r="H110" s="195"/>
       <c r="I110" s="105"/>
       <c r="J110" s="106"/>
       <c r="K110" s="88"/>
@@ -38203,28 +38488,28 @@
       <c r="AA110" s="88"/>
     </row>
     <row r="111" spans="1:27" ht="80.25" customHeight="1">
-      <c r="A111" s="140" t="s">
-        <v>530</v>
-      </c>
-      <c r="B111" s="201" t="s">
-        <v>390</v>
-      </c>
-      <c r="C111" s="125"/>
-      <c r="D111" s="170" t="s">
-        <v>391</v>
-      </c>
-      <c r="E111" s="170" t="s">
-        <v>392</v>
-      </c>
-      <c r="F111" s="168" t="s">
+      <c r="A111" s="139" t="s">
+        <v>516</v>
+      </c>
+      <c r="B111" s="197" t="s">
+        <v>380</v>
+      </c>
+      <c r="C111" s="124"/>
+      <c r="D111" s="167" t="s">
+        <v>546</v>
+      </c>
+      <c r="E111" s="167" t="s">
+        <v>381</v>
+      </c>
+      <c r="F111" s="165" t="s">
         <v>137</v>
       </c>
-      <c r="G111" s="168" t="s">
+      <c r="G111" s="165" t="s">
         <v>137</v>
       </c>
-      <c r="H111" s="168"/>
-      <c r="I111" s="124"/>
-      <c r="J111" s="121"/>
+      <c r="H111" s="165"/>
+      <c r="I111" s="123"/>
+      <c r="J111" s="120"/>
       <c r="K111" s="88"/>
       <c r="L111" s="88"/>
       <c r="M111" s="88"/>
@@ -38244,31 +38529,31 @@
       <c r="AA111" s="88"/>
     </row>
     <row r="112" spans="1:27" ht="80.25" customHeight="1">
-      <c r="A112" s="140" t="s">
-        <v>531</v>
-      </c>
-      <c r="B112" s="200" t="s">
-        <v>362</v>
-      </c>
-      <c r="C112" s="140" t="s">
-        <v>260</v>
-      </c>
-      <c r="D112" s="180" t="s">
-        <v>363</v>
-      </c>
-      <c r="E112" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="F112" s="138" t="s">
+      <c r="A112" s="139" t="s">
+        <v>517</v>
+      </c>
+      <c r="B112" s="196" t="s">
+        <v>352</v>
+      </c>
+      <c r="C112" s="139" t="s">
+        <v>255</v>
+      </c>
+      <c r="D112" s="177" t="s">
+        <v>353</v>
+      </c>
+      <c r="E112" s="177" t="s">
+        <v>547</v>
+      </c>
+      <c r="F112" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="G112" s="138" t="s">
+      <c r="G112" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="H112" s="138"/>
+      <c r="H112" s="137"/>
       <c r="I112" s="11"/>
       <c r="J112" s="30" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="K112" s="61"/>
       <c r="L112" s="61"/>
@@ -38289,18 +38574,18 @@
       <c r="AA112" s="61"/>
     </row>
     <row r="113" spans="1:27" ht="80.25" customHeight="1">
-      <c r="A113" s="140" t="s">
-        <v>532</v>
+      <c r="A113" s="139" t="s">
+        <v>518</v>
       </c>
       <c r="B113" s="160" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C113" s="32"/>
-      <c r="D113" s="161" t="s">
-        <v>365</v>
-      </c>
-      <c r="E113" s="161" t="s">
-        <v>453</v>
+      <c r="D113" s="159" t="s">
+        <v>355</v>
+      </c>
+      <c r="E113" s="159" t="s">
+        <v>440</v>
       </c>
       <c r="F113" s="36" t="s">
         <v>137</v>
@@ -38330,18 +38615,18 @@
       <c r="AA113" s="88"/>
     </row>
     <row r="114" spans="1:27" ht="80.25" customHeight="1">
-      <c r="A114" s="140" t="s">
-        <v>533</v>
-      </c>
-      <c r="B114" s="162" t="s">
-        <v>366</v>
+      <c r="A114" s="139" t="s">
+        <v>519</v>
+      </c>
+      <c r="B114" s="160" t="s">
+        <v>356</v>
       </c>
       <c r="C114" s="32"/>
-      <c r="D114" s="161" t="s">
-        <v>367</v>
-      </c>
-      <c r="E114" s="161" t="s">
-        <v>454</v>
+      <c r="D114" s="159" t="s">
+        <v>357</v>
+      </c>
+      <c r="E114" s="159" t="s">
+        <v>441</v>
       </c>
       <c r="F114" s="36" t="s">
         <v>137</v>
@@ -38371,18 +38656,18 @@
       <c r="AA114" s="88"/>
     </row>
     <row r="115" spans="1:27" ht="80.25" customHeight="1">
-      <c r="A115" s="140" t="s">
-        <v>534</v>
+      <c r="A115" s="139" t="s">
+        <v>520</v>
       </c>
       <c r="B115" s="160" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C115" s="32"/>
-      <c r="D115" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="E115" s="161" t="s">
-        <v>455</v>
+      <c r="D115" s="159" t="s">
+        <v>350</v>
+      </c>
+      <c r="E115" s="159" t="s">
+        <v>442</v>
       </c>
       <c r="F115" s="36" t="s">
         <v>137</v>
@@ -38442,31 +38727,31 @@
       <c r="Z116" s="61"/>
       <c r="AA116" s="61"/>
     </row>
-    <row r="117" spans="1:27" ht="30" customHeight="1">
+    <row r="117" spans="1:27" ht="63.75" customHeight="1">
       <c r="A117" s="91" t="s">
-        <v>535</v>
-      </c>
-      <c r="B117" s="112" t="s">
-        <v>263</v>
-      </c>
-      <c r="C117" s="163" t="s">
-        <v>302</v>
-      </c>
-      <c r="D117" s="113" t="s">
-        <v>264</v>
-      </c>
-      <c r="E117" s="113" t="s">
-        <v>265</v>
-      </c>
-      <c r="F117" s="114" t="s">
+        <v>521</v>
+      </c>
+      <c r="B117" s="161" t="s">
+        <v>257</v>
+      </c>
+      <c r="C117" s="161" t="s">
+        <v>295</v>
+      </c>
+      <c r="D117" s="252" t="s">
+        <v>548</v>
+      </c>
+      <c r="E117" s="112" t="s">
+        <v>258</v>
+      </c>
+      <c r="F117" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="G117" s="114" t="s">
+      <c r="G117" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="H117" s="114"/>
-      <c r="I117" s="114"/>
-      <c r="J117" s="115"/>
+      <c r="H117" s="113"/>
+      <c r="I117" s="113"/>
+      <c r="J117" s="114"/>
       <c r="K117" s="61"/>
       <c r="L117" s="61"/>
       <c r="M117" s="61"/>
@@ -65969,10 +66254,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A98A753-3A09-4404-9B44-374DF1BDDDD2}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C13"/>
+    <sheetView topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -65985,29 +66270,29 @@
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A1" s="241" t="s">
-        <v>537</v>
-      </c>
-      <c r="B1" s="244" t="s">
-        <v>539</v>
-      </c>
-      <c r="C1" s="244" t="s">
-        <v>538</v>
-      </c>
-      <c r="D1" s="246" t="s">
-        <v>543</v>
-      </c>
-      <c r="E1" s="245" t="s">
-        <v>541</v>
-      </c>
-      <c r="F1" s="245" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="241"/>
-      <c r="B2" s="242" t="s">
+    <row r="1" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A1" s="260" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="234" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1" s="234" t="s">
+        <v>524</v>
+      </c>
+      <c r="D1" s="236" t="s">
+        <v>529</v>
+      </c>
+      <c r="E1" s="235" t="s">
+        <v>527</v>
+      </c>
+      <c r="F1" s="235" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="260"/>
+      <c r="B2" s="232" t="s">
         <v>6</v>
       </c>
       <c r="C2">
@@ -66016,16 +66301,16 @@
       <c r="D2">
         <v>10</v>
       </c>
-      <c r="E2" s="248">
+      <c r="E2" s="238">
         <v>44660</v>
       </c>
-      <c r="F2" s="248">
+      <c r="F2" s="238">
         <v>44660</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="241"/>
-      <c r="B3" s="242" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="260"/>
+      <c r="B3" s="232" t="s">
         <v>20</v>
       </c>
       <c r="C3">
@@ -66034,16 +66319,16 @@
       <c r="D3">
         <v>92</v>
       </c>
-      <c r="E3" s="248">
+      <c r="E3" s="238">
         <v>44660</v>
       </c>
-      <c r="F3" s="248">
+      <c r="F3" s="238">
         <v>44660</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="241"/>
-      <c r="B4" s="243" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="260"/>
+      <c r="B4" s="233" t="s">
         <v>27</v>
       </c>
       <c r="C4">
@@ -66052,16 +66337,16 @@
       <c r="D4">
         <v>32</v>
       </c>
-      <c r="E4" s="248">
+      <c r="E4" s="238">
         <v>44660</v>
       </c>
-      <c r="F4" s="248">
+      <c r="F4" s="238">
         <v>44660</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="241"/>
-      <c r="B5" s="242" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="260"/>
+      <c r="B5" s="232" t="s">
         <v>43</v>
       </c>
       <c r="C5">
@@ -66070,16 +66355,16 @@
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" s="248">
+      <c r="E5" s="238">
         <v>44660</v>
       </c>
-      <c r="F5" s="248">
+      <c r="F5" s="238">
         <v>44660</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="241"/>
-      <c r="B6" s="242" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="260"/>
+      <c r="B6" s="232" t="s">
         <v>61</v>
       </c>
       <c r="C6">
@@ -66088,16 +66373,16 @@
       <c r="D6">
         <v>6</v>
       </c>
-      <c r="E6" s="248">
+      <c r="E6" s="238">
         <v>44661</v>
       </c>
-      <c r="F6" s="248">
+      <c r="F6" s="238">
         <v>44661</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="241"/>
-      <c r="B7" s="242" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="260"/>
+      <c r="B7" s="232" t="s">
         <v>66</v>
       </c>
       <c r="C7">
@@ -66106,16 +66391,16 @@
       <c r="D7">
         <v>28</v>
       </c>
-      <c r="E7" s="248">
+      <c r="E7" s="238">
         <v>44661</v>
       </c>
-      <c r="F7" s="248">
+      <c r="F7" s="238">
         <v>44661</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="241"/>
-      <c r="B8" s="242" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="260"/>
+      <c r="B8" s="232" t="s">
         <v>77</v>
       </c>
       <c r="C8">
@@ -66124,16 +66409,16 @@
       <c r="D8">
         <v>16</v>
       </c>
-      <c r="E8" s="248">
+      <c r="E8" s="238">
         <v>44661</v>
       </c>
-      <c r="F8" s="248">
+      <c r="F8" s="238">
         <v>44661</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="241"/>
-      <c r="B9" s="242" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="260"/>
+      <c r="B9" s="232" t="s">
         <v>85</v>
       </c>
       <c r="C9">
@@ -66142,61 +66427,539 @@
       <c r="D9">
         <v>42</v>
       </c>
-      <c r="E9" s="248">
+      <c r="E9" s="238">
         <v>44661</v>
       </c>
-      <c r="F9" s="248">
+      <c r="F9" s="238">
         <v>44661</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="241"/>
-      <c r="B10" s="242" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="260"/>
+      <c r="B10" s="232" t="s">
         <v>93</v>
       </c>
       <c r="C10">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="241"/>
-      <c r="B11" s="242" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="260"/>
+      <c r="B11" s="232" t="s">
         <v>104</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="241"/>
-      <c r="B12" s="242" t="s">
-        <v>359</v>
+    <row r="12" spans="1:10">
+      <c r="A12" s="260"/>
+      <c r="B12" s="232" t="s">
+        <v>349</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="241"/>
-      <c r="B13" s="247" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="260"/>
+      <c r="B13" s="237" t="s">
         <v>115</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="C14">
         <f>SUM(C2:C13)</f>
         <v>101</v>
       </c>
     </row>
+    <row r="16" spans="1:10" ht="16.5">
+      <c r="A16" s="268" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="263" t="s">
+        <v>550</v>
+      </c>
+      <c r="C16" s="263" t="s">
+        <v>551</v>
+      </c>
+      <c r="D16" s="263" t="s">
+        <v>552</v>
+      </c>
+      <c r="E16" s="264" t="s">
+        <v>558</v>
+      </c>
+      <c r="G16" s="267" t="s">
+        <v>560</v>
+      </c>
+      <c r="H16" s="267" t="s">
+        <v>559</v>
+      </c>
+      <c r="I16" s="267" t="s">
+        <v>562</v>
+      </c>
+      <c r="J16" s="267" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="33">
+      <c r="A17" s="265" t="s">
+        <v>553</v>
+      </c>
+      <c r="B17" s="263">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C17" s="263">
+        <v>0.05</v>
+      </c>
+      <c r="D17" s="263">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="266">
+        <f>ROUND(((B17+4*C17+D17)/6),2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="F17" s="268">
+        <f>(G17*H17)/60</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G17" s="267">
+        <v>1.5</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="33">
+      <c r="A18" s="265" t="s">
+        <v>554</v>
+      </c>
+      <c r="B18" s="263">
+        <v>0.05</v>
+      </c>
+      <c r="C18" s="263">
+        <v>0.03</v>
+      </c>
+      <c r="D18" s="263">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E18" s="266">
+        <f t="shared" ref="E18:E21" si="0">ROUND(((B18+4*C18+D18)/6),2)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="49.5">
+      <c r="A19" s="265" t="s">
+        <v>555</v>
+      </c>
+      <c r="B19" s="263">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C19" s="263">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="D19" s="263">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E19" s="266">
+        <f>ROUND(((B19+4*C19+D19)/6),2)</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="33">
+      <c r="A20" s="265" t="s">
+        <v>556</v>
+      </c>
+      <c r="B20" s="263">
+        <v>0.17</v>
+      </c>
+      <c r="C20" s="263">
+        <v>0.13</v>
+      </c>
+      <c r="D20" s="263">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="266">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="49.5">
+      <c r="A21" s="265" t="s">
+        <v>557</v>
+      </c>
+      <c r="B21" s="263">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C21" s="263">
+        <v>0.13</v>
+      </c>
+      <c r="D21" s="263">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="266">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5">
+      <c r="A22" s="262"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.5" thickBot="1"/>
+    <row r="31" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A31" s="272" t="s">
+        <v>525</v>
+      </c>
+      <c r="B31" s="275" t="s">
+        <v>563</v>
+      </c>
+      <c r="C31" s="274"/>
+      <c r="D31" s="274"/>
+      <c r="E31" s="274"/>
+      <c r="F31" s="274"/>
+      <c r="G31" s="276"/>
+    </row>
+    <row r="32" spans="1:10" ht="66.75" thickBot="1">
+      <c r="A32" s="273"/>
+      <c r="B32" s="261" t="s">
+        <v>564</v>
+      </c>
+      <c r="C32" s="261" t="s">
+        <v>565</v>
+      </c>
+      <c r="D32" s="269" t="s">
+        <v>566</v>
+      </c>
+      <c r="E32" s="261" t="s">
+        <v>555</v>
+      </c>
+      <c r="F32" s="261" t="s">
+        <v>556</v>
+      </c>
+      <c r="G32" s="261" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A33" s="270" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="261" t="s">
+        <v>567</v>
+      </c>
+      <c r="C33" s="261">
+        <v>0.21</v>
+      </c>
+      <c r="D33" s="261">
+        <v>0.13</v>
+      </c>
+      <c r="E33" s="261">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="F33" s="261">
+        <v>0.25</v>
+      </c>
+      <c r="G33" s="261">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A34" s="270" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="261" t="s">
+        <v>568</v>
+      </c>
+      <c r="C34" s="261">
+        <v>1.53</v>
+      </c>
+      <c r="D34" s="261">
+        <v>1.72</v>
+      </c>
+      <c r="E34" s="261">
+        <v>1.41</v>
+      </c>
+      <c r="F34" s="261">
+        <v>3.66</v>
+      </c>
+      <c r="G34" s="261">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A35" s="270" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="261" t="s">
+        <v>568</v>
+      </c>
+      <c r="C35" s="261">
+        <v>0.7</v>
+      </c>
+      <c r="D35" s="261">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E35" s="261">
+        <v>0.23</v>
+      </c>
+      <c r="F35" s="261">
+        <v>1.29</v>
+      </c>
+      <c r="G35" s="261">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A36" s="270" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="261" t="s">
+        <v>567</v>
+      </c>
+      <c r="C36" s="261">
+        <v>0.21</v>
+      </c>
+      <c r="D36" s="261">
+        <v>0.18</v>
+      </c>
+      <c r="E36" s="261">
+        <v>0.05</v>
+      </c>
+      <c r="F36" s="261">
+        <v>0.11</v>
+      </c>
+      <c r="G36" s="261">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A37" s="270" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="261" t="s">
+        <v>567</v>
+      </c>
+      <c r="C37" s="261">
+        <v>0.21</v>
+      </c>
+      <c r="D37" s="261">
+        <v>0.18</v>
+      </c>
+      <c r="E37" s="261">
+        <v>0.03</v>
+      </c>
+      <c r="F37" s="261">
+        <v>0.19</v>
+      </c>
+      <c r="G37" s="261">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="33.75" thickBot="1">
+      <c r="A38" s="270" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="261" t="s">
+        <v>568</v>
+      </c>
+      <c r="C38" s="261">
+        <v>0.47</v>
+      </c>
+      <c r="D38" s="261">
+        <v>0.47</v>
+      </c>
+      <c r="E38" s="261">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F38" s="261">
+        <v>0.23</v>
+      </c>
+      <c r="G38" s="261">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="33.75" thickBot="1">
+      <c r="A39" s="270" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="261" t="s">
+        <v>568</v>
+      </c>
+      <c r="C39" s="261">
+        <v>0.31</v>
+      </c>
+      <c r="D39" s="261">
+        <v>0.17</v>
+      </c>
+      <c r="E39" s="261">
+        <v>0.04</v>
+      </c>
+      <c r="F39" s="261">
+        <v>0.63</v>
+      </c>
+      <c r="G39" s="261">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="33.75" thickBot="1">
+      <c r="A40" s="270" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="261" t="s">
+        <v>568</v>
+      </c>
+      <c r="C40" s="261">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D40" s="261">
+        <v>0.53</v>
+      </c>
+      <c r="E40" s="261">
+        <v>0.18</v>
+      </c>
+      <c r="F40" s="261">
+        <v>0.63</v>
+      </c>
+      <c r="G40" s="261">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="33.75" thickBot="1">
+      <c r="A41" s="270" t="s">
+        <v>569</v>
+      </c>
+      <c r="B41" s="261" t="s">
+        <v>568</v>
+      </c>
+      <c r="C41" s="261">
+        <v>2.34</v>
+      </c>
+      <c r="D41" s="261">
+        <v>1.24</v>
+      </c>
+      <c r="E41" s="271">
+        <v>0.37</v>
+      </c>
+      <c r="F41" s="261">
+        <v>6.23</v>
+      </c>
+      <c r="G41" s="261">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="50.25" thickBot="1">
+      <c r="A42" s="270" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="261" t="s">
+        <v>567</v>
+      </c>
+      <c r="C42" s="261">
+        <v>1.2</v>
+      </c>
+      <c r="D42" s="271">
+        <v>0.47</v>
+      </c>
+      <c r="E42" s="271">
+        <v>0.12</v>
+      </c>
+      <c r="F42" s="261">
+        <v>1.67</v>
+      </c>
+      <c r="G42" s="261">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="50.25" thickBot="1">
+      <c r="A43" s="270" t="s">
+        <v>349</v>
+      </c>
+      <c r="B43" s="261" t="s">
+        <v>567</v>
+      </c>
+      <c r="C43" s="261">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="271">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E43" s="271">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F43" s="261">
+        <v>0.75</v>
+      </c>
+      <c r="G43" s="261">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A44" s="270" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="261" t="s">
+        <v>567</v>
+      </c>
+      <c r="C44" s="261">
+        <v>0.06</v>
+      </c>
+      <c r="D44" s="261">
+        <v>0.04</v>
+      </c>
+      <c r="E44" s="261">
+        <v>0.01</v>
+      </c>
+      <c r="F44" s="261">
+        <v>0.16</v>
+      </c>
+      <c r="G44" s="261">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A45" s="275" t="s">
+        <v>526</v>
+      </c>
+      <c r="B45" s="276"/>
+      <c r="C45" s="261">
+        <f>SUM(C33:C44)</f>
+        <v>9.1</v>
+      </c>
+      <c r="D45" s="261">
+        <f>SUM(D33:D44)</f>
+        <v>5.9700000000000006</v>
+      </c>
+      <c r="E45" s="261">
+        <f>SUM(E33:E44)</f>
+        <v>3.6275000000000004</v>
+      </c>
+      <c r="F45" s="261">
+        <f>SUM(F33:F44)</f>
+        <v>15.800000000000002</v>
+      </c>
+      <c r="G45" s="261">
+        <f>SUM(G33:G44)</f>
+        <v>1.42</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:A13"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="A45:B45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/02. Trần Thị Diệu Linh/TCs_Build1.xlsx
+++ b/02. Trần Thị Diệu Linh/TCs_Build1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\18. Thuc tap tot nghiep\ThucTapTN_2021_2022_2\02. Trần Thị Diệu Linh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A768B28D-2FE2-4B2A-AD22-C405F27F8225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F00DAE-96FF-4662-BDFD-406449319028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TR List" sheetId="1" r:id="rId1"/>
     <sheet name="TC List" sheetId="2" r:id="rId2"/>
-    <sheet name="Summary TC list" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Summary TC list" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TC List'!$A$4:$J$117</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="577">
   <si>
     <t>Test Requirement List</t>
   </si>
@@ -3440,6 +3441,27 @@
   <si>
     <t>My Ticket</t>
   </si>
+  <si>
+    <t>Actual (h)</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu:</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc:</t>
+  </si>
+  <si>
+    <t>Tổng số test case</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
@@ -3562,7 +3584,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3659,8 +3681,20 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6D9F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -4110,11 +4144,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4881,13 +5006,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4919,19 +5037,98 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="18" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5504,10 +5701,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="269" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="259"/>
+      <c r="B1" s="270"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
@@ -34017,10 +34214,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA1057"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -34175,7 +34373,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="16.5" customHeight="1">
+    <row r="5" spans="1:27" ht="16.5" hidden="1" customHeight="1">
       <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
@@ -34206,7 +34404,7 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27" ht="30" customHeight="1">
+    <row r="6" spans="1:27" ht="30" hidden="1" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>128</v>
       </c>
@@ -34247,7 +34445,7 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="1:27" ht="39.75" customHeight="1">
+    <row r="7" spans="1:27" ht="39.75" hidden="1" customHeight="1">
       <c r="A7" s="32" t="s">
         <v>130</v>
       </c>
@@ -34329,7 +34527,7 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="1:27" ht="16.5" customHeight="1">
+    <row r="9" spans="1:27" ht="16.5" hidden="1" customHeight="1">
       <c r="A9" s="171" t="s">
         <v>20</v>
       </c>
@@ -34360,7 +34558,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27" ht="62.25" customHeight="1">
+    <row r="10" spans="1:27" ht="62.25" hidden="1" customHeight="1">
       <c r="A10" s="139" t="s">
         <v>135</v>
       </c>
@@ -34401,7 +34599,7 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:27" ht="120" customHeight="1">
+    <row r="11" spans="1:27" ht="120" hidden="1" customHeight="1">
       <c r="A11" s="139" t="s">
         <v>138</v>
       </c>
@@ -34446,7 +34644,7 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:27" ht="75" customHeight="1">
+    <row r="12" spans="1:27" ht="75" hidden="1" customHeight="1">
       <c r="A12" s="139" t="s">
         <v>139</v>
       </c>
@@ -34489,7 +34687,7 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
     </row>
-    <row r="13" spans="1:27" ht="103.5" customHeight="1">
+    <row r="13" spans="1:27" ht="103.5" hidden="1" customHeight="1">
       <c r="A13" s="139" t="s">
         <v>140</v>
       </c>
@@ -34530,7 +34728,7 @@
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
     </row>
-    <row r="14" spans="1:27" ht="75" customHeight="1">
+    <row r="14" spans="1:27" ht="75" hidden="1" customHeight="1">
       <c r="A14" s="139" t="s">
         <v>142</v>
       </c>
@@ -34571,7 +34769,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:27" ht="75" customHeight="1">
+    <row r="15" spans="1:27" ht="75" hidden="1" customHeight="1">
       <c r="A15" s="139" t="s">
         <v>144</v>
       </c>
@@ -34612,7 +34810,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27" ht="141" customHeight="1">
+    <row r="16" spans="1:27" ht="141" hidden="1" customHeight="1">
       <c r="A16" s="139" t="s">
         <v>146</v>
       </c>
@@ -34655,7 +34853,7 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
     </row>
-    <row r="17" spans="1:27" ht="147" customHeight="1">
+    <row r="17" spans="1:27" ht="147" hidden="1" customHeight="1">
       <c r="A17" s="139" t="s">
         <v>148</v>
       </c>
@@ -34696,7 +34894,7 @@
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
     </row>
-    <row r="18" spans="1:27" ht="140.25" customHeight="1">
+    <row r="18" spans="1:27" ht="140.25" hidden="1" customHeight="1">
       <c r="A18" s="139" t="s">
         <v>151</v>
       </c>
@@ -34737,7 +34935,7 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
     </row>
-    <row r="19" spans="1:27" ht="120" customHeight="1">
+    <row r="19" spans="1:27" ht="120" hidden="1" customHeight="1">
       <c r="A19" s="139" t="s">
         <v>152</v>
       </c>
@@ -34778,7 +34976,7 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
     </row>
-    <row r="20" spans="1:27" ht="135" customHeight="1">
+    <row r="20" spans="1:27" ht="135" hidden="1" customHeight="1">
       <c r="A20" s="139" t="s">
         <v>153</v>
       </c>
@@ -34862,7 +35060,7 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
     </row>
-    <row r="22" spans="1:27" s="135" customFormat="1" ht="172.5" customHeight="1">
+    <row r="22" spans="1:27" s="135" customFormat="1" ht="172.5" hidden="1" customHeight="1">
       <c r="A22" s="249" t="s">
         <v>155</v>
       </c>
@@ -34946,7 +35144,7 @@
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
     </row>
-    <row r="24" spans="1:27" ht="135.75" customHeight="1">
+    <row r="24" spans="1:27" ht="135.75" hidden="1" customHeight="1">
       <c r="A24" s="139" t="s">
         <v>158</v>
       </c>
@@ -34987,7 +35185,7 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
     </row>
-    <row r="25" spans="1:27" ht="143.25" customHeight="1">
+    <row r="25" spans="1:27" ht="143.25" hidden="1" customHeight="1">
       <c r="A25" s="139" t="s">
         <v>160</v>
       </c>
@@ -35028,7 +35226,7 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
     </row>
-    <row r="26" spans="1:27" ht="189.75" customHeight="1">
+    <row r="26" spans="1:27" ht="189.75" hidden="1" customHeight="1">
       <c r="A26" s="139" t="s">
         <v>161</v>
       </c>
@@ -35069,7 +35267,7 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
     </row>
-    <row r="27" spans="1:27" ht="157.5" customHeight="1">
+    <row r="27" spans="1:27" ht="157.5" hidden="1" customHeight="1">
       <c r="A27" s="139" t="s">
         <v>162</v>
       </c>
@@ -35110,7 +35308,7 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
     </row>
-    <row r="28" spans="1:27" ht="141" customHeight="1">
+    <row r="28" spans="1:27" ht="141" hidden="1" customHeight="1">
       <c r="A28" s="139" t="s">
         <v>164</v>
       </c>
@@ -35151,7 +35349,7 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
     </row>
-    <row r="29" spans="1:27" ht="141" customHeight="1">
+    <row r="29" spans="1:27" ht="141" hidden="1" customHeight="1">
       <c r="A29" s="139" t="s">
         <v>166</v>
       </c>
@@ -35192,7 +35390,7 @@
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
     </row>
-    <row r="30" spans="1:27" ht="144" customHeight="1">
+    <row r="30" spans="1:27" ht="144" hidden="1" customHeight="1">
       <c r="A30" s="139" t="s">
         <v>169</v>
       </c>
@@ -35233,7 +35431,7 @@
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
     </row>
-    <row r="31" spans="1:27" ht="143.25" customHeight="1">
+    <row r="31" spans="1:27" ht="143.25" hidden="1" customHeight="1">
       <c r="A31" s="139" t="s">
         <v>172</v>
       </c>
@@ -35274,7 +35472,7 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
     </row>
-    <row r="32" spans="1:27" ht="30" customHeight="1">
+    <row r="32" spans="1:27" ht="30" hidden="1" customHeight="1">
       <c r="A32" s="139" t="s">
         <v>173</v>
       </c>
@@ -35313,7 +35511,7 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
     </row>
-    <row r="33" spans="1:27" ht="16.5" customHeight="1">
+    <row r="33" spans="1:27" ht="16.5" hidden="1" customHeight="1">
       <c r="A33" s="171" t="s">
         <v>27</v>
       </c>
@@ -35344,7 +35542,7 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
     </row>
-    <row r="34" spans="1:27" ht="54" customHeight="1">
+    <row r="34" spans="1:27" ht="54" hidden="1" customHeight="1">
       <c r="A34" s="124" t="s">
         <v>174</v>
       </c>
@@ -35385,7 +35583,7 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
     </row>
-    <row r="35" spans="1:27" ht="126" customHeight="1">
+    <row r="35" spans="1:27" ht="126" hidden="1" customHeight="1">
       <c r="A35" s="124" t="s">
         <v>176</v>
       </c>
@@ -35475,7 +35673,7 @@
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
     </row>
-    <row r="37" spans="1:27" ht="121.5" customHeight="1">
+    <row r="37" spans="1:27" ht="121.5" hidden="1" customHeight="1">
       <c r="A37" s="124" t="s">
         <v>178</v>
       </c>
@@ -35516,7 +35714,7 @@
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
     </row>
-    <row r="38" spans="1:27" ht="114.75" customHeight="1">
+    <row r="38" spans="1:27" ht="114.75" hidden="1" customHeight="1">
       <c r="A38" s="124" t="s">
         <v>180</v>
       </c>
@@ -35557,7 +35755,7 @@
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
     </row>
-    <row r="39" spans="1:27" ht="127.5" customHeight="1">
+    <row r="39" spans="1:27" ht="127.5" hidden="1" customHeight="1">
       <c r="A39" s="124" t="s">
         <v>183</v>
       </c>
@@ -35600,7 +35798,7 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
     </row>
-    <row r="40" spans="1:27" ht="79.5" customHeight="1">
+    <row r="40" spans="1:27" ht="79.5" hidden="1" customHeight="1">
       <c r="A40" s="124" t="s">
         <v>186</v>
       </c>
@@ -35643,7 +35841,7 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
     </row>
-    <row r="41" spans="1:27" s="135" customFormat="1" ht="82.5" customHeight="1">
+    <row r="41" spans="1:27" s="135" customFormat="1" ht="82.5" hidden="1" customHeight="1">
       <c r="A41" s="124" t="s">
         <v>189</v>
       </c>
@@ -35686,7 +35884,7 @@
       <c r="Z41" s="134"/>
       <c r="AA41" s="134"/>
     </row>
-    <row r="42" spans="1:27" ht="30" customHeight="1">
+    <row r="42" spans="1:27" ht="30" hidden="1" customHeight="1">
       <c r="A42" s="124" t="s">
         <v>192</v>
       </c>
@@ -35725,7 +35923,7 @@
       <c r="Z42" s="58"/>
       <c r="AA42" s="58"/>
     </row>
-    <row r="43" spans="1:27" ht="16.5" customHeight="1">
+    <row r="43" spans="1:27" ht="16.5" hidden="1" customHeight="1">
       <c r="A43" s="144" t="s">
         <v>43</v>
       </c>
@@ -35756,7 +35954,7 @@
       <c r="Z43" s="62"/>
       <c r="AA43" s="62"/>
     </row>
-    <row r="44" spans="1:27" ht="45" customHeight="1">
+    <row r="44" spans="1:27" ht="45" hidden="1" customHeight="1">
       <c r="A44" s="124" t="s">
         <v>195</v>
       </c>
@@ -35774,7 +35972,7 @@
         <v>137</v>
       </c>
       <c r="G44" s="165" t="s">
-        <v>497</v>
+        <v>134</v>
       </c>
       <c r="H44" s="165"/>
       <c r="I44" s="162"/>
@@ -35797,7 +35995,7 @@
       <c r="Z44" s="58"/>
       <c r="AA44" s="58"/>
     </row>
-    <row r="45" spans="1:27" s="248" customFormat="1" ht="45" customHeight="1">
+    <row r="45" spans="1:27" s="248" customFormat="1" ht="45" hidden="1" customHeight="1">
       <c r="A45" s="239" t="s">
         <v>199</v>
       </c>
@@ -35815,7 +36013,7 @@
         <v>137</v>
       </c>
       <c r="G45" s="244" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="H45" s="244"/>
       <c r="I45" s="244"/>
@@ -35838,7 +36036,7 @@
       <c r="Z45" s="247"/>
       <c r="AA45" s="247"/>
     </row>
-    <row r="46" spans="1:27" ht="30" customHeight="1">
+    <row r="46" spans="1:27" ht="30" hidden="1" customHeight="1">
       <c r="A46" s="124" t="s">
         <v>287</v>
       </c>
@@ -35854,7 +36052,7 @@
         <v>137</v>
       </c>
       <c r="G46" s="70" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="H46" s="70"/>
       <c r="I46" s="70"/>
@@ -35877,7 +36075,7 @@
       <c r="Z46" s="58"/>
       <c r="AA46" s="58"/>
     </row>
-    <row r="47" spans="1:27" ht="16.5" customHeight="1">
+    <row r="47" spans="1:27" ht="16.5" hidden="1" customHeight="1">
       <c r="A47" s="168" t="s">
         <v>185</v>
       </c>
@@ -35908,7 +36106,7 @@
       <c r="Z47" s="58"/>
       <c r="AA47" s="58"/>
     </row>
-    <row r="48" spans="1:27" ht="45" customHeight="1">
+    <row r="48" spans="1:27" ht="45" hidden="1" customHeight="1">
       <c r="A48" s="124" t="s">
         <v>201</v>
       </c>
@@ -35949,7 +36147,7 @@
       <c r="Z48" s="58"/>
       <c r="AA48" s="58"/>
     </row>
-    <row r="49" spans="1:27" s="135" customFormat="1" ht="45" customHeight="1">
+    <row r="49" spans="1:27" s="135" customFormat="1" ht="45" hidden="1" customHeight="1">
       <c r="A49" s="253" t="s">
         <v>203</v>
       </c>
@@ -35990,7 +36188,7 @@
       <c r="Z49" s="58"/>
       <c r="AA49" s="58"/>
     </row>
-    <row r="50" spans="1:27" ht="30" customHeight="1">
+    <row r="50" spans="1:27" ht="30" hidden="1" customHeight="1">
       <c r="A50" s="124" t="s">
         <v>205</v>
       </c>
@@ -36031,7 +36229,7 @@
       <c r="Z50" s="58"/>
       <c r="AA50" s="58"/>
     </row>
-    <row r="51" spans="1:27" ht="16.5" customHeight="1">
+    <row r="51" spans="1:27" ht="16.5" hidden="1" customHeight="1">
       <c r="A51" s="144" t="s">
         <v>66</v>
       </c>
@@ -36062,7 +36260,7 @@
       <c r="Z51" s="58"/>
       <c r="AA51" s="58"/>
     </row>
-    <row r="52" spans="1:27" ht="45" customHeight="1">
+    <row r="52" spans="1:27" ht="45" hidden="1" customHeight="1">
       <c r="A52" s="141" t="s">
         <v>207</v>
       </c>
@@ -36103,7 +36301,7 @@
       <c r="Z52" s="58"/>
       <c r="AA52" s="58"/>
     </row>
-    <row r="53" spans="1:27" ht="57" customHeight="1">
+    <row r="53" spans="1:27" ht="57" hidden="1" customHeight="1">
       <c r="A53" s="141" t="s">
         <v>210</v>
       </c>
@@ -36144,7 +36342,7 @@
       <c r="Z53" s="58"/>
       <c r="AA53" s="58"/>
     </row>
-    <row r="54" spans="1:27" ht="42" customHeight="1">
+    <row r="54" spans="1:27" ht="42" hidden="1" customHeight="1">
       <c r="A54" s="141" t="s">
         <v>212</v>
       </c>
@@ -36226,7 +36424,7 @@
       <c r="Z55" s="58"/>
       <c r="AA55" s="58"/>
     </row>
-    <row r="56" spans="1:27" ht="66" customHeight="1">
+    <row r="56" spans="1:27" ht="66" hidden="1" customHeight="1">
       <c r="A56" s="141" t="s">
         <v>214</v>
       </c>
@@ -36267,7 +36465,7 @@
       <c r="Z56" s="58"/>
       <c r="AA56" s="58"/>
     </row>
-    <row r="57" spans="1:27" ht="66" customHeight="1">
+    <row r="57" spans="1:27" ht="66" hidden="1" customHeight="1">
       <c r="A57" s="141" t="s">
         <v>215</v>
       </c>
@@ -36291,7 +36489,7 @@
       <c r="I57" s="121"/>
       <c r="J57" s="122"/>
     </row>
-    <row r="58" spans="1:27" ht="65.25" customHeight="1">
+    <row r="58" spans="1:27" ht="65.25" hidden="1" customHeight="1">
       <c r="A58" s="141" t="s">
         <v>217</v>
       </c>
@@ -36317,7 +36515,7 @@
       <c r="I58" s="11"/>
       <c r="J58" s="50"/>
     </row>
-    <row r="59" spans="1:27" ht="16.5" customHeight="1">
+    <row r="59" spans="1:27" ht="16.5" hidden="1" customHeight="1">
       <c r="A59" s="182" t="s">
         <v>77</v>
       </c>
@@ -36348,7 +36546,7 @@
       <c r="Z59" s="58"/>
       <c r="AA59" s="58"/>
     </row>
-    <row r="60" spans="1:27" ht="45" customHeight="1">
+    <row r="60" spans="1:27" ht="45" hidden="1" customHeight="1">
       <c r="A60" s="117" t="s">
         <v>219</v>
       </c>
@@ -36389,7 +36587,7 @@
       <c r="Z60" s="58"/>
       <c r="AA60" s="58"/>
     </row>
-    <row r="61" spans="1:27" s="135" customFormat="1" ht="60" customHeight="1">
+    <row r="61" spans="1:27" s="135" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A61" s="117" t="s">
         <v>222</v>
       </c>
@@ -36432,7 +36630,7 @@
       <c r="Z61" s="134"/>
       <c r="AA61" s="134"/>
     </row>
-    <row r="62" spans="1:27" s="135" customFormat="1" ht="60" customHeight="1">
+    <row r="62" spans="1:27" s="135" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A62" s="117" t="s">
         <v>223</v>
       </c>
@@ -36475,7 +36673,7 @@
       <c r="Z62" s="134"/>
       <c r="AA62" s="134"/>
     </row>
-    <row r="63" spans="1:27" s="135" customFormat="1" ht="60" customHeight="1">
+    <row r="63" spans="1:27" s="135" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A63" s="117" t="s">
         <v>224</v>
       </c>
@@ -36514,7 +36712,7 @@
       <c r="Z63" s="134"/>
       <c r="AA63" s="134"/>
     </row>
-    <row r="64" spans="1:27" ht="16.5" customHeight="1">
+    <row r="64" spans="1:27" ht="16.5" hidden="1" customHeight="1">
       <c r="A64" s="144" t="s">
         <v>85</v>
       </c>
@@ -36545,7 +36743,7 @@
       <c r="Z64" s="58"/>
       <c r="AA64" s="58"/>
     </row>
-    <row r="65" spans="1:27" ht="46.5" customHeight="1">
+    <row r="65" spans="1:27" ht="46.5" hidden="1" customHeight="1">
       <c r="A65" s="126" t="s">
         <v>225</v>
       </c>
@@ -36588,7 +36786,7 @@
       <c r="Z65" s="58"/>
       <c r="AA65" s="58"/>
     </row>
-    <row r="66" spans="1:27" ht="42.75" customHeight="1">
+    <row r="66" spans="1:27" ht="42.75" hidden="1" customHeight="1">
       <c r="A66" s="126" t="s">
         <v>226</v>
       </c>
@@ -36649,7 +36847,7 @@
         <v>134</v>
       </c>
       <c r="G67" s="165" t="s">
-        <v>530</v>
+        <v>137</v>
       </c>
       <c r="H67" s="165"/>
       <c r="I67" s="162"/>
@@ -36674,7 +36872,7 @@
       <c r="Z67" s="58"/>
       <c r="AA67" s="58"/>
     </row>
-    <row r="68" spans="1:27" ht="73.5" customHeight="1">
+    <row r="68" spans="1:27" ht="73.5" hidden="1" customHeight="1">
       <c r="A68" s="126" t="s">
         <v>228</v>
       </c>
@@ -36717,7 +36915,7 @@
       <c r="Z68" s="3"/>
       <c r="AA68" s="3"/>
     </row>
-    <row r="69" spans="1:27" ht="135" customHeight="1">
+    <row r="69" spans="1:27" ht="135" hidden="1" customHeight="1">
       <c r="A69" s="126" t="s">
         <v>229</v>
       </c>
@@ -36762,7 +36960,7 @@
       <c r="Z69" s="3"/>
       <c r="AA69" s="3"/>
     </row>
-    <row r="70" spans="1:27" ht="135" customHeight="1">
+    <row r="70" spans="1:27" ht="135" hidden="1" customHeight="1">
       <c r="A70" s="126" t="s">
         <v>230</v>
       </c>
@@ -36805,7 +37003,7 @@
       <c r="Z70" s="3"/>
       <c r="AA70" s="3"/>
     </row>
-    <row r="71" spans="1:27" ht="30" customHeight="1">
+    <row r="71" spans="1:27" ht="30" hidden="1" customHeight="1">
       <c r="A71" s="126" t="s">
         <v>231</v>
       </c>
@@ -36844,7 +37042,7 @@
       <c r="Z71" s="58"/>
       <c r="AA71" s="58"/>
     </row>
-    <row r="72" spans="1:27" ht="16.5" customHeight="1">
+    <row r="72" spans="1:27" ht="16.5" hidden="1" customHeight="1">
       <c r="A72" s="154" t="s">
         <v>93</v>
       </c>
@@ -36875,7 +37073,7 @@
       <c r="Z72" s="58"/>
       <c r="AA72" s="58"/>
     </row>
-    <row r="73" spans="1:27" ht="74.25" customHeight="1">
+    <row r="73" spans="1:27" ht="74.25" hidden="1" customHeight="1">
       <c r="A73" s="139" t="s">
         <v>233</v>
       </c>
@@ -37004,7 +37202,7 @@
       <c r="Z75" s="58"/>
       <c r="AA75" s="58"/>
     </row>
-    <row r="76" spans="1:27" ht="77.25" customHeight="1">
+    <row r="76" spans="1:27" ht="77.25" hidden="1" customHeight="1">
       <c r="A76" s="139" t="s">
         <v>236</v>
       </c>
@@ -37047,7 +37245,7 @@
       <c r="Z76" s="58"/>
       <c r="AA76" s="58"/>
     </row>
-    <row r="77" spans="1:27" ht="77.25" customHeight="1">
+    <row r="77" spans="1:27" ht="77.25" hidden="1" customHeight="1">
       <c r="A77" s="139" t="s">
         <v>237</v>
       </c>
@@ -37090,7 +37288,7 @@
       <c r="Z77" s="58"/>
       <c r="AA77" s="58"/>
     </row>
-    <row r="78" spans="1:27" ht="120" customHeight="1">
+    <row r="78" spans="1:27" ht="120" hidden="1" customHeight="1">
       <c r="A78" s="139" t="s">
         <v>238</v>
       </c>
@@ -37153,7 +37351,7 @@
         <v>134</v>
       </c>
       <c r="G79" s="203" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H79" s="203"/>
       <c r="I79" s="204"/>
@@ -37176,7 +37374,7 @@
       <c r="Z79" s="58"/>
       <c r="AA79" s="58"/>
     </row>
-    <row r="80" spans="1:27" s="135" customFormat="1" ht="129" customHeight="1">
+    <row r="80" spans="1:27" s="135" customFormat="1" ht="129" hidden="1" customHeight="1">
       <c r="A80" s="139" t="s">
         <v>241</v>
       </c>
@@ -37219,7 +37417,7 @@
       <c r="Z80" s="58"/>
       <c r="AA80" s="58"/>
     </row>
-    <row r="81" spans="1:27" ht="164.25" customHeight="1">
+    <row r="81" spans="1:27" ht="164.25" hidden="1" customHeight="1">
       <c r="A81" s="139" t="s">
         <v>242</v>
       </c>
@@ -37262,7 +37460,7 @@
       <c r="Z81" s="58"/>
       <c r="AA81" s="58"/>
     </row>
-    <row r="82" spans="1:27" ht="154.5" customHeight="1">
+    <row r="82" spans="1:27" ht="154.5" hidden="1" customHeight="1">
       <c r="A82" s="139" t="s">
         <v>243</v>
       </c>
@@ -37305,7 +37503,7 @@
       <c r="Z82" s="58"/>
       <c r="AA82" s="58"/>
     </row>
-    <row r="83" spans="1:27" ht="170.25" customHeight="1">
+    <row r="83" spans="1:27" ht="170.25" hidden="1" customHeight="1">
       <c r="A83" s="139" t="s">
         <v>245</v>
       </c>
@@ -37365,10 +37563,10 @@
         <v>419</v>
       </c>
       <c r="F84" s="203" t="s">
-        <v>134</v>
+        <v>497</v>
       </c>
       <c r="G84" s="203" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H84" s="203"/>
       <c r="I84" s="204"/>
@@ -37391,7 +37589,7 @@
       <c r="Z84" s="58"/>
       <c r="AA84" s="58"/>
     </row>
-    <row r="85" spans="1:27" s="135" customFormat="1" ht="234.75" customHeight="1">
+    <row r="85" spans="1:27" s="135" customFormat="1" ht="234.75" hidden="1" customHeight="1">
       <c r="A85" s="139" t="s">
         <v>248</v>
       </c>
@@ -37434,7 +37632,7 @@
       <c r="Z85" s="58"/>
       <c r="AA85" s="58"/>
     </row>
-    <row r="86" spans="1:27" ht="119.25" customHeight="1">
+    <row r="86" spans="1:27" ht="119.25" hidden="1" customHeight="1">
       <c r="A86" s="139" t="s">
         <v>249</v>
       </c>
@@ -37477,7 +37675,7 @@
       <c r="Z86" s="58"/>
       <c r="AA86" s="58"/>
     </row>
-    <row r="87" spans="1:27" ht="105" customHeight="1">
+    <row r="87" spans="1:27" ht="105" hidden="1" customHeight="1">
       <c r="A87" s="139" t="s">
         <v>251</v>
       </c>
@@ -37536,11 +37734,11 @@
       <c r="E88" s="208" t="s">
         <v>447</v>
       </c>
-      <c r="F88" s="210" t="s">
-        <v>134</v>
+      <c r="F88" s="203" t="s">
+        <v>497</v>
       </c>
       <c r="G88" s="210" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H88" s="210"/>
       <c r="I88" s="204"/>
@@ -37563,7 +37761,7 @@
       <c r="Z88" s="58"/>
       <c r="AA88" s="58"/>
     </row>
-    <row r="89" spans="1:27" s="135" customFormat="1" ht="188.25" customHeight="1">
+    <row r="89" spans="1:27" s="135" customFormat="1" ht="188.25" hidden="1" customHeight="1">
       <c r="A89" s="139" t="s">
         <v>254</v>
       </c>
@@ -37623,10 +37821,10 @@
         <v>448</v>
       </c>
       <c r="F90" s="203" t="s">
-        <v>134</v>
-      </c>
-      <c r="G90" s="203" t="s">
-        <v>134</v>
+        <v>497</v>
+      </c>
+      <c r="G90" s="210" t="s">
+        <v>137</v>
       </c>
       <c r="H90" s="203"/>
       <c r="I90" s="204"/>
@@ -37651,7 +37849,7 @@
       <c r="Z90" s="58"/>
       <c r="AA90" s="58"/>
     </row>
-    <row r="91" spans="1:27" ht="183" customHeight="1">
+    <row r="91" spans="1:27" ht="183" hidden="1" customHeight="1">
       <c r="A91" s="139" t="s">
         <v>256</v>
       </c>
@@ -37694,7 +37892,7 @@
       <c r="Z91" s="58"/>
       <c r="AA91" s="58"/>
     </row>
-    <row r="92" spans="1:27" s="135" customFormat="1" ht="233.25" customHeight="1">
+    <row r="92" spans="1:27" s="135" customFormat="1" ht="233.25" hidden="1" customHeight="1">
       <c r="A92" s="139" t="s">
         <v>499</v>
       </c>
@@ -37754,10 +37952,10 @@
         <v>424</v>
       </c>
       <c r="F93" s="203" t="s">
-        <v>134</v>
-      </c>
-      <c r="G93" s="203" t="s">
-        <v>134</v>
+        <v>497</v>
+      </c>
+      <c r="G93" s="210" t="s">
+        <v>137</v>
       </c>
       <c r="H93" s="203"/>
       <c r="I93" s="204"/>
@@ -37799,10 +37997,10 @@
         <v>461</v>
       </c>
       <c r="F94" s="203" t="s">
-        <v>134</v>
-      </c>
-      <c r="G94" s="203" t="s">
-        <v>134</v>
+        <v>497</v>
+      </c>
+      <c r="G94" s="210" t="s">
+        <v>137</v>
       </c>
       <c r="H94" s="203"/>
       <c r="I94" s="204"/>
@@ -37827,7 +38025,7 @@
       <c r="Z94" s="58"/>
       <c r="AA94" s="58"/>
     </row>
-    <row r="95" spans="1:27" s="135" customFormat="1" ht="202.5" customHeight="1">
+    <row r="95" spans="1:27" s="135" customFormat="1" ht="202.5" hidden="1" customHeight="1">
       <c r="A95" s="139" t="s">
         <v>502</v>
       </c>
@@ -37870,7 +38068,7 @@
       <c r="Z95" s="58"/>
       <c r="AA95" s="58"/>
     </row>
-    <row r="96" spans="1:27" s="135" customFormat="1" ht="203.25" customHeight="1">
+    <row r="96" spans="1:27" s="135" customFormat="1" ht="203.25" hidden="1" customHeight="1">
       <c r="A96" s="139" t="s">
         <v>503</v>
       </c>
@@ -37930,10 +38128,10 @@
         <v>424</v>
       </c>
       <c r="F97" s="203" t="s">
-        <v>134</v>
-      </c>
-      <c r="G97" s="203" t="s">
-        <v>134</v>
+        <v>497</v>
+      </c>
+      <c r="G97" s="210" t="s">
+        <v>137</v>
       </c>
       <c r="H97" s="203"/>
       <c r="I97" s="204"/>
@@ -37972,11 +38170,11 @@
       <c r="E98" s="201" t="s">
         <v>424</v>
       </c>
-      <c r="F98" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="G98" s="84" t="s">
-        <v>134</v>
+      <c r="F98" s="203" t="s">
+        <v>497</v>
+      </c>
+      <c r="G98" s="210" t="s">
+        <v>137</v>
       </c>
       <c r="H98" s="67"/>
       <c r="I98" s="79"/>
@@ -37999,7 +38197,7 @@
       <c r="Z98" s="58"/>
       <c r="AA98" s="58"/>
     </row>
-    <row r="99" spans="1:27" ht="252.75" customHeight="1">
+    <row r="99" spans="1:27" ht="252.75" hidden="1" customHeight="1">
       <c r="A99" s="139" t="s">
         <v>506</v>
       </c>
@@ -38042,7 +38240,7 @@
       <c r="Z99" s="58"/>
       <c r="AA99" s="58"/>
     </row>
-    <row r="100" spans="1:27" ht="83.25" customHeight="1">
+    <row r="100" spans="1:27" ht="83.25" hidden="1" customHeight="1">
       <c r="A100" s="139" t="s">
         <v>507</v>
       </c>
@@ -38083,7 +38281,7 @@
       <c r="Z100" s="58"/>
       <c r="AA100" s="58"/>
     </row>
-    <row r="101" spans="1:27" ht="16.5" customHeight="1">
+    <row r="101" spans="1:27" ht="16.5" hidden="1" customHeight="1">
       <c r="A101" s="93" t="s">
         <v>104</v>
       </c>
@@ -38114,7 +38312,7 @@
       <c r="Z101" s="58"/>
       <c r="AA101" s="58"/>
     </row>
-    <row r="102" spans="1:27" ht="65.25" customHeight="1">
+    <row r="102" spans="1:27" ht="65.25" hidden="1" customHeight="1">
       <c r="A102" s="139" t="s">
         <v>508</v>
       </c>
@@ -38157,7 +38355,7 @@
       <c r="Z102" s="58"/>
       <c r="AA102" s="58"/>
     </row>
-    <row r="103" spans="1:27" ht="80.25" customHeight="1">
+    <row r="103" spans="1:27" ht="80.25" hidden="1" customHeight="1">
       <c r="A103" s="139" t="s">
         <v>509</v>
       </c>
@@ -38200,7 +38398,7 @@
       <c r="Z103" s="58"/>
       <c r="AA103" s="58"/>
     </row>
-    <row r="104" spans="1:27" ht="105" customHeight="1">
+    <row r="104" spans="1:27" ht="105" hidden="1" customHeight="1">
       <c r="A104" s="139" t="s">
         <v>510</v>
       </c>
@@ -38243,7 +38441,7 @@
       <c r="Z104" s="75"/>
       <c r="AA104" s="75"/>
     </row>
-    <row r="105" spans="1:27" ht="117" customHeight="1">
+    <row r="105" spans="1:27" ht="117" hidden="1" customHeight="1">
       <c r="A105" s="139" t="s">
         <v>511</v>
       </c>
@@ -38286,7 +38484,7 @@
       <c r="Z105" s="61"/>
       <c r="AA105" s="61"/>
     </row>
-    <row r="106" spans="1:27" ht="105.75" customHeight="1">
+    <row r="106" spans="1:27" ht="105.75" hidden="1" customHeight="1">
       <c r="A106" s="139" t="s">
         <v>512</v>
       </c>
@@ -38329,7 +38527,7 @@
       <c r="Z106" s="61"/>
       <c r="AA106" s="61"/>
     </row>
-    <row r="107" spans="1:27" ht="113.25" customHeight="1">
+    <row r="107" spans="1:27" ht="113.25" hidden="1" customHeight="1">
       <c r="A107" s="139" t="s">
         <v>513</v>
       </c>
@@ -38372,7 +38570,7 @@
       <c r="Z107" s="88"/>
       <c r="AA107" s="88"/>
     </row>
-    <row r="108" spans="1:27" ht="102" customHeight="1">
+    <row r="108" spans="1:27" ht="102" hidden="1" customHeight="1">
       <c r="A108" s="139" t="s">
         <v>514</v>
       </c>
@@ -38415,7 +38613,7 @@
       <c r="Z108" s="88"/>
       <c r="AA108" s="88"/>
     </row>
-    <row r="109" spans="1:27" ht="45" customHeight="1">
+    <row r="109" spans="1:27" ht="45" hidden="1" customHeight="1">
       <c r="A109" s="139" t="s">
         <v>515</v>
       </c>
@@ -38456,7 +38654,7 @@
       <c r="Z109" s="61"/>
       <c r="AA109" s="61"/>
     </row>
-    <row r="110" spans="1:27" ht="20.25" customHeight="1">
+    <row r="110" spans="1:27" ht="20.25" hidden="1" customHeight="1">
       <c r="A110" s="191" t="s">
         <v>349</v>
       </c>
@@ -38487,7 +38685,7 @@
       <c r="Z110" s="88"/>
       <c r="AA110" s="88"/>
     </row>
-    <row r="111" spans="1:27" ht="80.25" customHeight="1">
+    <row r="111" spans="1:27" ht="80.25" hidden="1" customHeight="1">
       <c r="A111" s="139" t="s">
         <v>516</v>
       </c>
@@ -38573,7 +38771,7 @@
       <c r="Z112" s="61"/>
       <c r="AA112" s="61"/>
     </row>
-    <row r="113" spans="1:27" ht="80.25" customHeight="1">
+    <row r="113" spans="1:27" ht="80.25" hidden="1" customHeight="1">
       <c r="A113" s="139" t="s">
         <v>518</v>
       </c>
@@ -38614,7 +38812,7 @@
       <c r="Z113" s="88"/>
       <c r="AA113" s="88"/>
     </row>
-    <row r="114" spans="1:27" ht="80.25" customHeight="1">
+    <row r="114" spans="1:27" ht="80.25" hidden="1" customHeight="1">
       <c r="A114" s="139" t="s">
         <v>519</v>
       </c>
@@ -38655,7 +38853,7 @@
       <c r="Z114" s="88"/>
       <c r="AA114" s="88"/>
     </row>
-    <row r="115" spans="1:27" ht="80.25" customHeight="1">
+    <row r="115" spans="1:27" ht="80.25" hidden="1" customHeight="1">
       <c r="A115" s="139" t="s">
         <v>520</v>
       </c>
@@ -38696,7 +38894,7 @@
       <c r="Z115" s="88"/>
       <c r="AA115" s="88"/>
     </row>
-    <row r="116" spans="1:27" ht="16.5" customHeight="1">
+    <row r="116" spans="1:27" ht="16.5" hidden="1" customHeight="1">
       <c r="A116" s="93" t="s">
         <v>115</v>
       </c>
@@ -38727,7 +38925,7 @@
       <c r="Z116" s="61"/>
       <c r="AA116" s="61"/>
     </row>
-    <row r="117" spans="1:27" ht="63.75" customHeight="1">
+    <row r="117" spans="1:27" ht="63.75" hidden="1" customHeight="1">
       <c r="A117" s="91" t="s">
         <v>521</v>
       </c>
@@ -66031,18 +66229,25 @@
       <c r="AA1057" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:J117" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Failed"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="F119:F1057 F111:F117 F74:F78 F80:F109 F8:G72">
+  <conditionalFormatting sqref="F119:F1057 F111:F117 F74:F78 F8:G72 F80:F109">
     <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F119:F1057 F111:F117 F74:F78 F80:F109 F8:G72">
+  <conditionalFormatting sqref="F119:F1057 F111:F117 F74:F78 F8:G72 F80:F109">
     <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F119:F1057 F111:F117 F74:F78 F80:F109 F8:G72">
+  <conditionalFormatting sqref="F119:F1057 F111:F117 F74:F78 F8:G72 F80:F109">
     <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
@@ -66253,10 +66458,1115 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E7A849-9089-4B3D-BF51-444C57119794}">
+  <dimension ref="A1:I56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:F56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5">
+      <c r="A1" s="277" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1" s="284" t="s">
+        <v>570</v>
+      </c>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="283"/>
+    </row>
+    <row r="2" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A2" s="278"/>
+      <c r="B2" s="277" t="s">
+        <v>564</v>
+      </c>
+      <c r="C2" s="260" t="s">
+        <v>565</v>
+      </c>
+      <c r="D2" s="260" t="s">
+        <v>566</v>
+      </c>
+      <c r="E2" s="260" t="s">
+        <v>555</v>
+      </c>
+      <c r="F2" s="260" t="s">
+        <v>556</v>
+      </c>
+      <c r="G2" s="260" t="s">
+        <v>557</v>
+      </c>
+      <c r="H2" s="283"/>
+    </row>
+    <row r="3" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A3" s="278"/>
+      <c r="B3" s="278"/>
+      <c r="C3" s="281">
+        <v>44632</v>
+      </c>
+      <c r="D3" s="281">
+        <v>44639</v>
+      </c>
+      <c r="E3" s="281">
+        <v>44646</v>
+      </c>
+      <c r="F3" s="281">
+        <v>44647</v>
+      </c>
+      <c r="G3" s="282">
+        <v>44682</v>
+      </c>
+      <c r="H3" s="283" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="54.75" customHeight="1">
+      <c r="A4" s="279"/>
+      <c r="B4" s="279"/>
+      <c r="C4" s="282">
+        <v>44633</v>
+      </c>
+      <c r="D4" s="282">
+        <v>44639</v>
+      </c>
+      <c r="E4" s="282">
+        <v>44646</v>
+      </c>
+      <c r="F4" s="282">
+        <v>44682</v>
+      </c>
+      <c r="G4" s="282">
+        <v>44682</v>
+      </c>
+      <c r="H4" s="283" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A5" s="287" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="258" t="s">
+        <v>567</v>
+      </c>
+      <c r="C5" s="258">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="258">
+        <v>0.13</v>
+      </c>
+      <c r="E5" s="258">
+        <v>0.06</v>
+      </c>
+      <c r="F5" s="258">
+        <v>1</v>
+      </c>
+      <c r="G5" s="258">
+        <v>0.02</v>
+      </c>
+      <c r="H5" s="283"/>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A6" s="287" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="258" t="s">
+        <v>568</v>
+      </c>
+      <c r="C6" s="258">
+        <v>2</v>
+      </c>
+      <c r="D6" s="258">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="258">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="258">
+        <v>3.66</v>
+      </c>
+      <c r="G6" s="258">
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="283"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A7" s="287" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="258" t="s">
+        <v>568</v>
+      </c>
+      <c r="C7" s="258">
+        <v>1</v>
+      </c>
+      <c r="D7" s="258">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="258">
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="258">
+        <v>1.29</v>
+      </c>
+      <c r="G7" s="258">
+        <v>0.02</v>
+      </c>
+      <c r="H7" s="283"/>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A8" s="287" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="258" t="s">
+        <v>567</v>
+      </c>
+      <c r="C8" s="258">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="258">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="258">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="258">
+        <v>1</v>
+      </c>
+      <c r="G8" s="258">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H8" s="283"/>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A9" s="287" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="258" t="s">
+        <v>567</v>
+      </c>
+      <c r="C9" s="258">
+        <v>0.21</v>
+      </c>
+      <c r="D9" s="258">
+        <v>0.18</v>
+      </c>
+      <c r="E9" s="258">
+        <v>0.03</v>
+      </c>
+      <c r="F9" s="258">
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="258">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="283"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A10" s="287" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="258" t="s">
+        <v>568</v>
+      </c>
+      <c r="C10" s="258">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="258">
+        <v>0.47</v>
+      </c>
+      <c r="E10" s="258">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F10" s="258">
+        <v>3</v>
+      </c>
+      <c r="G10" s="258">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H10" s="283"/>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A11" s="287" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="258" t="s">
+        <v>568</v>
+      </c>
+      <c r="C11" s="258">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="258">
+        <v>0.17</v>
+      </c>
+      <c r="E11" s="258">
+        <v>0.04</v>
+      </c>
+      <c r="F11" s="258">
+        <v>3</v>
+      </c>
+      <c r="G11" s="258">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="283"/>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A12" s="287" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="258" t="s">
+        <v>568</v>
+      </c>
+      <c r="C12" s="258">
+        <v>2</v>
+      </c>
+      <c r="D12" s="258">
+        <v>1</v>
+      </c>
+      <c r="E12" s="258">
+        <v>0.18</v>
+      </c>
+      <c r="F12" s="258">
+        <v>3</v>
+      </c>
+      <c r="G12" s="258">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H12" s="283"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A13" s="287" t="s">
+        <v>569</v>
+      </c>
+      <c r="B13" s="258" t="s">
+        <v>568</v>
+      </c>
+      <c r="C13" s="258">
+        <v>3.5</v>
+      </c>
+      <c r="D13" s="258">
+        <v>1.2</v>
+      </c>
+      <c r="E13" s="258">
+        <v>0.37</v>
+      </c>
+      <c r="F13" s="258">
+        <v>20</v>
+      </c>
+      <c r="G13" s="258">
+        <v>0.35</v>
+      </c>
+      <c r="H13" s="283"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A14" s="287" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="258" t="s">
+        <v>567</v>
+      </c>
+      <c r="C14" s="258">
+        <v>2</v>
+      </c>
+      <c r="D14" s="258">
+        <v>0.47</v>
+      </c>
+      <c r="E14" s="258">
+        <v>0.15</v>
+      </c>
+      <c r="F14" s="258">
+        <v>3</v>
+      </c>
+      <c r="G14" s="258">
+        <v>0.03</v>
+      </c>
+      <c r="H14" s="283"/>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A15" s="287" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" s="258" t="s">
+        <v>567</v>
+      </c>
+      <c r="C15" s="258">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="258">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E15" s="258">
+        <v>0.6</v>
+      </c>
+      <c r="F15" s="258">
+        <v>1</v>
+      </c>
+      <c r="G15" s="258">
+        <v>0.01</v>
+      </c>
+      <c r="H15" s="283"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A16" s="287" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="258" t="s">
+        <v>567</v>
+      </c>
+      <c r="C16" s="258">
+        <v>0.02</v>
+      </c>
+      <c r="D16" s="258">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="258">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="258">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="258">
+        <v>0.04</v>
+      </c>
+      <c r="H16" s="283"/>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A17" s="274" t="s">
+        <v>526</v>
+      </c>
+      <c r="B17" s="276"/>
+      <c r="C17" s="258">
+        <f>SUM(C5:C16)</f>
+        <v>12.73</v>
+      </c>
+      <c r="D17" s="258">
+        <f>SUM(D5:D16)</f>
+        <v>6.05</v>
+      </c>
+      <c r="E17" s="258">
+        <f>SUM(E5:E16)</f>
+        <v>3.7900000000000005</v>
+      </c>
+      <c r="F17" s="258">
+        <f>SUM(F5:F16)</f>
+        <v>42.95</v>
+      </c>
+      <c r="G17" s="258">
+        <f>SUM(G5:G16)</f>
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="H17" s="283"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.5" thickBot="1"/>
+    <row r="22" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A22" s="292" t="s">
+        <v>525</v>
+      </c>
+      <c r="B22" s="296" t="s">
+        <v>570</v>
+      </c>
+      <c r="C22" s="295"/>
+      <c r="D22" s="295"/>
+      <c r="E22" s="295"/>
+      <c r="F22" s="295"/>
+      <c r="G22" s="297"/>
+      <c r="H22" s="280"/>
+    </row>
+    <row r="23" spans="1:9" ht="33.75" thickBot="1">
+      <c r="A23" s="293"/>
+      <c r="B23" s="292" t="s">
+        <v>564</v>
+      </c>
+      <c r="C23" s="258" t="s">
+        <v>565</v>
+      </c>
+      <c r="D23" s="258" t="s">
+        <v>566</v>
+      </c>
+      <c r="E23" s="258" t="s">
+        <v>555</v>
+      </c>
+      <c r="F23" s="258" t="s">
+        <v>556</v>
+      </c>
+      <c r="G23" s="258" t="s">
+        <v>557</v>
+      </c>
+      <c r="H23" s="280"/>
+    </row>
+    <row r="24" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A24" s="293"/>
+      <c r="B24" s="293"/>
+      <c r="C24" s="288">
+        <v>44632</v>
+      </c>
+      <c r="D24" s="288">
+        <v>44639</v>
+      </c>
+      <c r="E24" s="288">
+        <v>44646</v>
+      </c>
+      <c r="F24" s="288">
+        <v>44647</v>
+      </c>
+      <c r="G24" s="289">
+        <v>44682</v>
+      </c>
+      <c r="H24" s="283" t="s">
+        <v>573</v>
+      </c>
+      <c r="I24" s="289"/>
+    </row>
+    <row r="25" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A25" s="294"/>
+      <c r="B25" s="294"/>
+      <c r="C25" s="290">
+        <v>44633</v>
+      </c>
+      <c r="D25" s="290">
+        <v>44639</v>
+      </c>
+      <c r="E25" s="290">
+        <v>44646</v>
+      </c>
+      <c r="F25" s="290">
+        <v>44682</v>
+      </c>
+      <c r="G25" s="290">
+        <v>44682</v>
+      </c>
+      <c r="H25" s="283" t="s">
+        <v>574</v>
+      </c>
+      <c r="I25" s="290"/>
+    </row>
+    <row r="26" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A26" s="291" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="258" t="s">
+        <v>567</v>
+      </c>
+      <c r="C26" s="258">
+        <v>0.3</v>
+      </c>
+      <c r="D26" s="258">
+        <v>0.13</v>
+      </c>
+      <c r="E26" s="258">
+        <v>0.06</v>
+      </c>
+      <c r="F26" s="258">
+        <v>1</v>
+      </c>
+      <c r="G26" s="258">
+        <v>0.02</v>
+      </c>
+      <c r="H26" s="280"/>
+    </row>
+    <row r="27" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A27" s="291" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="258" t="s">
+        <v>568</v>
+      </c>
+      <c r="C27" s="258">
+        <v>2</v>
+      </c>
+      <c r="D27" s="258">
+        <v>1.5</v>
+      </c>
+      <c r="E27" s="258">
+        <v>1.5</v>
+      </c>
+      <c r="F27" s="258">
+        <v>3.66</v>
+      </c>
+      <c r="G27" s="258">
+        <v>0.05</v>
+      </c>
+      <c r="H27" s="280"/>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A28" s="291" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="258" t="s">
+        <v>568</v>
+      </c>
+      <c r="C28" s="258">
+        <v>1</v>
+      </c>
+      <c r="D28" s="258">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="258">
+        <v>0.25</v>
+      </c>
+      <c r="F28" s="258">
+        <v>1.29</v>
+      </c>
+      <c r="G28" s="258">
+        <v>0.02</v>
+      </c>
+      <c r="H28" s="280"/>
+    </row>
+    <row r="29" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A29" s="291" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="258" t="s">
+        <v>567</v>
+      </c>
+      <c r="C29" s="258">
+        <v>0.2</v>
+      </c>
+      <c r="D29" s="258">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="258">
+        <v>0.05</v>
+      </c>
+      <c r="F29" s="258">
+        <v>1</v>
+      </c>
+      <c r="G29" s="258">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H29" s="280"/>
+    </row>
+    <row r="30" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A30" s="291" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="258" t="s">
+        <v>567</v>
+      </c>
+      <c r="C30" s="258">
+        <v>0.21</v>
+      </c>
+      <c r="D30" s="258">
+        <v>0.18</v>
+      </c>
+      <c r="E30" s="258">
+        <v>0.03</v>
+      </c>
+      <c r="F30" s="258">
+        <v>2.5</v>
+      </c>
+      <c r="G30" s="258">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H30" s="280"/>
+    </row>
+    <row r="31" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A31" s="291" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="258" t="s">
+        <v>568</v>
+      </c>
+      <c r="C31" s="258">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="258">
+        <v>0.47</v>
+      </c>
+      <c r="E31" s="258">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F31" s="258">
+        <v>3</v>
+      </c>
+      <c r="G31" s="258">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H31" s="280"/>
+    </row>
+    <row r="32" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A32" s="291" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="258" t="s">
+        <v>568</v>
+      </c>
+      <c r="C32" s="258">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="258">
+        <v>0.17</v>
+      </c>
+      <c r="E32" s="258">
+        <v>0.04</v>
+      </c>
+      <c r="F32" s="258">
+        <v>3</v>
+      </c>
+      <c r="G32" s="258">
+        <v>0.01</v>
+      </c>
+      <c r="H32" s="280"/>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A33" s="291" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="258" t="s">
+        <v>568</v>
+      </c>
+      <c r="C33" s="258">
+        <v>2</v>
+      </c>
+      <c r="D33" s="258">
+        <v>1</v>
+      </c>
+      <c r="E33" s="258">
+        <v>0.18</v>
+      </c>
+      <c r="F33" s="258">
+        <v>3</v>
+      </c>
+      <c r="G33" s="258">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H33" s="280"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A34" s="291" t="s">
+        <v>569</v>
+      </c>
+      <c r="B34" s="258" t="s">
+        <v>568</v>
+      </c>
+      <c r="C34" s="258">
+        <v>3.5</v>
+      </c>
+      <c r="D34" s="258">
+        <v>1.2</v>
+      </c>
+      <c r="E34" s="258">
+        <v>0.37</v>
+      </c>
+      <c r="F34" s="258">
+        <v>20</v>
+      </c>
+      <c r="G34" s="258">
+        <v>0.35</v>
+      </c>
+      <c r="H34" s="280"/>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A35" s="291" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="258" t="s">
+        <v>567</v>
+      </c>
+      <c r="C35" s="258">
+        <v>2</v>
+      </c>
+      <c r="D35" s="258">
+        <v>0.47</v>
+      </c>
+      <c r="E35" s="258">
+        <v>0.15</v>
+      </c>
+      <c r="F35" s="258">
+        <v>3</v>
+      </c>
+      <c r="G35" s="258">
+        <v>0.03</v>
+      </c>
+      <c r="H35" s="280"/>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A36" s="291" t="s">
+        <v>349</v>
+      </c>
+      <c r="B36" s="258" t="s">
+        <v>567</v>
+      </c>
+      <c r="C36" s="258">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="258">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E36" s="258">
+        <v>0.6</v>
+      </c>
+      <c r="F36" s="258">
+        <v>1</v>
+      </c>
+      <c r="G36" s="258">
+        <v>0.01</v>
+      </c>
+      <c r="H36" s="280"/>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A37" s="291" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="258" t="s">
+        <v>567</v>
+      </c>
+      <c r="C37" s="258">
+        <v>0.02</v>
+      </c>
+      <c r="D37" s="258">
+        <v>0.04</v>
+      </c>
+      <c r="E37" s="258">
+        <v>0.01</v>
+      </c>
+      <c r="F37" s="258">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="258">
+        <v>0.04</v>
+      </c>
+      <c r="H37" s="280"/>
+    </row>
+    <row r="38" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A38" s="274" t="s">
+        <v>526</v>
+      </c>
+      <c r="B38" s="298"/>
+      <c r="C38" s="258">
+        <v>12.73</v>
+      </c>
+      <c r="D38" s="258">
+        <v>6.05</v>
+      </c>
+      <c r="E38" s="258">
+        <v>3.79</v>
+      </c>
+      <c r="F38" s="258">
+        <v>42.95</v>
+      </c>
+      <c r="G38" s="258">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="H38" s="280"/>
+    </row>
+    <row r="42" spans="1:8" ht="13.5" thickBot="1"/>
+    <row r="43" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A43" s="299" t="s">
+        <v>525</v>
+      </c>
+      <c r="B43" s="300" t="s">
+        <v>575</v>
+      </c>
+      <c r="C43" s="300" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="300" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="300" t="s">
+        <v>497</v>
+      </c>
+      <c r="F43" s="300" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A44" s="287" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="258">
+        <v>3</v>
+      </c>
+      <c r="C44" s="258">
+        <v>2</v>
+      </c>
+      <c r="D44" s="258">
+        <v>1</v>
+      </c>
+      <c r="E44" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="F44" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A45" s="287" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="258">
+        <v>23</v>
+      </c>
+      <c r="C45" s="258">
+        <v>22</v>
+      </c>
+      <c r="D45" s="258">
+        <v>1</v>
+      </c>
+      <c r="E45" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="F45" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A46" s="287" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="258">
+        <v>9</v>
+      </c>
+      <c r="C46" s="258">
+        <v>8</v>
+      </c>
+      <c r="D46" s="258">
+        <v>1</v>
+      </c>
+      <c r="E46" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="F46" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A47" s="287" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="258">
+        <v>3</v>
+      </c>
+      <c r="C47" s="258">
+        <v>3</v>
+      </c>
+      <c r="D47" s="258">
+        <v>0</v>
+      </c>
+      <c r="E47" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="F47" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A48" s="287" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="258">
+        <v>3</v>
+      </c>
+      <c r="C48" s="258">
+        <v>3</v>
+      </c>
+      <c r="D48" s="258">
+        <v>0</v>
+      </c>
+      <c r="E48" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="F48" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A49" s="287" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="258">
+        <v>7</v>
+      </c>
+      <c r="C49" s="258">
+        <v>6</v>
+      </c>
+      <c r="D49" s="258">
+        <v>1</v>
+      </c>
+      <c r="E49" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="F49" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A50" s="287" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="258">
+        <v>4</v>
+      </c>
+      <c r="C50" s="258">
+        <v>4</v>
+      </c>
+      <c r="D50" s="258">
+        <v>0</v>
+      </c>
+      <c r="E50" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="F50" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A51" s="287" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="258">
+        <v>7</v>
+      </c>
+      <c r="C51" s="258">
+        <v>6</v>
+      </c>
+      <c r="D51" s="258">
+        <v>1</v>
+      </c>
+      <c r="E51" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="F51" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A52" s="287" t="s">
+        <v>569</v>
+      </c>
+      <c r="B52" s="258">
+        <v>28</v>
+      </c>
+      <c r="C52" s="258">
+        <v>18</v>
+      </c>
+      <c r="D52" s="258">
+        <v>3</v>
+      </c>
+      <c r="E52" s="258">
+        <v>7</v>
+      </c>
+      <c r="F52" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A53" s="287" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="258">
+        <v>8</v>
+      </c>
+      <c r="C53" s="258">
+        <v>8</v>
+      </c>
+      <c r="D53" s="258">
+        <v>0</v>
+      </c>
+      <c r="E53" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="F53" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A54" s="287" t="s">
+        <v>349</v>
+      </c>
+      <c r="B54" s="258">
+        <v>5</v>
+      </c>
+      <c r="C54" s="258">
+        <v>5</v>
+      </c>
+      <c r="D54" s="258">
+        <v>0</v>
+      </c>
+      <c r="E54" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="F54" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A55" s="287" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="258">
+        <v>1</v>
+      </c>
+      <c r="C55" s="258">
+        <v>1</v>
+      </c>
+      <c r="D55" s="258">
+        <v>0</v>
+      </c>
+      <c r="E55" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="F55" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A56" s="287" t="s">
+        <v>526</v>
+      </c>
+      <c r="B56" s="258">
+        <v>101</v>
+      </c>
+      <c r="C56" s="258">
+        <v>86</v>
+      </c>
+      <c r="D56" s="258">
+        <v>15</v>
+      </c>
+      <c r="E56" s="258">
+        <v>7</v>
+      </c>
+      <c r="F56" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A98A753-3A09-4404-9B44-374DF1BDDDD2}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C45" sqref="C45:G45"/>
     </sheetView>
   </sheetViews>
@@ -66271,7 +67581,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="271" t="s">
         <v>523</v>
       </c>
       <c r="B1" s="234" t="s">
@@ -66291,7 +67601,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="260"/>
+      <c r="A2" s="271"/>
       <c r="B2" s="232" t="s">
         <v>6</v>
       </c>
@@ -66309,7 +67619,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="260"/>
+      <c r="A3" s="271"/>
       <c r="B3" s="232" t="s">
         <v>20</v>
       </c>
@@ -66327,7 +67637,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="260"/>
+      <c r="A4" s="271"/>
       <c r="B4" s="233" t="s">
         <v>27</v>
       </c>
@@ -66345,7 +67655,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="260"/>
+      <c r="A5" s="271"/>
       <c r="B5" s="232" t="s">
         <v>43</v>
       </c>
@@ -66363,7 +67673,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="260"/>
+      <c r="A6" s="271"/>
       <c r="B6" s="232" t="s">
         <v>61</v>
       </c>
@@ -66381,7 +67691,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="260"/>
+      <c r="A7" s="271"/>
       <c r="B7" s="232" t="s">
         <v>66</v>
       </c>
@@ -66399,7 +67709,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="260"/>
+      <c r="A8" s="271"/>
       <c r="B8" s="232" t="s">
         <v>77</v>
       </c>
@@ -66417,7 +67727,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="260"/>
+      <c r="A9" s="271"/>
       <c r="B9" s="232" t="s">
         <v>85</v>
       </c>
@@ -66435,7 +67745,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="260"/>
+      <c r="A10" s="271"/>
       <c r="B10" s="232" t="s">
         <v>93</v>
       </c>
@@ -66444,7 +67754,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="260"/>
+      <c r="A11" s="271"/>
       <c r="B11" s="232" t="s">
         <v>104</v>
       </c>
@@ -66453,7 +67763,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="260"/>
+      <c r="A12" s="271"/>
       <c r="B12" s="232" t="s">
         <v>349</v>
       </c>
@@ -66462,7 +67772,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="260"/>
+      <c r="A13" s="271"/>
       <c r="B13" s="237" t="s">
         <v>115</v>
       </c>
@@ -66480,56 +67790,56 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5">
-      <c r="A16" s="268" t="s">
+      <c r="A16" s="265" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="263" t="s">
+      <c r="B16" s="260" t="s">
         <v>550</v>
       </c>
-      <c r="C16" s="263" t="s">
+      <c r="C16" s="260" t="s">
         <v>551</v>
       </c>
-      <c r="D16" s="263" t="s">
+      <c r="D16" s="260" t="s">
         <v>552</v>
       </c>
-      <c r="E16" s="264" t="s">
+      <c r="E16" s="261" t="s">
         <v>558</v>
       </c>
-      <c r="G16" s="267" t="s">
+      <c r="G16" s="264" t="s">
         <v>560</v>
       </c>
-      <c r="H16" s="267" t="s">
+      <c r="H16" s="264" t="s">
         <v>559</v>
       </c>
-      <c r="I16" s="267" t="s">
+      <c r="I16" s="264" t="s">
         <v>562</v>
       </c>
-      <c r="J16" s="267" t="s">
+      <c r="J16" s="264" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="33">
-      <c r="A17" s="265" t="s">
+      <c r="A17" s="262" t="s">
         <v>553</v>
       </c>
-      <c r="B17" s="263">
+      <c r="B17" s="260">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="C17" s="263">
+      <c r="C17" s="260">
         <v>0.05</v>
       </c>
-      <c r="D17" s="263">
+      <c r="D17" s="260">
         <v>0.1</v>
       </c>
-      <c r="E17" s="266">
+      <c r="E17" s="263">
         <f>ROUND(((B17+4*C17+D17)/6),2)</f>
         <v>0.06</v>
       </c>
-      <c r="F17" s="268">
+      <c r="F17" s="265">
         <f>(G17*H17)/60</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G17" s="267">
+      <c r="G17" s="264">
         <v>1.5</v>
       </c>
       <c r="H17">
@@ -66543,413 +67853,413 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="33">
-      <c r="A18" s="265" t="s">
+      <c r="A18" s="262" t="s">
         <v>554</v>
       </c>
-      <c r="B18" s="263">
+      <c r="B18" s="260">
         <v>0.05</v>
       </c>
-      <c r="C18" s="263">
+      <c r="C18" s="260">
         <v>0.03</v>
       </c>
-      <c r="D18" s="263">
+      <c r="D18" s="260">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E18" s="266">
+      <c r="E18" s="263">
         <f t="shared" ref="E18:E21" si="0">ROUND(((B18+4*C18+D18)/6),2)</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="49.5">
-      <c r="A19" s="265" t="s">
+      <c r="A19" s="262" t="s">
         <v>555</v>
       </c>
-      <c r="B19" s="263">
+      <c r="B19" s="260">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="C19" s="263">
+      <c r="C19" s="260">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="D19" s="263">
+      <c r="D19" s="260">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E19" s="266">
+      <c r="E19" s="263">
         <f>ROUND(((B19+4*C19+D19)/6),2)</f>
         <v>0.01</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="33">
-      <c r="A20" s="265" t="s">
+      <c r="A20" s="262" t="s">
         <v>556</v>
       </c>
-      <c r="B20" s="263">
+      <c r="B20" s="260">
         <v>0.17</v>
       </c>
-      <c r="C20" s="263">
+      <c r="C20" s="260">
         <v>0.13</v>
       </c>
-      <c r="D20" s="263">
+      <c r="D20" s="260">
         <v>0.25</v>
       </c>
-      <c r="E20" s="266">
+      <c r="E20" s="263">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="49.5">
-      <c r="A21" s="265" t="s">
+      <c r="A21" s="262" t="s">
         <v>557</v>
       </c>
-      <c r="B21" s="263">
+      <c r="B21" s="260">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C21" s="263">
+      <c r="C21" s="260">
         <v>0.13</v>
       </c>
-      <c r="D21" s="263">
+      <c r="D21" s="260">
         <v>0.25</v>
       </c>
-      <c r="E21" s="266">
+      <c r="E21" s="263">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5">
-      <c r="A22" s="262"/>
+      <c r="A22" s="259"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" thickBot="1"/>
     <row r="31" spans="1:10" ht="17.25" thickBot="1">
       <c r="A31" s="272" t="s">
         <v>525</v>
       </c>
-      <c r="B31" s="275" t="s">
+      <c r="B31" s="274" t="s">
         <v>563</v>
       </c>
-      <c r="C31" s="274"/>
-      <c r="D31" s="274"/>
-      <c r="E31" s="274"/>
-      <c r="F31" s="274"/>
+      <c r="C31" s="275"/>
+      <c r="D31" s="275"/>
+      <c r="E31" s="275"/>
+      <c r="F31" s="275"/>
       <c r="G31" s="276"/>
     </row>
     <row r="32" spans="1:10" ht="66.75" thickBot="1">
       <c r="A32" s="273"/>
-      <c r="B32" s="261" t="s">
+      <c r="B32" s="258" t="s">
         <v>564</v>
       </c>
-      <c r="C32" s="261" t="s">
+      <c r="C32" s="258" t="s">
         <v>565</v>
       </c>
-      <c r="D32" s="269" t="s">
+      <c r="D32" s="266" t="s">
         <v>566</v>
       </c>
-      <c r="E32" s="261" t="s">
+      <c r="E32" s="258" t="s">
         <v>555</v>
       </c>
-      <c r="F32" s="261" t="s">
+      <c r="F32" s="258" t="s">
         <v>556</v>
       </c>
-      <c r="G32" s="261" t="s">
+      <c r="G32" s="258" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A33" s="270" t="s">
+      <c r="A33" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="261" t="s">
+      <c r="B33" s="258" t="s">
         <v>567</v>
       </c>
-      <c r="C33" s="261">
+      <c r="C33" s="258">
         <v>0.21</v>
       </c>
-      <c r="D33" s="261">
+      <c r="D33" s="258">
         <v>0.13</v>
       </c>
-      <c r="E33" s="261">
+      <c r="E33" s="258">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="F33" s="261">
+      <c r="F33" s="258">
         <v>0.25</v>
       </c>
-      <c r="G33" s="261">
+      <c r="G33" s="258">
         <v>0.03</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A34" s="270" t="s">
+      <c r="A34" s="267" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="261" t="s">
+      <c r="B34" s="258" t="s">
         <v>568</v>
       </c>
-      <c r="C34" s="261">
+      <c r="C34" s="258">
         <v>1.53</v>
       </c>
-      <c r="D34" s="261">
+      <c r="D34" s="258">
         <v>1.72</v>
       </c>
-      <c r="E34" s="261">
+      <c r="E34" s="258">
         <v>1.41</v>
       </c>
-      <c r="F34" s="261">
+      <c r="F34" s="258">
         <v>3.66</v>
       </c>
-      <c r="G34" s="261">
+      <c r="G34" s="258">
         <v>0.39</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A35" s="270" t="s">
+      <c r="A35" s="267" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="261" t="s">
+      <c r="B35" s="258" t="s">
         <v>568</v>
       </c>
-      <c r="C35" s="261">
+      <c r="C35" s="258">
         <v>0.7</v>
       </c>
-      <c r="D35" s="261">
+      <c r="D35" s="258">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E35" s="261">
+      <c r="E35" s="258">
         <v>0.23</v>
       </c>
-      <c r="F35" s="261">
+      <c r="F35" s="258">
         <v>1.29</v>
       </c>
-      <c r="G35" s="261">
+      <c r="G35" s="258">
         <v>0.13</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A36" s="270" t="s">
+      <c r="A36" s="267" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="261" t="s">
+      <c r="B36" s="258" t="s">
         <v>567</v>
       </c>
-      <c r="C36" s="261">
+      <c r="C36" s="258">
         <v>0.21</v>
       </c>
-      <c r="D36" s="261">
+      <c r="D36" s="258">
         <v>0.18</v>
       </c>
-      <c r="E36" s="261">
+      <c r="E36" s="258">
         <v>0.05</v>
       </c>
-      <c r="F36" s="261">
+      <c r="F36" s="258">
         <v>0.11</v>
       </c>
-      <c r="G36" s="261">
+      <c r="G36" s="258">
         <v>0.01</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A37" s="270" t="s">
+      <c r="A37" s="267" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="261" t="s">
+      <c r="B37" s="258" t="s">
         <v>567</v>
       </c>
-      <c r="C37" s="261">
+      <c r="C37" s="258">
         <v>0.21</v>
       </c>
-      <c r="D37" s="261">
+      <c r="D37" s="258">
         <v>0.18</v>
       </c>
-      <c r="E37" s="261">
+      <c r="E37" s="258">
         <v>0.03</v>
       </c>
-      <c r="F37" s="261">
+      <c r="F37" s="258">
         <v>0.19</v>
       </c>
-      <c r="G37" s="261">
+      <c r="G37" s="258">
         <v>0.03</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="33.75" thickBot="1">
-      <c r="A38" s="270" t="s">
+      <c r="A38" s="267" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="261" t="s">
+      <c r="B38" s="258" t="s">
         <v>568</v>
       </c>
-      <c r="C38" s="261">
+      <c r="C38" s="258">
         <v>0.47</v>
       </c>
-      <c r="D38" s="261">
+      <c r="D38" s="258">
         <v>0.47</v>
       </c>
-      <c r="E38" s="261">
+      <c r="E38" s="258">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F38" s="261">
+      <c r="F38" s="258">
         <v>0.23</v>
       </c>
-      <c r="G38" s="261">
+      <c r="G38" s="258">
         <v>0.03</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="33.75" thickBot="1">
-      <c r="A39" s="270" t="s">
+      <c r="A39" s="267" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="261" t="s">
+      <c r="B39" s="258" t="s">
         <v>568</v>
       </c>
-      <c r="C39" s="261">
+      <c r="C39" s="258">
         <v>0.31</v>
       </c>
-      <c r="D39" s="261">
+      <c r="D39" s="258">
         <v>0.17</v>
       </c>
-      <c r="E39" s="261">
+      <c r="E39" s="258">
         <v>0.04</v>
       </c>
-      <c r="F39" s="261">
+      <c r="F39" s="258">
         <v>0.63</v>
       </c>
-      <c r="G39" s="261">
+      <c r="G39" s="258">
         <v>0.03</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="33.75" thickBot="1">
-      <c r="A40" s="270" t="s">
+      <c r="A40" s="267" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="261" t="s">
+      <c r="B40" s="258" t="s">
         <v>568</v>
       </c>
-      <c r="C40" s="261">
+      <c r="C40" s="258">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D40" s="261">
+      <c r="D40" s="258">
         <v>0.53</v>
       </c>
-      <c r="E40" s="261">
+      <c r="E40" s="258">
         <v>0.18</v>
       </c>
-      <c r="F40" s="261">
+      <c r="F40" s="258">
         <v>0.63</v>
       </c>
-      <c r="G40" s="261">
+      <c r="G40" s="258">
         <v>0.03</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="33.75" thickBot="1">
-      <c r="A41" s="270" t="s">
+      <c r="A41" s="267" t="s">
         <v>569</v>
       </c>
-      <c r="B41" s="261" t="s">
+      <c r="B41" s="258" t="s">
         <v>568</v>
       </c>
-      <c r="C41" s="261">
+      <c r="C41" s="258">
         <v>2.34</v>
       </c>
-      <c r="D41" s="261">
+      <c r="D41" s="258">
         <v>1.24</v>
       </c>
-      <c r="E41" s="271">
+      <c r="E41" s="268">
         <v>0.37</v>
       </c>
-      <c r="F41" s="261">
+      <c r="F41" s="258">
         <v>6.23</v>
       </c>
-      <c r="G41" s="261">
+      <c r="G41" s="258">
         <v>0.41</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="50.25" thickBot="1">
-      <c r="A42" s="270" t="s">
+      <c r="A42" s="267" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="261" t="s">
+      <c r="B42" s="258" t="s">
         <v>567</v>
       </c>
-      <c r="C42" s="261">
+      <c r="C42" s="258">
         <v>1.2</v>
       </c>
-      <c r="D42" s="271">
+      <c r="D42" s="268">
         <v>0.47</v>
       </c>
-      <c r="E42" s="271">
+      <c r="E42" s="268">
         <v>0.12</v>
       </c>
-      <c r="F42" s="261">
+      <c r="F42" s="258">
         <v>1.67</v>
       </c>
-      <c r="G42" s="261">
+      <c r="G42" s="258">
         <v>0.12</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="50.25" thickBot="1">
-      <c r="A43" s="270" t="s">
+      <c r="A43" s="267" t="s">
         <v>349</v>
       </c>
-      <c r="B43" s="261" t="s">
+      <c r="B43" s="258" t="s">
         <v>567</v>
       </c>
-      <c r="C43" s="261">
+      <c r="C43" s="258">
         <v>0.75</v>
       </c>
-      <c r="D43" s="271">
+      <c r="D43" s="268">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E43" s="271">
+      <c r="E43" s="268">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F43" s="261">
+      <c r="F43" s="258">
         <v>0.75</v>
       </c>
-      <c r="G43" s="261">
+      <c r="G43" s="258">
         <v>0.08</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A44" s="270" t="s">
+      <c r="A44" s="267" t="s">
         <v>115</v>
       </c>
-      <c r="B44" s="261" t="s">
+      <c r="B44" s="258" t="s">
         <v>567</v>
       </c>
-      <c r="C44" s="261">
+      <c r="C44" s="258">
         <v>0.06</v>
       </c>
-      <c r="D44" s="261">
+      <c r="D44" s="258">
         <v>0.04</v>
       </c>
-      <c r="E44" s="261">
+      <c r="E44" s="258">
         <v>0.01</v>
       </c>
-      <c r="F44" s="261">
+      <c r="F44" s="258">
         <v>0.16</v>
       </c>
-      <c r="G44" s="261">
+      <c r="G44" s="258">
         <v>0.13</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A45" s="275" t="s">
+      <c r="A45" s="274" t="s">
         <v>526</v>
       </c>
       <c r="B45" s="276"/>
-      <c r="C45" s="261">
+      <c r="C45" s="258">
         <f>SUM(C33:C44)</f>
         <v>9.1</v>
       </c>
-      <c r="D45" s="261">
+      <c r="D45" s="258">
         <f>SUM(D33:D44)</f>
         <v>5.9700000000000006</v>
       </c>
-      <c r="E45" s="261">
+      <c r="E45" s="258">
         <f>SUM(E33:E44)</f>
         <v>3.6275000000000004</v>
       </c>
-      <c r="F45" s="261">
+      <c r="F45" s="258">
         <f>SUM(F33:F44)</f>
         <v>15.800000000000002</v>
       </c>
-      <c r="G45" s="261">
+      <c r="G45" s="258">
         <f>SUM(G33:G44)</f>
         <v>1.42</v>
       </c>

--- a/02. Trần Thị Diệu Linh/TCs_Build1.xlsx
+++ b/02. Trần Thị Diệu Linh/TCs_Build1.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\18. Thuc tap tot nghiep\ThucTapTN_2021_2022_2\02. Trần Thị Diệu Linh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F00DAE-96FF-4662-BDFD-406449319028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B23D2F8-8F5A-4DE4-8868-99B0851931BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TR List" sheetId="1" r:id="rId1"/>
     <sheet name="TC List" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
     <sheet name="Summary TC list" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TC List'!$A$4:$J$117</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="594">
   <si>
     <t>Test Requirement List</t>
   </si>
@@ -3462,12 +3463,405 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>Build1</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Blocker</t>
+  </si>
+  <si>
+    <t>Total bugs</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Home – The banner does not match nav bar</t>
+  </si>
+  <si>
+    <t>Serverity</t>
+  </si>
+  <si>
+    <t>Register - Unable to register 2 emails in Email field at the same time</t>
+  </si>
+  <si>
+    <t>Reset Password - Unable to reset password</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Steps: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. Go to www.raillog.somee.com/Page/HomePage.cshtml#
+2. Register account with Email field contains 2 email and total length no more than 32 chars</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Observed results: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>User create account successfully.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Expected results: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>User cannot create account.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Attachment:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Steps: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. Go to www.raillog.somee.com/Page/HomePage.cshtml#
+2. Observe the banner on header</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Observed results: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>The banner does not match nav bar</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Expected results: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>The banner should match nav bar</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Attachment: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bug 01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Steps: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. Go to www.raillog.somee.com/Page/HomePage.cshtml#
+2. Click on FAQ tab then observe</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Observed results: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nothing happens when clicking on FAQ.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Expected results: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>User should create account successfully.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Attachment:</t>
+    </r>
+  </si>
+  <si>
+    <t>Timetable - Ticket price from Sài Gòn to Phan Thiết shows for all trains</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Steps: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to www.raillog.somee.com/Page/TrainTimeListPage.cshtml
+2. Click on any Check Price link except first row
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Observed results: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tittle table always shows: "Ticket price from Sài Gòn to Phan Thiết".</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Expected results: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tittle table should match Depart and Arrive Station.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Attachment:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Steps: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to www.raillog.somee.com/Account/ForgotPassword.cshtml
+2. Enter vaild email
+3. Click on Send Instructions button then observe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Observed results: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Server error displays.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Expected results: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>User should reset password.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Attachment:</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3583,8 +3977,40 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3693,8 +4119,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF366092"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5DCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -4235,11 +4679,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5037,36 +5552,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5078,15 +5565,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5104,6 +5582,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5113,22 +5610,89 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5701,10 +6265,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="270"/>
+      <c r="B1" s="282"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
@@ -34217,8 +34781,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AA1057"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView showGridLines="0" topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -37563,7 +38127,7 @@
         <v>419</v>
       </c>
       <c r="F84" s="203" t="s">
-        <v>497</v>
+        <v>134</v>
       </c>
       <c r="G84" s="203" t="s">
         <v>137</v>
@@ -37735,7 +38299,7 @@
         <v>447</v>
       </c>
       <c r="F88" s="203" t="s">
-        <v>497</v>
+        <v>134</v>
       </c>
       <c r="G88" s="210" t="s">
         <v>137</v>
@@ -37821,7 +38385,7 @@
         <v>448</v>
       </c>
       <c r="F90" s="203" t="s">
-        <v>497</v>
+        <v>134</v>
       </c>
       <c r="G90" s="210" t="s">
         <v>137</v>
@@ -37952,7 +38516,7 @@
         <v>424</v>
       </c>
       <c r="F93" s="203" t="s">
-        <v>497</v>
+        <v>134</v>
       </c>
       <c r="G93" s="210" t="s">
         <v>137</v>
@@ -37997,7 +38561,7 @@
         <v>461</v>
       </c>
       <c r="F94" s="203" t="s">
-        <v>497</v>
+        <v>134</v>
       </c>
       <c r="G94" s="210" t="s">
         <v>137</v>
@@ -38128,7 +38692,7 @@
         <v>424</v>
       </c>
       <c r="F97" s="203" t="s">
-        <v>497</v>
+        <v>134</v>
       </c>
       <c r="G97" s="210" t="s">
         <v>137</v>
@@ -38171,7 +38735,7 @@
         <v>424</v>
       </c>
       <c r="F98" s="203" t="s">
-        <v>497</v>
+        <v>134</v>
       </c>
       <c r="G98" s="210" t="s">
         <v>137</v>
@@ -66237,17 +66801,17 @@
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="F119:F1057 F111:F117 F74:F78 F8:G72 F80:F109">
+  <conditionalFormatting sqref="F119:F1057 F111:F117 F74:F78 F8:G72 F80:F83 F85:F87 F89 F91:F92 F95:F96 F99:F109">
     <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F119:F1057 F111:F117 F74:F78 F8:G72 F80:F109">
+  <conditionalFormatting sqref="F119:F1057 F111:F117 F74:F78 F8:G72 F80:F83 F85:F87 F89 F91:F92 F95:F96 F99:F109">
     <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F119:F1057 F111:F117 F74:F78 F8:G72 F80:F109">
+  <conditionalFormatting sqref="F119:F1057 F111:F117 F74:F78 F8:G72 F80:F83 F85:F87 F89 F91:F92 F95:F96 F99:F109">
     <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
@@ -66297,17 +66861,17 @@
       <formula>"Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79">
+  <conditionalFormatting sqref="F79 F84 F88 F90 F93:F94 F97:F98">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79">
+  <conditionalFormatting sqref="F79 F84 F88 F90 F93:F94 F97:F98">
     <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79">
+  <conditionalFormatting sqref="F79 F84 F88 F90 F93:F94 F97:F98">
     <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
@@ -66461,7 +67025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E7A849-9089-4B3D-BF51-444C57119794}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:F56"/>
     </sheetView>
   </sheetViews>
@@ -66478,22 +67042,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5">
-      <c r="A1" s="277" t="s">
+      <c r="A1" s="292" t="s">
         <v>525</v>
       </c>
-      <c r="B1" s="284" t="s">
+      <c r="B1" s="295" t="s">
         <v>570</v>
       </c>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="283"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="273"/>
     </row>
     <row r="2" spans="1:8" ht="53.25" customHeight="1">
-      <c r="A2" s="278"/>
-      <c r="B2" s="277" t="s">
+      <c r="A2" s="293"/>
+      <c r="B2" s="292" t="s">
         <v>564</v>
       </c>
       <c r="C2" s="260" t="s">
@@ -66511,54 +67075,54 @@
       <c r="G2" s="260" t="s">
         <v>557</v>
       </c>
-      <c r="H2" s="283"/>
+      <c r="H2" s="273"/>
     </row>
     <row r="3" spans="1:8" ht="53.25" customHeight="1">
-      <c r="A3" s="278"/>
-      <c r="B3" s="278"/>
-      <c r="C3" s="281">
+      <c r="A3" s="293"/>
+      <c r="B3" s="293"/>
+      <c r="C3" s="271">
         <v>44632</v>
       </c>
-      <c r="D3" s="281">
+      <c r="D3" s="271">
         <v>44639</v>
       </c>
-      <c r="E3" s="281">
+      <c r="E3" s="271">
         <v>44646</v>
       </c>
-      <c r="F3" s="281">
+      <c r="F3" s="271">
         <v>44647</v>
       </c>
-      <c r="G3" s="282">
+      <c r="G3" s="272">
         <v>44682</v>
       </c>
-      <c r="H3" s="283" t="s">
+      <c r="H3" s="273" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="54.75" customHeight="1">
-      <c r="A4" s="279"/>
-      <c r="B4" s="279"/>
-      <c r="C4" s="282">
+      <c r="A4" s="294"/>
+      <c r="B4" s="294"/>
+      <c r="C4" s="272">
         <v>44633</v>
       </c>
-      <c r="D4" s="282">
+      <c r="D4" s="272">
         <v>44639</v>
       </c>
-      <c r="E4" s="282">
+      <c r="E4" s="272">
         <v>44646</v>
       </c>
-      <c r="F4" s="282">
+      <c r="F4" s="272">
         <v>44682</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="272">
         <v>44682</v>
       </c>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="273" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A5" s="287" t="s">
+      <c r="A5" s="274" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="258" t="s">
@@ -66579,10 +67143,10 @@
       <c r="G5" s="258">
         <v>0.02</v>
       </c>
-      <c r="H5" s="283"/>
+      <c r="H5" s="273"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A6" s="287" t="s">
+      <c r="A6" s="274" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="258" t="s">
@@ -66603,10 +67167,10 @@
       <c r="G6" s="258">
         <v>0.05</v>
       </c>
-      <c r="H6" s="283"/>
+      <c r="H6" s="273"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="287" t="s">
+      <c r="A7" s="274" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="258" t="s">
@@ -66627,10 +67191,10 @@
       <c r="G7" s="258">
         <v>0.02</v>
       </c>
-      <c r="H7" s="283"/>
+      <c r="H7" s="273"/>
     </row>
     <row r="8" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A8" s="287" t="s">
+      <c r="A8" s="274" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="258" t="s">
@@ -66651,10 +67215,10 @@
       <c r="G8" s="258">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H8" s="283"/>
+      <c r="H8" s="273"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A9" s="287" t="s">
+      <c r="A9" s="274" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="258" t="s">
@@ -66675,10 +67239,10 @@
       <c r="G9" s="258">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H9" s="283"/>
+      <c r="H9" s="273"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="287" t="s">
+      <c r="A10" s="274" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="258" t="s">
@@ -66699,10 +67263,10 @@
       <c r="G10" s="258">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H10" s="283"/>
+      <c r="H10" s="273"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A11" s="287" t="s">
+      <c r="A11" s="274" t="s">
         <v>77</v>
       </c>
       <c r="B11" s="258" t="s">
@@ -66723,10 +67287,10 @@
       <c r="G11" s="258">
         <v>0.01</v>
       </c>
-      <c r="H11" s="283"/>
+      <c r="H11" s="273"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A12" s="287" t="s">
+      <c r="A12" s="274" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="258" t="s">
@@ -66747,10 +67311,10 @@
       <c r="G12" s="258">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H12" s="283"/>
+      <c r="H12" s="273"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A13" s="287" t="s">
+      <c r="A13" s="274" t="s">
         <v>569</v>
       </c>
       <c r="B13" s="258" t="s">
@@ -66771,10 +67335,10 @@
       <c r="G13" s="258">
         <v>0.35</v>
       </c>
-      <c r="H13" s="283"/>
+      <c r="H13" s="273"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A14" s="287" t="s">
+      <c r="A14" s="274" t="s">
         <v>104</v>
       </c>
       <c r="B14" s="258" t="s">
@@ -66795,10 +67359,10 @@
       <c r="G14" s="258">
         <v>0.03</v>
       </c>
-      <c r="H14" s="283"/>
+      <c r="H14" s="273"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A15" s="287" t="s">
+      <c r="A15" s="274" t="s">
         <v>349</v>
       </c>
       <c r="B15" s="258" t="s">
@@ -66819,10 +67383,10 @@
       <c r="G15" s="258">
         <v>0.01</v>
       </c>
-      <c r="H15" s="283"/>
+      <c r="H15" s="273"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="287" t="s">
+      <c r="A16" s="274" t="s">
         <v>115</v>
       </c>
       <c r="B16" s="258" t="s">
@@ -66843,13 +67407,13 @@
       <c r="G16" s="258">
         <v>0.04</v>
       </c>
-      <c r="H16" s="283"/>
+      <c r="H16" s="273"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A17" s="274" t="s">
+      <c r="A17" s="289" t="s">
         <v>526</v>
       </c>
-      <c r="B17" s="276"/>
+      <c r="B17" s="291"/>
       <c r="C17" s="258">
         <f>SUM(C5:C16)</f>
         <v>12.73</v>
@@ -66870,26 +67434,26 @@
         <f>SUM(G5:G16)</f>
         <v>0.55800000000000005</v>
       </c>
-      <c r="H17" s="283"/>
+      <c r="H17" s="273"/>
     </row>
     <row r="21" spans="1:9" ht="13.5" thickBot="1"/>
     <row r="22" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A22" s="292" t="s">
+      <c r="A22" s="286" t="s">
         <v>525</v>
       </c>
-      <c r="B22" s="296" t="s">
+      <c r="B22" s="283" t="s">
         <v>570</v>
       </c>
-      <c r="C22" s="295"/>
-      <c r="D22" s="295"/>
-      <c r="E22" s="295"/>
-      <c r="F22" s="295"/>
-      <c r="G22" s="297"/>
-      <c r="H22" s="280"/>
+      <c r="C22" s="284"/>
+      <c r="D22" s="284"/>
+      <c r="E22" s="284"/>
+      <c r="F22" s="284"/>
+      <c r="G22" s="285"/>
+      <c r="H22" s="270"/>
     </row>
     <row r="23" spans="1:9" ht="33.75" thickBot="1">
-      <c r="A23" s="293"/>
-      <c r="B23" s="292" t="s">
+      <c r="A23" s="287"/>
+      <c r="B23" s="286" t="s">
         <v>564</v>
       </c>
       <c r="C23" s="258" t="s">
@@ -66907,56 +67471,56 @@
       <c r="G23" s="258" t="s">
         <v>557</v>
       </c>
-      <c r="H23" s="280"/>
+      <c r="H23" s="270"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A24" s="293"/>
-      <c r="B24" s="293"/>
-      <c r="C24" s="288">
+      <c r="A24" s="287"/>
+      <c r="B24" s="287"/>
+      <c r="C24" s="275">
         <v>44632</v>
       </c>
-      <c r="D24" s="288">
+      <c r="D24" s="275">
         <v>44639</v>
       </c>
-      <c r="E24" s="288">
+      <c r="E24" s="275">
         <v>44646</v>
       </c>
-      <c r="F24" s="288">
+      <c r="F24" s="275">
         <v>44647</v>
       </c>
-      <c r="G24" s="289">
+      <c r="G24" s="276">
         <v>44682</v>
       </c>
-      <c r="H24" s="283" t="s">
+      <c r="H24" s="273" t="s">
         <v>573</v>
       </c>
-      <c r="I24" s="289"/>
+      <c r="I24" s="276"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A25" s="294"/>
-      <c r="B25" s="294"/>
-      <c r="C25" s="290">
+      <c r="A25" s="288"/>
+      <c r="B25" s="288"/>
+      <c r="C25" s="277">
         <v>44633</v>
       </c>
-      <c r="D25" s="290">
+      <c r="D25" s="277">
         <v>44639</v>
       </c>
-      <c r="E25" s="290">
+      <c r="E25" s="277">
         <v>44646</v>
       </c>
-      <c r="F25" s="290">
+      <c r="F25" s="277">
         <v>44682</v>
       </c>
-      <c r="G25" s="290">
+      <c r="G25" s="277">
         <v>44682</v>
       </c>
-      <c r="H25" s="283" t="s">
+      <c r="H25" s="273" t="s">
         <v>574</v>
       </c>
-      <c r="I25" s="290"/>
+      <c r="I25" s="277"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A26" s="291" t="s">
+      <c r="A26" s="278" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="258" t="s">
@@ -66977,10 +67541,10 @@
       <c r="G26" s="258">
         <v>0.02</v>
       </c>
-      <c r="H26" s="280"/>
+      <c r="H26" s="270"/>
     </row>
     <row r="27" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A27" s="291" t="s">
+      <c r="A27" s="278" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="258" t="s">
@@ -67001,10 +67565,10 @@
       <c r="G27" s="258">
         <v>0.05</v>
       </c>
-      <c r="H27" s="280"/>
+      <c r="H27" s="270"/>
     </row>
     <row r="28" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A28" s="291" t="s">
+      <c r="A28" s="278" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="258" t="s">
@@ -67025,10 +67589,10 @@
       <c r="G28" s="258">
         <v>0.02</v>
       </c>
-      <c r="H28" s="280"/>
+      <c r="H28" s="270"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A29" s="291" t="s">
+      <c r="A29" s="278" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="258" t="s">
@@ -67049,10 +67613,10 @@
       <c r="G29" s="258">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H29" s="280"/>
+      <c r="H29" s="270"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A30" s="291" t="s">
+      <c r="A30" s="278" t="s">
         <v>61</v>
       </c>
       <c r="B30" s="258" t="s">
@@ -67073,10 +67637,10 @@
       <c r="G30" s="258">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H30" s="280"/>
+      <c r="H30" s="270"/>
     </row>
     <row r="31" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A31" s="291" t="s">
+      <c r="A31" s="278" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="258" t="s">
@@ -67097,10 +67661,10 @@
       <c r="G31" s="258">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H31" s="280"/>
+      <c r="H31" s="270"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A32" s="291" t="s">
+      <c r="A32" s="278" t="s">
         <v>77</v>
       </c>
       <c r="B32" s="258" t="s">
@@ -67121,10 +67685,10 @@
       <c r="G32" s="258">
         <v>0.01</v>
       </c>
-      <c r="H32" s="280"/>
+      <c r="H32" s="270"/>
     </row>
     <row r="33" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A33" s="291" t="s">
+      <c r="A33" s="278" t="s">
         <v>85</v>
       </c>
       <c r="B33" s="258" t="s">
@@ -67145,10 +67709,10 @@
       <c r="G33" s="258">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H33" s="280"/>
+      <c r="H33" s="270"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A34" s="291" t="s">
+      <c r="A34" s="278" t="s">
         <v>569</v>
       </c>
       <c r="B34" s="258" t="s">
@@ -67169,10 +67733,10 @@
       <c r="G34" s="258">
         <v>0.35</v>
       </c>
-      <c r="H34" s="280"/>
+      <c r="H34" s="270"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A35" s="291" t="s">
+      <c r="A35" s="278" t="s">
         <v>104</v>
       </c>
       <c r="B35" s="258" t="s">
@@ -67193,10 +67757,10 @@
       <c r="G35" s="258">
         <v>0.03</v>
       </c>
-      <c r="H35" s="280"/>
+      <c r="H35" s="270"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A36" s="291" t="s">
+      <c r="A36" s="278" t="s">
         <v>349</v>
       </c>
       <c r="B36" s="258" t="s">
@@ -67217,10 +67781,10 @@
       <c r="G36" s="258">
         <v>0.01</v>
       </c>
-      <c r="H36" s="280"/>
+      <c r="H36" s="270"/>
     </row>
     <row r="37" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A37" s="291" t="s">
+      <c r="A37" s="278" t="s">
         <v>115</v>
       </c>
       <c r="B37" s="258" t="s">
@@ -67241,13 +67805,13 @@
       <c r="G37" s="258">
         <v>0.04</v>
       </c>
-      <c r="H37" s="280"/>
+      <c r="H37" s="270"/>
     </row>
     <row r="38" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A38" s="274" t="s">
+      <c r="A38" s="289" t="s">
         <v>526</v>
       </c>
-      <c r="B38" s="298"/>
+      <c r="B38" s="290"/>
       <c r="C38" s="258">
         <v>12.73</v>
       </c>
@@ -67263,31 +67827,31 @@
       <c r="G38" s="258">
         <v>0.55800000000000005</v>
       </c>
-      <c r="H38" s="280"/>
+      <c r="H38" s="270"/>
     </row>
     <row r="42" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="43" spans="1:8" ht="33.75" thickBot="1">
-      <c r="A43" s="299" t="s">
+      <c r="A43" s="279" t="s">
         <v>525</v>
       </c>
-      <c r="B43" s="300" t="s">
+      <c r="B43" s="280" t="s">
         <v>575</v>
       </c>
-      <c r="C43" s="300" t="s">
+      <c r="C43" s="280" t="s">
         <v>137</v>
       </c>
-      <c r="D43" s="300" t="s">
+      <c r="D43" s="280" t="s">
         <v>134</v>
       </c>
-      <c r="E43" s="300" t="s">
+      <c r="E43" s="280" t="s">
         <v>497</v>
       </c>
-      <c r="F43" s="300" t="s">
+      <c r="F43" s="280" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A44" s="287" t="s">
+      <c r="A44" s="274" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="258">
@@ -67307,7 +67871,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A45" s="287" t="s">
+      <c r="A45" s="274" t="s">
         <v>20</v>
       </c>
       <c r="B45" s="258">
@@ -67327,7 +67891,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A46" s="287" t="s">
+      <c r="A46" s="274" t="s">
         <v>27</v>
       </c>
       <c r="B46" s="258">
@@ -67347,7 +67911,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A47" s="287" t="s">
+      <c r="A47" s="274" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="258">
@@ -67367,7 +67931,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A48" s="287" t="s">
+      <c r="A48" s="274" t="s">
         <v>61</v>
       </c>
       <c r="B48" s="258">
@@ -67387,7 +67951,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A49" s="287" t="s">
+      <c r="A49" s="274" t="s">
         <v>66</v>
       </c>
       <c r="B49" s="258">
@@ -67407,7 +67971,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A50" s="287" t="s">
+      <c r="A50" s="274" t="s">
         <v>77</v>
       </c>
       <c r="B50" s="258">
@@ -67427,7 +67991,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A51" s="287" t="s">
+      <c r="A51" s="274" t="s">
         <v>85</v>
       </c>
       <c r="B51" s="258">
@@ -67447,7 +68011,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A52" s="287" t="s">
+      <c r="A52" s="274" t="s">
         <v>569</v>
       </c>
       <c r="B52" s="258">
@@ -67467,7 +68031,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A53" s="287" t="s">
+      <c r="A53" s="274" t="s">
         <v>104</v>
       </c>
       <c r="B53" s="258">
@@ -67487,7 +68051,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A54" s="287" t="s">
+      <c r="A54" s="274" t="s">
         <v>349</v>
       </c>
       <c r="B54" s="258">
@@ -67507,7 +68071,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A55" s="287" t="s">
+      <c r="A55" s="274" t="s">
         <v>115</v>
       </c>
       <c r="B55" s="258">
@@ -67527,7 +68091,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A56" s="287" t="s">
+      <c r="A56" s="274" t="s">
         <v>526</v>
       </c>
       <c r="B56" s="258">
@@ -67564,714 +68128,1195 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A98A753-3A09-4404-9B44-374DF1BDDDD2}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:G45"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="1" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A1" s="271" t="s">
+    <row r="1" spans="1:11" ht="27.75" customHeight="1">
+      <c r="A1" s="298" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="269"/>
+      <c r="C1" s="234" t="s">
         <v>525</v>
       </c>
-      <c r="C1" s="234" t="s">
+      <c r="D1" s="234" t="s">
         <v>524</v>
       </c>
-      <c r="D1" s="236" t="s">
+      <c r="E1" s="236" t="s">
         <v>529</v>
       </c>
-      <c r="E1" s="235" t="s">
+      <c r="F1" s="235" t="s">
         <v>527</v>
       </c>
-      <c r="F1" s="235" t="s">
+      <c r="G1" s="235" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="271"/>
-      <c r="B2" s="232" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="298"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="232" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>10</v>
-      </c>
-      <c r="E2" s="238">
-        <v>44660</v>
       </c>
       <c r="F2" s="238">
         <v>44660</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="271"/>
-      <c r="B3" s="232" t="s">
+      <c r="G2" s="238">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="298"/>
+      <c r="B3" s="269"/>
+      <c r="C3" s="232" t="s">
         <v>20</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>23</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>92</v>
-      </c>
-      <c r="E3" s="238">
-        <v>44660</v>
       </c>
       <c r="F3" s="238">
         <v>44660</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="271"/>
-      <c r="B4" s="233" t="s">
+      <c r="G3" s="238">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="298"/>
+      <c r="B4" s="269"/>
+      <c r="C4" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>32</v>
-      </c>
-      <c r="E4" s="238">
-        <v>44660</v>
       </c>
       <c r="F4" s="238">
         <v>44660</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="271"/>
-      <c r="B5" s="232" t="s">
+      <c r="G4" s="238">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="298"/>
+      <c r="B5" s="269"/>
+      <c r="C5" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>6</v>
-      </c>
-      <c r="E5" s="238">
-        <v>44660</v>
       </c>
       <c r="F5" s="238">
         <v>44660</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="271"/>
-      <c r="B6" s="232" t="s">
+      <c r="G5" s="238">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="298"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="232" t="s">
         <v>61</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>6</v>
-      </c>
-      <c r="E6" s="238">
-        <v>44661</v>
       </c>
       <c r="F6" s="238">
         <v>44661</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="271"/>
-      <c r="B7" s="232" t="s">
+      <c r="G6" s="238">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="298"/>
+      <c r="B7" s="269"/>
+      <c r="C7" s="232" t="s">
         <v>66</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>7</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>28</v>
-      </c>
-      <c r="E7" s="238">
-        <v>44661</v>
       </c>
       <c r="F7" s="238">
         <v>44661</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="271"/>
-      <c r="B8" s="232" t="s">
+      <c r="G7" s="238">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="298"/>
+      <c r="B8" s="269"/>
+      <c r="C8" s="232" t="s">
         <v>77</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>16</v>
-      </c>
-      <c r="E8" s="238">
-        <v>44661</v>
       </c>
       <c r="F8" s="238">
         <v>44661</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="271"/>
-      <c r="B9" s="232" t="s">
+      <c r="G8" s="238">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="298"/>
+      <c r="B9" s="269"/>
+      <c r="C9" s="232" t="s">
         <v>85</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>42</v>
-      </c>
-      <c r="E9" s="238">
-        <v>44661</v>
       </c>
       <c r="F9" s="238">
         <v>44661</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="271"/>
-      <c r="B10" s="232" t="s">
+      <c r="G9" s="238">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="298"/>
+      <c r="B10" s="269"/>
+      <c r="C10" s="232" t="s">
         <v>93</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="271"/>
-      <c r="B11" s="232" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" s="298"/>
+      <c r="B11" s="269"/>
+      <c r="C11" s="232" t="s">
         <v>104</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="271"/>
-      <c r="B12" s="232" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" s="298"/>
+      <c r="B12" s="269"/>
+      <c r="C12" s="232" t="s">
         <v>349</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="271"/>
-      <c r="B13" s="237" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="298"/>
+      <c r="B13" s="269"/>
+      <c r="C13" s="237" t="s">
         <v>115</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>526</v>
       </c>
-      <c r="C14">
-        <f>SUM(C2:C13)</f>
+      <c r="D14">
+        <f>SUM(D2:D13)</f>
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5">
+    <row r="16" spans="1:11" ht="16.5">
       <c r="A16" s="265" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="260" t="s">
+      <c r="B16" s="265"/>
+      <c r="C16" s="260" t="s">
         <v>550</v>
       </c>
-      <c r="C16" s="260" t="s">
+      <c r="D16" s="260" t="s">
         <v>551</v>
       </c>
-      <c r="D16" s="260" t="s">
+      <c r="E16" s="260" t="s">
         <v>552</v>
       </c>
-      <c r="E16" s="261" t="s">
+      <c r="F16" s="261" t="s">
         <v>558</v>
       </c>
-      <c r="G16" s="264" t="s">
+      <c r="H16" s="264" t="s">
         <v>560</v>
       </c>
-      <c r="H16" s="264" t="s">
+      <c r="I16" s="264" t="s">
         <v>559</v>
       </c>
-      <c r="I16" s="264" t="s">
+      <c r="J16" s="264" t="s">
         <v>562</v>
       </c>
-      <c r="J16" s="264" t="s">
+      <c r="K16" s="264" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="33">
+    <row r="17" spans="1:11" ht="33">
       <c r="A17" s="262" t="s">
         <v>553</v>
       </c>
-      <c r="B17" s="260">
+      <c r="B17" s="262"/>
+      <c r="C17" s="260">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="C17" s="260">
+      <c r="D17" s="260">
         <v>0.05</v>
       </c>
-      <c r="D17" s="260">
+      <c r="E17" s="260">
         <v>0.1</v>
       </c>
-      <c r="E17" s="263">
-        <f>ROUND(((B17+4*C17+D17)/6),2)</f>
+      <c r="F17" s="263">
+        <f>ROUND(((C17+4*D17+E17)/6),2)</f>
         <v>0.06</v>
       </c>
-      <c r="F17" s="265">
-        <f>(G17*H17)/60</f>
+      <c r="G17" s="265">
+        <f>(H17*I17)/60</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G17" s="264">
+      <c r="H17" s="264">
         <v>1.5</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
       </c>
       <c r="J17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="33">
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="33">
       <c r="A18" s="262" t="s">
         <v>554</v>
       </c>
-      <c r="B18" s="260">
+      <c r="B18" s="262"/>
+      <c r="C18" s="260">
         <v>0.05</v>
       </c>
-      <c r="C18" s="260">
+      <c r="D18" s="260">
         <v>0.03</v>
       </c>
-      <c r="D18" s="260">
+      <c r="E18" s="260">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E18" s="263">
-        <f t="shared" ref="E18:E21" si="0">ROUND(((B18+4*C18+D18)/6),2)</f>
+      <c r="F18" s="263">
+        <f t="shared" ref="F18:F21" si="0">ROUND(((C18+4*D18+E18)/6),2)</f>
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="49.5">
+    <row r="19" spans="1:11" ht="49.5">
       <c r="A19" s="262" t="s">
         <v>555</v>
       </c>
-      <c r="B19" s="260">
+      <c r="B19" s="262"/>
+      <c r="C19" s="260">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="C19" s="260">
+      <c r="D19" s="260">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="D19" s="260">
+      <c r="E19" s="260">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E19" s="263">
-        <f>ROUND(((B19+4*C19+D19)/6),2)</f>
+      <c r="F19" s="263">
+        <f>ROUND(((C19+4*D19+E19)/6),2)</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="33">
+    <row r="20" spans="1:11" ht="33">
       <c r="A20" s="262" t="s">
         <v>556</v>
       </c>
-      <c r="B20" s="260">
+      <c r="B20" s="262"/>
+      <c r="C20" s="260">
         <v>0.17</v>
       </c>
-      <c r="C20" s="260">
+      <c r="D20" s="260">
         <v>0.13</v>
       </c>
-      <c r="D20" s="260">
+      <c r="E20" s="260">
         <v>0.25</v>
       </c>
-      <c r="E20" s="263">
+      <c r="F20" s="263">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="49.5">
+    <row r="21" spans="1:11" ht="49.5">
       <c r="A21" s="262" t="s">
         <v>557</v>
       </c>
-      <c r="B21" s="260">
+      <c r="B21" s="262"/>
+      <c r="C21" s="260">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C21" s="260">
+      <c r="D21" s="260">
         <v>0.13</v>
       </c>
-      <c r="D21" s="260">
+      <c r="E21" s="260">
         <v>0.25</v>
       </c>
-      <c r="E21" s="263">
+      <c r="F21" s="263">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5">
+    <row r="22" spans="1:11" ht="16.5">
       <c r="A22" s="259"/>
-    </row>
-    <row r="30" spans="1:10" ht="13.5" thickBot="1"/>
-    <row r="31" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A31" s="272" t="s">
+      <c r="B22" s="307"/>
+    </row>
+    <row r="30" spans="1:11" ht="13.5" thickBot="1"/>
+    <row r="31" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A31" s="299" t="s">
         <v>525</v>
       </c>
-      <c r="B31" s="274" t="s">
+      <c r="B31" s="308"/>
+      <c r="C31" s="289" t="s">
         <v>563</v>
       </c>
-      <c r="C31" s="275"/>
-      <c r="D31" s="275"/>
-      <c r="E31" s="275"/>
-      <c r="F31" s="275"/>
-      <c r="G31" s="276"/>
-    </row>
-    <row r="32" spans="1:10" ht="66.75" thickBot="1">
-      <c r="A32" s="273"/>
-      <c r="B32" s="258" t="s">
+      <c r="D31" s="301"/>
+      <c r="E31" s="301"/>
+      <c r="F31" s="301"/>
+      <c r="G31" s="301"/>
+      <c r="H31" s="291"/>
+    </row>
+    <row r="32" spans="1:11" ht="66.75" thickBot="1">
+      <c r="A32" s="300"/>
+      <c r="B32" s="268"/>
+      <c r="C32" s="258" t="s">
         <v>564</v>
       </c>
-      <c r="C32" s="258" t="s">
+      <c r="D32" s="258" t="s">
         <v>565</v>
       </c>
-      <c r="D32" s="266" t="s">
+      <c r="E32" s="266" t="s">
         <v>566</v>
       </c>
-      <c r="E32" s="258" t="s">
+      <c r="F32" s="258" t="s">
         <v>555</v>
       </c>
-      <c r="F32" s="258" t="s">
+      <c r="G32" s="258" t="s">
         <v>556</v>
       </c>
-      <c r="G32" s="258" t="s">
+      <c r="H32" s="258" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17.25" thickBot="1">
+    <row r="33" spans="1:8" ht="17.25" thickBot="1">
       <c r="A33" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="258" t="s">
+      <c r="B33" s="268"/>
+      <c r="C33" s="258" t="s">
         <v>567</v>
       </c>
-      <c r="C33" s="258">
+      <c r="D33" s="258">
         <v>0.21</v>
       </c>
-      <c r="D33" s="258">
+      <c r="E33" s="258">
         <v>0.13</v>
       </c>
-      <c r="E33" s="258">
+      <c r="F33" s="258">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="F33" s="258">
+      <c r="G33" s="258">
         <v>0.25</v>
       </c>
-      <c r="G33" s="258">
+      <c r="H33" s="258">
         <v>0.03</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.25" thickBot="1">
+    <row r="34" spans="1:8" ht="17.25" thickBot="1">
       <c r="A34" s="267" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="258" t="s">
+      <c r="B34" s="268"/>
+      <c r="C34" s="258" t="s">
         <v>568</v>
       </c>
-      <c r="C34" s="258">
+      <c r="D34" s="258">
         <v>1.53</v>
       </c>
-      <c r="D34" s="258">
+      <c r="E34" s="258">
         <v>1.72</v>
       </c>
-      <c r="E34" s="258">
+      <c r="F34" s="258">
         <v>1.41</v>
       </c>
-      <c r="F34" s="258">
+      <c r="G34" s="258">
         <v>3.66</v>
       </c>
-      <c r="G34" s="258">
+      <c r="H34" s="258">
         <v>0.39</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.25" thickBot="1">
+    <row r="35" spans="1:8" ht="17.25" thickBot="1">
       <c r="A35" s="267" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="258" t="s">
+      <c r="B35" s="268"/>
+      <c r="C35" s="258" t="s">
         <v>568</v>
       </c>
-      <c r="C35" s="258">
+      <c r="D35" s="258">
         <v>0.7</v>
       </c>
-      <c r="D35" s="258">
+      <c r="E35" s="258">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E35" s="258">
+      <c r="F35" s="258">
         <v>0.23</v>
       </c>
-      <c r="F35" s="258">
+      <c r="G35" s="258">
         <v>1.29</v>
       </c>
-      <c r="G35" s="258">
+      <c r="H35" s="258">
         <v>0.13</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.25" thickBot="1">
+    <row r="36" spans="1:8" ht="17.25" thickBot="1">
       <c r="A36" s="267" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="258" t="s">
+      <c r="B36" s="268"/>
+      <c r="C36" s="258" t="s">
         <v>567</v>
       </c>
-      <c r="C36" s="258">
+      <c r="D36" s="258">
         <v>0.21</v>
       </c>
-      <c r="D36" s="258">
+      <c r="E36" s="258">
         <v>0.18</v>
       </c>
-      <c r="E36" s="258">
+      <c r="F36" s="258">
         <v>0.05</v>
       </c>
-      <c r="F36" s="258">
+      <c r="G36" s="258">
         <v>0.11</v>
       </c>
-      <c r="G36" s="258">
+      <c r="H36" s="258">
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.25" thickBot="1">
+    <row r="37" spans="1:8" ht="17.25" thickBot="1">
       <c r="A37" s="267" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="258" t="s">
+      <c r="B37" s="268"/>
+      <c r="C37" s="258" t="s">
         <v>567</v>
       </c>
-      <c r="C37" s="258">
+      <c r="D37" s="258">
         <v>0.21</v>
       </c>
-      <c r="D37" s="258">
+      <c r="E37" s="258">
         <v>0.18</v>
       </c>
-      <c r="E37" s="258">
+      <c r="F37" s="258">
         <v>0.03</v>
       </c>
-      <c r="F37" s="258">
+      <c r="G37" s="258">
         <v>0.19</v>
       </c>
-      <c r="G37" s="258">
+      <c r="H37" s="258">
         <v>0.03</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="33.75" thickBot="1">
+    <row r="38" spans="1:8" ht="33.75" thickBot="1">
       <c r="A38" s="267" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="258" t="s">
+      <c r="B38" s="268"/>
+      <c r="C38" s="258" t="s">
         <v>568</v>
-      </c>
-      <c r="C38" s="258">
-        <v>0.47</v>
       </c>
       <c r="D38" s="258">
         <v>0.47</v>
       </c>
       <c r="E38" s="258">
+        <v>0.47</v>
+      </c>
+      <c r="F38" s="258">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F38" s="258">
+      <c r="G38" s="258">
         <v>0.23</v>
       </c>
-      <c r="G38" s="258">
+      <c r="H38" s="258">
         <v>0.03</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="33.75" thickBot="1">
+    <row r="39" spans="1:8" ht="33.75" thickBot="1">
       <c r="A39" s="267" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="258" t="s">
+      <c r="B39" s="268"/>
+      <c r="C39" s="258" t="s">
         <v>568</v>
       </c>
-      <c r="C39" s="258">
+      <c r="D39" s="258">
         <v>0.31</v>
       </c>
-      <c r="D39" s="258">
+      <c r="E39" s="258">
         <v>0.17</v>
       </c>
-      <c r="E39" s="258">
+      <c r="F39" s="258">
         <v>0.04</v>
       </c>
-      <c r="F39" s="258">
+      <c r="G39" s="258">
         <v>0.63</v>
       </c>
-      <c r="G39" s="258">
+      <c r="H39" s="258">
         <v>0.03</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="33.75" thickBot="1">
+    <row r="40" spans="1:8" ht="33.75" thickBot="1">
       <c r="A40" s="267" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="258" t="s">
+      <c r="B40" s="268"/>
+      <c r="C40" s="258" t="s">
         <v>568</v>
       </c>
-      <c r="C40" s="258">
+      <c r="D40" s="258">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D40" s="258">
+      <c r="E40" s="258">
         <v>0.53</v>
       </c>
-      <c r="E40" s="258">
+      <c r="F40" s="258">
         <v>0.18</v>
       </c>
-      <c r="F40" s="258">
+      <c r="G40" s="258">
         <v>0.63</v>
       </c>
-      <c r="G40" s="258">
+      <c r="H40" s="258">
         <v>0.03</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="33.75" thickBot="1">
+    <row r="41" spans="1:8" ht="33.75" thickBot="1">
       <c r="A41" s="267" t="s">
         <v>569</v>
       </c>
-      <c r="B41" s="258" t="s">
+      <c r="B41" s="268"/>
+      <c r="C41" s="258" t="s">
         <v>568</v>
       </c>
-      <c r="C41" s="258">
+      <c r="D41" s="258">
         <v>2.34</v>
       </c>
-      <c r="D41" s="258">
+      <c r="E41" s="258">
         <v>1.24</v>
       </c>
-      <c r="E41" s="268">
+      <c r="F41" s="268">
         <v>0.37</v>
       </c>
-      <c r="F41" s="258">
+      <c r="G41" s="258">
         <v>6.23</v>
       </c>
-      <c r="G41" s="258">
+      <c r="H41" s="258">
         <v>0.41</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="50.25" thickBot="1">
+    <row r="42" spans="1:8" ht="50.25" thickBot="1">
       <c r="A42" s="267" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="258" t="s">
+      <c r="B42" s="268"/>
+      <c r="C42" s="258" t="s">
         <v>567</v>
       </c>
-      <c r="C42" s="258">
+      <c r="D42" s="258">
         <v>1.2</v>
       </c>
-      <c r="D42" s="268">
+      <c r="E42" s="268">
         <v>0.47</v>
       </c>
-      <c r="E42" s="268">
+      <c r="F42" s="268">
         <v>0.12</v>
       </c>
-      <c r="F42" s="258">
+      <c r="G42" s="258">
         <v>1.67</v>
       </c>
-      <c r="G42" s="258">
+      <c r="H42" s="258">
         <v>0.12</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="50.25" thickBot="1">
+    <row r="43" spans="1:8" ht="50.25" thickBot="1">
       <c r="A43" s="267" t="s">
         <v>349</v>
       </c>
-      <c r="B43" s="258" t="s">
+      <c r="B43" s="268"/>
+      <c r="C43" s="258" t="s">
         <v>567</v>
       </c>
-      <c r="C43" s="258">
+      <c r="D43" s="258">
         <v>0.75</v>
       </c>
-      <c r="D43" s="268">
+      <c r="E43" s="268">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E43" s="268">
+      <c r="F43" s="268">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F43" s="258">
+      <c r="G43" s="258">
         <v>0.75</v>
       </c>
-      <c r="G43" s="258">
+      <c r="H43" s="258">
         <v>0.08</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.25" thickBot="1">
+    <row r="44" spans="1:8" ht="17.25" thickBot="1">
       <c r="A44" s="267" t="s">
         <v>115</v>
       </c>
-      <c r="B44" s="258" t="s">
+      <c r="B44" s="268"/>
+      <c r="C44" s="258" t="s">
         <v>567</v>
       </c>
-      <c r="C44" s="258">
+      <c r="D44" s="258">
         <v>0.06</v>
       </c>
-      <c r="D44" s="258">
+      <c r="E44" s="258">
         <v>0.04</v>
       </c>
-      <c r="E44" s="258">
+      <c r="F44" s="258">
         <v>0.01</v>
       </c>
-      <c r="F44" s="258">
+      <c r="G44" s="258">
         <v>0.16</v>
       </c>
-      <c r="G44" s="258">
+      <c r="H44" s="258">
         <v>0.13</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A45" s="274" t="s">
+    <row r="45" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A45" s="289" t="s">
         <v>526</v>
       </c>
-      <c r="B45" s="276"/>
-      <c r="C45" s="258">
-        <f>SUM(C33:C44)</f>
-        <v>9.1</v>
-      </c>
+      <c r="B45" s="301"/>
+      <c r="C45" s="291"/>
       <c r="D45" s="258">
         <f>SUM(D33:D44)</f>
-        <v>5.9700000000000006</v>
+        <v>9.1</v>
       </c>
       <c r="E45" s="258">
         <f>SUM(E33:E44)</f>
-        <v>3.6275000000000004</v>
+        <v>5.9700000000000006</v>
       </c>
       <c r="F45" s="258">
         <f>SUM(F33:F44)</f>
-        <v>15.800000000000002</v>
+        <v>3.6275000000000004</v>
       </c>
       <c r="G45" s="258">
         <f>SUM(G33:G44)</f>
+        <v>15.800000000000002</v>
+      </c>
+      <c r="H45" s="258">
+        <f>SUM(H33:H44)</f>
         <v>1.42</v>
       </c>
     </row>
+    <row r="50" spans="1:14" ht="13.5" thickBot="1"/>
+    <row r="51" spans="1:14" ht="50.25" thickBot="1">
+      <c r="A51" s="303"/>
+      <c r="B51" s="303" t="s">
+        <v>582</v>
+      </c>
+      <c r="C51" s="303" t="s">
+        <v>578</v>
+      </c>
+      <c r="D51" s="303" t="s">
+        <v>579</v>
+      </c>
+      <c r="E51" s="303" t="s">
+        <v>568</v>
+      </c>
+      <c r="F51" s="303" t="s">
+        <v>580</v>
+      </c>
+      <c r="G51" s="304" t="s">
+        <v>581</v>
+      </c>
+      <c r="I51" s="315" t="s">
+        <v>525</v>
+      </c>
+      <c r="J51" s="316" t="s">
+        <v>575</v>
+      </c>
+      <c r="K51" s="316" t="s">
+        <v>137</v>
+      </c>
+      <c r="L51" s="316" t="s">
+        <v>134</v>
+      </c>
+      <c r="M51" s="316" t="s">
+        <v>497</v>
+      </c>
+      <c r="N51" s="316" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="17.25" thickBot="1">
+      <c r="A52" s="305" t="s">
+        <v>577</v>
+      </c>
+      <c r="B52" s="260">
+        <v>16</v>
+      </c>
+      <c r="C52" s="303">
+        <v>10</v>
+      </c>
+      <c r="D52" s="303">
+        <v>2</v>
+      </c>
+      <c r="E52" s="303">
+        <v>4</v>
+      </c>
+      <c r="F52" s="303">
+        <v>0</v>
+      </c>
+      <c r="G52" s="306">
+        <v>0</v>
+      </c>
+      <c r="I52" s="274" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="258">
+        <v>1</v>
+      </c>
+      <c r="K52" s="258">
+        <v>1</v>
+      </c>
+      <c r="L52" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="M52" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="N52" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="33.75" thickBot="1">
+      <c r="A53" s="305"/>
+      <c r="B53" s="309">
+        <v>1</v>
+      </c>
+      <c r="C53" s="303">
+        <v>62.5</v>
+      </c>
+      <c r="D53" s="303">
+        <v>12.5</v>
+      </c>
+      <c r="E53" s="303">
+        <v>25</v>
+      </c>
+      <c r="F53" s="303">
+        <v>0</v>
+      </c>
+      <c r="G53" s="306"/>
+      <c r="I53" s="274" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="258">
+        <v>21</v>
+      </c>
+      <c r="K53" s="258">
+        <v>20</v>
+      </c>
+      <c r="L53" s="258">
+        <v>1</v>
+      </c>
+      <c r="M53" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="N53" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="17.25" thickBot="1">
+      <c r="A54" s="302"/>
+      <c r="B54" s="302"/>
+      <c r="I54" s="274" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="258">
+        <v>7</v>
+      </c>
+      <c r="K54" s="258">
+        <v>6</v>
+      </c>
+      <c r="L54" s="258">
+        <v>1</v>
+      </c>
+      <c r="M54" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="N54" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="17.25" thickBot="1">
+      <c r="I55" s="274" t="s">
+        <v>43</v>
+      </c>
+      <c r="J55" s="258">
+        <v>1</v>
+      </c>
+      <c r="K55" s="258">
+        <v>0</v>
+      </c>
+      <c r="L55" s="258">
+        <v>1</v>
+      </c>
+      <c r="M55" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="N55" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="17.25" thickBot="1">
+      <c r="I56" s="274" t="s">
+        <v>61</v>
+      </c>
+      <c r="J56" s="258">
+        <v>2</v>
+      </c>
+      <c r="K56" s="258">
+        <v>2</v>
+      </c>
+      <c r="L56" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="M56" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="N56" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="33.75" thickBot="1">
+      <c r="I57" s="274" t="s">
+        <v>66</v>
+      </c>
+      <c r="J57" s="258">
+        <v>3</v>
+      </c>
+      <c r="K57" s="258">
+        <v>2</v>
+      </c>
+      <c r="L57" s="258">
+        <v>1</v>
+      </c>
+      <c r="M57" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="N57" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="33.75" thickBot="1">
+      <c r="I58" s="274" t="s">
+        <v>77</v>
+      </c>
+      <c r="J58" s="258">
+        <v>3</v>
+      </c>
+      <c r="K58" s="258">
+        <v>3</v>
+      </c>
+      <c r="L58" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="M58" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="N58" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="33.75" thickBot="1">
+      <c r="I59" s="274" t="s">
+        <v>85</v>
+      </c>
+      <c r="J59" s="258">
+        <v>4</v>
+      </c>
+      <c r="K59" s="258">
+        <v>3</v>
+      </c>
+      <c r="L59" s="258">
+        <v>1</v>
+      </c>
+      <c r="M59" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="N59" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="33.75" thickBot="1">
+      <c r="I60" s="274" t="s">
+        <v>569</v>
+      </c>
+      <c r="J60" s="258">
+        <v>49</v>
+      </c>
+      <c r="K60" s="258">
+        <v>49</v>
+      </c>
+      <c r="L60" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="M60" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="N60" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="50.25" thickBot="1">
+      <c r="I61" s="274" t="s">
+        <v>104</v>
+      </c>
+      <c r="J61" s="258">
+        <v>7</v>
+      </c>
+      <c r="K61" s="258">
+        <v>7</v>
+      </c>
+      <c r="L61" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="M61" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="N61" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="50.25" thickBot="1">
+      <c r="I62" s="274" t="s">
+        <v>349</v>
+      </c>
+      <c r="J62" s="258">
+        <v>4</v>
+      </c>
+      <c r="K62" s="258">
+        <v>4</v>
+      </c>
+      <c r="L62" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="M62" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="N62" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="17.25" thickBot="1">
+      <c r="I63" s="274" t="s">
+        <v>115</v>
+      </c>
+      <c r="J63" s="258">
+        <v>1</v>
+      </c>
+      <c r="K63" s="258">
+        <v>1</v>
+      </c>
+      <c r="L63" s="258">
+        <v>0</v>
+      </c>
+      <c r="M63" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="N63" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="17.25" thickBot="1">
+      <c r="I64" s="274" t="s">
+        <v>526</v>
+      </c>
+      <c r="J64" s="258">
+        <f>SUM(J52:J63)</f>
+        <v>103</v>
+      </c>
+      <c r="K64" s="258">
+        <f>SUM(K52:K63)</f>
+        <v>98</v>
+      </c>
+      <c r="L64" s="258">
+        <v>5</v>
+      </c>
+      <c r="M64" s="258" t="s">
+        <v>576</v>
+      </c>
+      <c r="N64" s="258" t="s">
+        <v>576</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A13"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A52:A53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D0CB1E-971C-4217-B4F0-2CE6B9DF7A16}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C10" sqref="C9:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A1" s="310"/>
+      <c r="B1" s="311" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1" s="311" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="311" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="141" thickBot="1">
+      <c r="A2" s="312">
+        <v>1</v>
+      </c>
+      <c r="B2" s="313" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2" s="314" t="s">
+        <v>589</v>
+      </c>
+      <c r="D2" s="317" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="153.75" thickBot="1">
+      <c r="A3" s="312">
+        <v>2</v>
+      </c>
+      <c r="B3" s="313" t="s">
+        <v>586</v>
+      </c>
+      <c r="C3" s="314" t="s">
+        <v>588</v>
+      </c>
+      <c r="D3" s="317" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="141" thickBot="1">
+      <c r="A4" s="312">
+        <v>3</v>
+      </c>
+      <c r="B4" s="313" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="314" t="s">
+        <v>590</v>
+      </c>
+      <c r="D4" s="317" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="166.5" thickBot="1">
+      <c r="A5" s="312">
+        <v>4</v>
+      </c>
+      <c r="B5" s="313" t="s">
+        <v>591</v>
+      </c>
+      <c r="C5" s="314" t="s">
+        <v>592</v>
+      </c>
+      <c r="D5" s="317" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="166.5" thickBot="1">
+      <c r="A6" s="312">
+        <v>5</v>
+      </c>
+      <c r="B6" s="313" t="s">
+        <v>587</v>
+      </c>
+      <c r="C6" s="314" t="s">
+        <v>593</v>
+      </c>
+      <c r="D6" s="317" t="s">
+        <v>568</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>